--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.12</t>
+    <t>urn:oid:1.2.250.1.213.3.3.12</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -616,7 +616,7 @@
     <t>077</t>
   </si>
   <si>
-    <t>Maladies infectieuses, parasitaires et tropicales</t>
+    <t>Maladies infectieuses et tropicales</t>
   </si>
   <si>
     <t>078</t>
@@ -766,7 +766,7 @@
     <t>102</t>
   </si>
   <si>
-    <t>Oncologie-cancérologie</t>
+    <t>Oncologie médicale (cancérologie)</t>
   </si>
   <si>
     <t>103</t>
@@ -1267,49 +1267,49 @@
     <t>186</t>
   </si>
   <si>
-    <t>Oncologie neurologique (cancérologie)</t>
+    <t>Oncologie médicale neurologique (cancérologie)</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>Oncogériatrie (cancérologie)</t>
+    <t>Oncogériatrie médicale (cancérologie)</t>
   </si>
   <si>
     <t>188</t>
   </si>
   <si>
-    <t>Oncologie dermatologique (cancérologie)</t>
+    <t>Oncologie médicale dermatologique (cancérologie)</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>Oncologie digestive et viscérale (cancérologie)</t>
+    <t>Oncologie médicale digestive et viscérale (cancérologie)</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>Oncologie gynécologique (cancérologie)</t>
+    <t>Oncologie médicale gynécologique (cancérologie)</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>Oncologie hématologique (cancérologie)</t>
+    <t>Oncologie médicale hématologique (cancérologie)</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>Oncologie oto-rhino-laryngologique (ORL) et cervico-faciale (cancérologie)</t>
+    <t>Oncologie médicale ORL et cervico-faciale (cancérologie)</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>Oncologie pneumologique (cancérologie)</t>
+    <t>Oncologie médicale pneumologique (cancérologie)</t>
   </si>
   <si>
     <t>194</t>
@@ -1321,13 +1321,13 @@
     <t>195</t>
   </si>
   <si>
-    <t>Oncologie sénologique (cancer du sein) (cancérologie)</t>
+    <t>Oncologie médicale sénologique (cancer du sein) (cancérologie)</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>Oncologie urologique (cancérologie)</t>
+    <t>Oncologie médicale urologique (cancérologie)</t>
   </si>
   <si>
     <t>197</t>
@@ -1513,13 +1513,13 @@
     <t>227</t>
   </si>
   <si>
-    <t>Pédopsychiatrie infanto-juvénile</t>
+    <t>Psychiatrie infanto-juvénile (pédopsychiatrie)</t>
   </si>
   <si>
     <t>228</t>
   </si>
   <si>
-    <t>Pédopsychiatrie des adolescents et jeunes adultes</t>
+    <t>Psychiatrie des adolescents (pédopsychiatrie) et jeunes adultes</t>
   </si>
   <si>
     <t>229</t>
@@ -1825,7 +1825,7 @@
     <t>279</t>
   </si>
   <si>
-    <t>Oncologie pédiatrique (cancérologie)</t>
+    <t>Oncologie médicale pédiatrique (cancérologie)</t>
   </si>
   <si>
     <t>280</t>
@@ -2098,7 +2098,7 @@
     <t>325</t>
   </si>
   <si>
-    <t>Soutien et aide aux aidants et/ou à la famille</t>
+    <t>Soutien et aide aux aidants et/ou à la famille/entourage</t>
   </si>
   <si>
     <t>326</t>
@@ -2356,7 +2356,7 @@
     <t>368</t>
   </si>
   <si>
-    <t>Soins intensifs spécialisés maladies infectieuses, parasitaires et tropicales</t>
+    <t>Soins intensifs spécialisés maladies infectieuses et tropicales</t>
   </si>
   <si>
     <t>369</t>
@@ -2602,13 +2602,13 @@
     <t>409</t>
   </si>
   <si>
-    <t>Oncologie endocrinienne et thyroïdienne</t>
+    <t>Oncologie médicale endocrinienne et thyroïdienne</t>
   </si>
   <si>
     <t>410</t>
   </si>
   <si>
-    <t>Oncologie os et tissus mous</t>
+    <t>Oncologie médicale os et tissus mous</t>
   </si>
   <si>
     <t>411</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -163,6 +163,9 @@
     <t>Addictologie comportementale (sans substance)</t>
   </si>
   <si>
+    <t>Branche de la médecine qui étudie la difficulté ou l'impossibilité de contrôler un comportement malgré ses conséquences. Elle comprend les addictions aux jeux d'argent, aux jeux vidéo, aux écrans, à Internet, à la nourriture et au sexe.</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>Alcoologie</t>
   </si>
   <si>
+    <t>Branche de la médecine qui étudie les causes et les effets de la consommation d'alcool par l'être humain.</t>
+  </si>
+  <si>
     <t>004</t>
   </si>
   <si>
@@ -349,12 +355,18 @@
     <t>Chirurgie vasculaire et endovasculaire</t>
   </si>
   <si>
+    <t>Spécialité chirurgicale qui s'applique aux vaisseaux (artères ou veines) prenant en charge les maladies artérielles : dilatations pathologiques graves (anévrismes de l'aorte), rétrécissements artériels par artériosclérose (par exemple, pontage au niveau de la cuisse pour artérite de jambes), maladies veineuses (varices) et la mise en place de dispositifs reliés à de gros vaisseaux (par exemple, les chambres implantables).</t>
+  </si>
+  <si>
     <t>033</t>
   </si>
   <si>
     <t>Chirurgie digestive et viscérale fonctionnelle (hors carcinologie)</t>
   </si>
   <si>
+    <t>Branche de la chirurgie dont le périmètre d'intervention est l'ensemble des organes digestifs et endocriniens, de l'oesophage jusqu'à l'anus en y excluant les pathologies cancéreuses.</t>
+  </si>
+  <si>
     <t>034</t>
   </si>
   <si>
@@ -397,6 +409,9 @@
     <t>Diététique et Nutrition</t>
   </si>
   <si>
+    <t>La diététique désigne l'ensemble des règles à suivre pour une alimentation bien équilibrée. La nutrition est axée sur l'assimilation et la transformation par le corps des nutriments.</t>
+  </si>
+  <si>
     <t>041</t>
   </si>
   <si>
@@ -421,6 +436,9 @@
     <t>Foetopathologie et Embryopathologie</t>
   </si>
   <si>
+    <t>Spécialité médicale réalisant l'examen médical approfondi des embryons et des foetus, qu'ils soient issus d'une interruption spontanée de grossesse, ou d'une interruption médicale de grossesse. Il s'y ajoute habituellement l'examen des nouveau-nés décédés en période néonatale.</t>
+  </si>
+  <si>
     <t>045</t>
   </si>
   <si>
@@ -619,6 +637,9 @@
     <t>Maladies infectieuses et tropicales</t>
   </si>
   <si>
+    <t xml:space="preserve">Spécialité médicale clinique qui s'intéresse à la prise en charge des maladies infectieuses et tropicales (c'est-à-dire transmis par les bactéries, virus, parasites ou champignons) dans leurs dimensions individuelles et collectives. </t>
+  </si>
+  <si>
     <t>078</t>
   </si>
   <si>
@@ -661,12 +682,18 @@
     <t>Médecine hyperbare</t>
   </si>
   <si>
+    <t>Branche de la médecine qui utilise l'oxygénothérapie hyperbare, qui est une méthode d'administration d'oxygène (O2) inhalé à des fins thérapeutiques sous une pression supérieure à la pression atmosphérique. Elle est appliquée par l'intermédiaire d'une chambre hyperbare, communément appelée « caisson ».</t>
+  </si>
+  <si>
     <t>085</t>
   </si>
   <si>
     <t>Médecine interne</t>
   </si>
   <si>
+    <t>Spécialité médicale qui s'intéresse au diagnostic et à la prise en charge globale des maladies de l'adulte, et particulièrement des maladies systémiques et auto-immunes en général.</t>
+  </si>
+  <si>
     <t>086</t>
   </si>
   <si>
@@ -751,6 +778,9 @@
     <t>Médecine de l'obésité</t>
   </si>
   <si>
+    <t>Branche de la médecine qui prend en charge les patients atteints d'obésité.</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -763,12 +793,18 @@
     <t>Odontologie (dentaire)</t>
   </si>
   <si>
+    <t xml:space="preserve">Spécialité médico-chirurgicale qui traite de la prévention, du diagnostic et du traitement des maladies congénitales ou acquises, réelles ou supposées, de la bouche, des dents, des maxillaires et des tissus connexes. </t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
     <t>Oncologie médicale (cancérologie)</t>
   </si>
   <si>
+    <t>Spécialité médicale qui s'intéresse aux tumeurs cancéreuses. On parle aussi de cancérologie.</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
@@ -781,18 +817,27 @@
     <t>Orthodontie ou orthopédie dento-faciale</t>
   </si>
   <si>
+    <t>Spécialité qui traite les anomalies des arcades dentaires, les anomalies de position des dents, les anomalies des mâchoires et les dysfonctions associées.</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
     <t>Orthogénie</t>
   </si>
   <si>
+    <t>Branche de la médecine qui s'occupe des différents moyens de contraception et des méthodes d'interruption volontaire de grossesse.</t>
+  </si>
+  <si>
     <t>106</t>
   </si>
   <si>
     <t>Orthoptie</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline paramédicale spécialisée dans le dépistage, la rééducation et l'exploration de la fonction visuelle. </t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
@@ -859,6 +904,9 @@
     <t>Proctologie médico-chirurgicale</t>
   </si>
   <si>
+    <t>Branche de la médecine et de la chirurgie qui s'intéresse aux maladies de l'anus et du rectum.</t>
+  </si>
+  <si>
     <t>118</t>
   </si>
   <si>
@@ -949,6 +997,9 @@
     <t>Rythmologie</t>
   </si>
   <si>
+    <t>Branche de la cardiologie (surspécialité) dédiée à la prise en charge des anomalies du rythme cardiaque, extrasystoles, accélération ou ralentissements anormaux.</t>
+  </si>
+  <si>
     <t>133</t>
   </si>
   <si>
@@ -967,6 +1018,9 @@
     <t>Sexologie médicale</t>
   </si>
   <si>
+    <t>Branche de la médecine qui étudie les troubles de la sexualité.</t>
+  </si>
+  <si>
     <t>136</t>
   </si>
   <si>
@@ -1141,6 +1195,9 @@
     <t>Traitements médicamenteux systémiques du cancer</t>
   </si>
   <si>
+    <t>Regroupent la chimiothérapie, les thérapies ciblées, l'immunothérapie et les médicaments de thérapie innovante, quelles que soient les voies d'administration.</t>
+  </si>
+  <si>
     <t>165</t>
   </si>
   <si>
@@ -1165,6 +1222,9 @@
     <t>Radiothérapie externe</t>
   </si>
   <si>
+    <t>Traitement du cancer dont le but est de détruire les cellules cancéreuses à travers la peau au moyen de rayons produits par un appareil de radiothérapie, un accélérateur de particules dont les rayons sont dirigés en faisceau sur la tumeur et parfois, sur certains ganglions voisins de l'organe atteint.</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
@@ -1177,6 +1237,9 @@
     <t>Soins palliatifs</t>
   </si>
   <si>
+    <t>Ensemble des actes de soin et d'accompagnement à visée palliative (visent au confort du malade) réalisés par des professionnels formés qui exercent dans une structure médico-sociale et peuvent intervenir sur tous les lieux de vie de l'usager.</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
@@ -1189,6 +1252,9 @@
     <t>Réadaptation polyvalente</t>
   </si>
   <si>
+    <t xml:space="preserve">Branche des soins médicaux et de réadaptation qui vise à prévenir ou à réduire les conséquences fonctionnelles, les déficiences et les limitations d'activité, soit dans le cadre de la prise en charge de patients atteints de pathologies chroniques, soit en amont ou en aval des épisodes de soins aigus, que ces conséquences soient physiques, cognitives, psychologiques ou sociales. </t>
+  </si>
+  <si>
     <t>173</t>
   </si>
   <si>
@@ -1222,12 +1288,18 @@
     <t>Chirurgie plastique et esthétique</t>
   </si>
   <si>
+    <t>Spécialité chirurgicale qui reconstruit et améliore l'apparence du corps à la suite d'une malformation congénitale, d'un accident, d'une intervention chirurgicale, d'une anomalie morphologique ou encore l'aspect extérieur du corps mal accepté par le patient.</t>
+  </si>
+  <si>
     <t>179</t>
   </si>
   <si>
     <t>Médecine aéronautique et aérospatiale</t>
   </si>
   <si>
+    <t>Branche de médecine qui prend en charge les effets physiologiques du vol dans l'atmosphère pour l'évaluation et la surveillance médicale des personnels navigants.</t>
+  </si>
+  <si>
     <t>180</t>
   </si>
   <si>
@@ -1270,48 +1342,72 @@
     <t>Oncologie médicale neurologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses du système nerveux central et périphérique.</t>
+  </si>
+  <si>
     <t>187</t>
   </si>
   <si>
     <t>Oncogériatrie médicale (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses du patient âgé pour un traitement adapté à son état grâce à une approche multidisciplinaire et multiprofessionnelle.</t>
+  </si>
+  <si>
     <t>188</t>
   </si>
   <si>
     <t>Oncologie médicale dermatologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de la peau et des muqueuses.</t>
+  </si>
+  <si>
     <t>189</t>
   </si>
   <si>
     <t>Oncologie médicale digestive et viscérale (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses des affections de l'abdomen et du pelvis.</t>
+  </si>
+  <si>
     <t>190</t>
   </si>
   <si>
     <t>Oncologie médicale gynécologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de l'appareil génital de la femme (utérus, vagin, ovaires, et seins).</t>
+  </si>
+  <si>
     <t>191</t>
   </si>
   <si>
     <t>Oncologie médicale hématologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'hématologie qui s'intéresse aux cancers des cellules du sang et des organes qui les fabriquent, comme les leucémies ou les lymphomes.</t>
+  </si>
+  <si>
     <t>192</t>
   </si>
   <si>
     <t>Oncologie médicale ORL et cervico-faciale (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de l'oreille, du nez et de la gorge.</t>
+  </si>
+  <si>
     <t>193</t>
   </si>
   <si>
     <t>Oncologie médicale pneumologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de l'appareil respiratoire.</t>
+  </si>
+  <si>
     <t>194</t>
   </si>
   <si>
@@ -1324,12 +1420,18 @@
     <t>Oncologie médicale sénologique (cancer du sein) (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses du sein.</t>
+  </si>
+  <si>
     <t>196</t>
   </si>
   <si>
     <t>Oncologie médicale urologique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de l'appareil urinaire de la femme et de l'homme (vessie, uretère, urètre) et de l'appareil génital et reproducteur masculin (prostate, pénis, testicules).</t>
+  </si>
+  <si>
     <t>197</t>
   </si>
   <si>
@@ -1342,24 +1444,36 @@
     <t>Parodontologie</t>
   </si>
   <si>
+    <t>Discipline de prévention et traitement des affections des gencives et de l'os qui entoure les dents.</t>
+  </si>
+  <si>
     <t>199</t>
   </si>
   <si>
     <t>Chirurgie orale</t>
   </si>
   <si>
+    <t>Spécialité qui traite les pathologies des mâchoires et des tissus environnants.</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
     <t>Orthophonie</t>
   </si>
   <si>
+    <t>Discipline paramédicale spécialisée dans la prévention, le bilan orthophonique et le traitement des troubles de la communication, du langage dans toutes ses dimensions, de la cognition mathématique, de la parole, de la voix et des fonctions oro-myo-faciales</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
     <t>Podologie</t>
   </si>
   <si>
+    <t>Discipline paramédicale qualifiée pour traiter directement les affections épidermiques, limitées aux couches cornées et aux affections unguéales du pied, à l'exclusion de toute intervention chirurgicale, pour pratiquer les soins d'hygiène, pour confectionner et appliquer des semelles destinées à prévenir ou à soulager les affections épidermiques, pour analyser et évaluer les troubles morphostatiques et dynamiques du pied et élaborer un diagnostic de pédicurie-podologie en tenant compte de la statique et de la dynamique du pied, pour renouveler les prescriptions médicales initiales d'orthèses plantaires.</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
@@ -1510,6 +1624,9 @@
     <t>Expertise des infections osteo-articulaires complexes (CRIOA, CRIOAC)</t>
   </si>
   <si>
+    <t>Centres de référence qui ont une mission de coordination, d'expertise, de formation et de recherche ainsi que de prise en charge des infections ostéo-articulaires les plus complexes en lien avec leurs centres correspondants et les autres établissements de l'inter-région.</t>
+  </si>
+  <si>
     <t>227</t>
   </si>
   <si>
@@ -1540,6 +1657,9 @@
     <t>Evaluation et soins de réhabilitation psychosociale</t>
   </si>
   <si>
+    <t>Evaluation et soins mis en oeuvre auprès des personnes souffrant de troubles psychiques visant à favoriser leur autonomie et leur intégration pour atteindre une qualité de vie satisfaisante en tenant compte de leurs capacités, leurs compétences et leurs choix</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
@@ -1552,12 +1672,18 @@
     <t>Réadaptation des affections de l'appareil locomoteur</t>
   </si>
   <si>
+    <t>Prise en charge des affections de l'appareil locomoteur permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections de l'appareil locomoteur sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
     <t>Réadaptation des affections du système nerveux</t>
   </si>
   <si>
+    <t>Ensemble d'interventions conçues pour optimiser le fonctionnement et réduire le handicap des personnes souffrant de problèmes de santé lorsqu'elles interagissent avec leur environnement.</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
@@ -1588,6 +1714,9 @@
     <t>Réadaptation des brulés (dont maladies nécrosantes et bulleuses de la peau)</t>
   </si>
   <si>
+    <t>Branche des soins médicaux et de réadaptation qui vise à prévenir ou à réduire les conséquences fonctionnelles, les déficiences et les limitations d'activité conçues pour optimiser le fonctionnement et réduire le handicap des personnes souffrant de brûlures ou de lésions cutanées nécrosantes ou bulleuses.</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
@@ -1600,6 +1729,9 @@
     <t>Réadaptation gériatrique</t>
   </si>
   <si>
+    <t>Prise en charge des affections gériatriques permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections dues à l'âge sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>242</t>
   </si>
   <si>
@@ -1612,6 +1744,9 @@
     <t>Réadaptation néphrologie</t>
   </si>
   <si>
+    <t>Prise en charge des affections de l'appareil rénal permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections néphrologiques sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>244</t>
   </si>
   <si>
@@ -1828,6 +1963,9 @@
     <t>Oncologie médicale pédiatrique (cancérologie)</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses de l'enfant et de l'adolescent.</t>
+  </si>
+  <si>
     <t>280</t>
   </si>
   <si>
@@ -1840,12 +1978,18 @@
     <t>Chirurgie oncologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>282</t>
   </si>
   <si>
     <t>Périnatalité (suivi de grossesse)</t>
   </si>
   <si>
+    <t>Prise en charge du suivi de grossesse et du post accouchement du nouveau-né et de la maman.</t>
+  </si>
+  <si>
     <t>283</t>
   </si>
   <si>
@@ -1873,6 +2017,9 @@
     <t>Soins infirmiers</t>
   </si>
   <si>
+    <t>Ensemble des actes de soin et d'accompagnement à visée préventive, curative, palliative réalisés par un(e) infirmier(e) diplômée d'état (IDE) qui exerce dans une structure médico-sociale et peut intervenir sur tous les lieux de vie de l'usager.</t>
+  </si>
+  <si>
     <t>288</t>
   </si>
   <si>
@@ -1891,18 +2038,27 @@
     <t>Réadaptation des fonctions du langage et de la communication</t>
   </si>
   <si>
+    <t>Ensemble des actes réalisés par des professionnels formés qui visent à rétablir ou maintenir les fonctions de la parole ou à élaborer des stratégies de contournement permettant à la personne de communiquer en tenant compte de ses caractéristiques individuelles.</t>
+  </si>
+  <si>
     <t>291</t>
   </si>
   <si>
     <t>Réadaptation pour la mobilité</t>
   </si>
   <si>
+    <t>Ensemble des actes réalisés par des professionnels formés qui visent à rétablir ou maintenir les fonctions de locomotion ou à élaborer des stratégies de contournement permettant à la personne de se déplacer en tenant compte de ses caractéristiques individuelles.</t>
+  </si>
+  <si>
     <t>292</t>
   </si>
   <si>
     <t>Réadaptation des fonctions cognitives</t>
   </si>
   <si>
+    <t>Ensemble des actes réalisés par des professionnels formés qui visent à rétablir ou maintenir les fonctions cognitives (fonctions de percevoir, de prêter attention, de mémoriser, de raisonner, de produire des mouvements, de s'exprimer).</t>
+  </si>
+  <si>
     <t>293</t>
   </si>
   <si>
@@ -1963,6 +2119,9 @@
     <t>Accompagnements pour préparer sa vie professionnelle</t>
   </si>
   <si>
+    <t>Ensemble des actes d'accompagnement visant à l'élaboration d'un projet professionnel. Ces actes comprennent un temps de bilan et d'accompagnement, notamment par l'intermédiaire des dispositifs de droit commun, pour l'orientation professionnelle ou la réorientation professionnelle (dont la recherche de stage et la recherche d'un emploi).</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
@@ -2023,12 +2182,18 @@
     <t>Accompagnements pour créer ou maintenir le lien social et éviter l'isolement</t>
   </si>
   <si>
+    <t>Ensemble des actes d'accompagnement visant à permettre à la personne de créer et maintenir le lien avec d'autres personnes. En établissement médico-social, il peut notamment s'agir de l'accompagnement dans la mise en relation, de la médiation des premiers échanges et du soutien aux relations amicales dans l'établissement.</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
     <t>Accompagnements à des activités sociales, culturelles, sportives et de loisirs</t>
   </si>
   <si>
+    <t>Ensemble des actes d'accompagnement éducatif réalisés en dehors de la structure médico-sociale pour la mise en oeuvre d'activités sportives, culturelles, de loisirs.</t>
+  </si>
+  <si>
     <t>314</t>
   </si>
   <si>
@@ -2101,6 +2266,9 @@
     <t>Soutien et aide aux aidants et/ou à la famille/entourage</t>
   </si>
   <si>
+    <t>Soutien et aide aux aidants et/ou à la famille concernant les besoins de la personne accompagnée, pouvant être liés aux actes du quotidien, à la communication, aux relations avec autrui ainsi qu'aux gestes assurant sa santé.</t>
+  </si>
+  <si>
     <t>326</t>
   </si>
   <si>
@@ -2155,12 +2323,18 @@
     <t>Activité de prévention</t>
   </si>
   <si>
+    <t>Ensemble des activités et techniques visant à éviter ou réduire le nombre et la gravité des maladies, des accidents et des handicaps.</t>
+  </si>
+  <si>
     <t>335</t>
   </si>
   <si>
     <t>Coordination de parcours complexes</t>
   </si>
   <si>
+    <t>Organisation et coordination des interventions des différents acteurs identifiés lorsqu'un risque de rupture de parcours est identifié ou que la rupture est avérée. Une accumulation de paramètres vient dessiner cette situation complexe : sur le plan social, économique, environnemental, culturel…</t>
+  </si>
+  <si>
     <t>336</t>
   </si>
   <si>
@@ -2179,18 +2353,27 @@
     <t>Neuroradiologie</t>
   </si>
   <si>
+    <t>Branche de la radiologie spécialisée dans les pathologies du système nerveux, la neuroradiologie comporte l'« imagerie diagnostique » (radiographie, scanner, IRM, échographie et artériographie), et l'« imagerie interventionnelle » avec l'activité de neuroradiologie interventionnelle (NRI) à visée thérapeutique (infiltration rachidienne sous scanner, traitement des malformations vasculaires cérébrales) et la prise en charge des AVC (accident vasculaire cérébral).</t>
+  </si>
+  <si>
     <t>339</t>
   </si>
   <si>
     <t>Kinésithérapie</t>
   </si>
   <si>
+    <t xml:space="preserve">Discipline paramédicale dont la pratique comprend la promotion de la santé, la prévention, la kinésithérapie le diagnostic et le traitement : du mouvement ou des troubles moteurs de la personne et des déficiences ou altérations des capacités fonctionnelles. </t>
+  </si>
+  <si>
     <t>340</t>
   </si>
   <si>
     <t>Coordination plan de soins</t>
   </si>
   <si>
+    <t>Ensemble des actes visant une coordination renforcée pour la cohérence du parcours de soins.</t>
+  </si>
+  <si>
     <t>341</t>
   </si>
   <si>
@@ -2233,6 +2416,9 @@
     <t>Exploration fonctionnelle ORL</t>
   </si>
   <si>
+    <t>Examen(s) destiné(s) à apprécier la manière dont un organe assure sa fonction.</t>
+  </si>
+  <si>
     <t>348</t>
   </si>
   <si>
@@ -2353,6 +2539,9 @@
     <t>Soins intensifs spécialisés hépato-gastro-entérologie (USIG)</t>
   </si>
   <si>
+    <t>Unités d'un établissement de santé organisées pour prendre en charge des patients qui présentent ou sont susceptibles de présenter une défaillance aiguë de l'organe concerné par la spécialité médicale en hépato-gastro-entérologie mettant directement en jeu à court terme leur pronostic vital et impliquant le recours à une méthode de suppléance.</t>
+  </si>
+  <si>
     <t>368</t>
   </si>
   <si>
@@ -2533,6 +2722,9 @@
     <t>Pharmacie à Usage Intérieur (PUI)</t>
   </si>
   <si>
+    <t>Pharmacie installée au sein d'un groupement hospitalier de territoire ou d'un groupement de coopération sanitaire dans lequel elles ont été constituées établissement de santé, établissements médico-sociaux pour répondre aux besoins pharmaceutiques des personnes prises en charge par ces établissements ou structures.</t>
+  </si>
+  <si>
     <t>398</t>
   </si>
   <si>
@@ -2575,6 +2767,9 @@
     <t>Addictologie avec substance(s)</t>
   </si>
   <si>
+    <t>Dépendance qui se caractérise par un désir souvent puissant, voire compulsif, de consommer une substance.</t>
+  </si>
+  <si>
     <t>405</t>
   </si>
   <si>
@@ -2605,12 +2800,18 @@
     <t>Oncologie médicale endocrinienne et thyroïdienne</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses des glandes sécrétrices d'hormones : hypophyse, thyroïde, glandes surrénales…</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
     <t>Oncologie médicale os et tissus mous</t>
   </si>
   <si>
+    <t>Branche de l'oncologie médicale qui s'intéresse aux tumeurs cancéreuses des tissus mous, sarcome (muscle, graisse, nerf, vaisseaux sanguins…), et des cancers primitifs de l'os.</t>
+  </si>
+  <si>
     <t>411</t>
   </si>
   <si>
@@ -2755,12 +2956,18 @@
     <t>Elaboration du plan d'aide individualisé</t>
   </si>
   <si>
+    <t>résultat de l'action d'expertise menée par des équipes, en général mobiles, qui étudient une situation et déterminent les actions à mettre en oeuvre pour le bénéficiaire, mais ne mènent pas la coordination de la réalisation du plan d'aide.</t>
+  </si>
+  <si>
     <t>435</t>
   </si>
   <si>
     <t>Expertise médicale (évaluation de préjudice)</t>
   </si>
   <si>
+    <t xml:space="preserve">L'expertise médicale est un moyen d'investigation qui éclaire une juridiction ou des parties, sur des questions strictement techniques, et dont la connaissance ou l'explication est nécessaire pour rapporter la vérité ou solutionner un litige. L'expertise médicale a pour but, dans le cadre du dommage corporel ou dans celui des accidents du travail, d'évaluer les séquelles fonctionnelles des victimes d'accidents.  </t>
+  </si>
+  <si>
     <t>436</t>
   </si>
   <si>
@@ -2773,6 +2980,9 @@
     <t>Médecine générale</t>
   </si>
   <si>
+    <t>La médecine générale (MG) est la branche de la médecine prenant en charge la prévention, les soins médicaux et le traitement des malades, sans se limiter à des groupes de maladies relevant d'un organe, d'un âge, ou d'un sexe particulier.</t>
+  </si>
+  <si>
     <t>438</t>
   </si>
   <si>
@@ -2785,84 +2995,126 @@
     <t>Gynécologie endocrinienne</t>
   </si>
   <si>
+    <t>L'endocrinologie gynécologique comprend la détection et le traitement des maladies hormonales des différentes phases de la vie génitale de la femme.</t>
+  </si>
+  <si>
     <t>440</t>
   </si>
   <si>
     <t>Chirurgie intracrânienne</t>
   </si>
   <si>
+    <t>Chirurgie qui comprend l'ouverture du crane pour y réaliser un geste.</t>
+  </si>
+  <si>
     <t>441</t>
   </si>
   <si>
     <t>Médecine bucco-dentaire</t>
   </si>
   <si>
+    <t>Spécialité qui traite les pathologies lourdes ou spécifiques (handicaps, maladies rares…) des mâchoires et des dents.</t>
+  </si>
+  <si>
     <t>442</t>
   </si>
   <si>
     <t>Chirurgie dentaire</t>
   </si>
   <si>
+    <t>Discipline qui étudie et traite les affections des dents, des tissus attenants et des mâchoires.</t>
+  </si>
+  <si>
     <t>443</t>
   </si>
   <si>
     <t>Pédodontie ou odontologie pédiatrique</t>
   </si>
   <si>
+    <t>Discipline qui étudie et traite les affections des dents, des tissus attenants et des mâchoires chez les enfants et adolescents.</t>
+  </si>
+  <si>
     <t>444</t>
   </si>
   <si>
     <t>Endodontie</t>
   </si>
   <si>
+    <t>Discipline de traitement et prévention des atteintes de la pulpe dentaire et des infections périapicales (ou des racines des dents).</t>
+  </si>
+  <si>
     <t>445</t>
   </si>
   <si>
     <t>Biologie moléculaire sur prélèvement Anapath</t>
   </si>
   <si>
+    <t>Analyse par des médecins anatomo-pathologistes des prélèvements, par biologie moléculaire avec des techniques ciblées (PCR, RT-PCR, hybridation in situ) ou plus larges (NGS) pour recherche de clonalité, de perte d'hétérozygotie, de mutations, de réarrangements, d'amplifications, à visée diagnostique, pronostique ou théranostique de certaines pathologies tumorales</t>
+  </si>
+  <si>
     <t>446</t>
   </si>
   <si>
     <t>Cytopathologie</t>
   </si>
   <si>
+    <t>Etude morphologique des cellules isolées, à partir de produits de ponction, brossage, frottis, aspiration, lavage</t>
+  </si>
+  <si>
     <t>447</t>
   </si>
   <si>
     <t>Histopathologie</t>
   </si>
   <si>
+    <t>Etude morphologique des tissus issus d'examen de prélevés par biopsie, ponction-biopsie, résection endoscopique et résection chirurgicale, avec pour objectif d'identifier les lésions provoquées par les maladies ou associées à celles-ci</t>
+  </si>
+  <si>
     <t>448</t>
   </si>
   <si>
     <t>Diagnostic lié à un retard ou trouble du développement</t>
   </si>
   <si>
+    <t>Diagnostic pour répondre à des besoins relatifs au confort physique, la santé, le bien-être physique et mental.</t>
+  </si>
+  <si>
     <t>449</t>
   </si>
   <si>
     <t>Appui et coopération auprès des acteurs de l'enseignement</t>
   </si>
   <si>
+    <t>Soutien des acteurs de l'enseignement, spécialisé ou de droit commun, dans la prise en charge de l'élève, par l'apport d'une expertise et de ressources médico-sociales</t>
+  </si>
+  <si>
     <t>450</t>
   </si>
   <si>
     <t>Accompagnement à la réduction des risques en addictologie</t>
   </si>
   <si>
+    <t>Ensemble des pratiques qui visent à réduire les conséquences néfastes de l'addiction, tant au niveau sanitaire, psychologique que social. Cet accompagnement peut être initié par une première évaluation médico-psycho-sociale, et peut par exemple comprendre des ateliers de « pratiques à moindre risque » pour les usagers de drogues</t>
+  </si>
+  <si>
     <t>451</t>
   </si>
   <si>
     <t>Exploration et prise en charge des troubles du sommeil</t>
   </si>
   <si>
+    <t>Cette exploration consiste en des examens qui permettent d'enregistrer et d'analyser le sommeil au plan neurologique, respiratoire et cardiologique, ils comprennent entre autres la polysomnographie (correspond à l'exploration nocturne), des tests de maintien d'éveil et des tests de latence d'endormissement correspondent à l'exploration diurne</t>
+  </si>
+  <si>
     <t>452</t>
   </si>
   <si>
     <t>Exploration des troubles psycho-comportementaux et cognitifs</t>
   </si>
   <si>
+    <t>Cette exploration comprend une évaluation du fonctionnement cognitif globale (approche psychométrique) et spécifique (évaluation anatomoclinique, mnésique, cognitive, et écologique), une évaluation du comportement (échelles) et la restitution par un compte-rendu</t>
+  </si>
+  <si>
     <t>453</t>
   </si>
   <si>
@@ -2875,15 +3127,24 @@
     <t>Radiologie polyvalente générale</t>
   </si>
   <si>
+    <t>Partie de la radiologie réalisant les actes généraux de base de radiologie au sens non hyperspécialisé.</t>
+  </si>
+  <si>
     <t>455</t>
   </si>
   <si>
     <t>Médecine thermale</t>
   </si>
   <si>
+    <t>Ensemble des activités médicales liées à l'utilisation et à l'exploitation des eaux thermales et leurs produits dérivés (gaz, boues), associant la thermalité (chaleur), les techniques de soins et des eaux thermales, à visée thérapeutique</t>
+  </si>
+  <si>
     <t>456</t>
   </si>
   <si>
+    <t>Prise en charge médicale spécialisée des affections de l'appareil locomoteur permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections de l'appareil locomoteur sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>457</t>
   </si>
   <si>
@@ -2932,78 +3193,117 @@
     <t>Chirurgie des varices</t>
   </si>
   <si>
+    <t>Branche de la chirurgie vasculaire qui consiste à traiter les maladies des veines superficielles des membres inférieurs ou du pelvis</t>
+  </si>
+  <si>
     <t>467</t>
   </si>
   <si>
     <t>Chirurgie orthopédique et traumatologique spécialisée main</t>
   </si>
   <si>
+    <t>Partie de la chirurgie qui traite les déformations des os, des articulations, des muscles et des tendons et répare ceux qui sont abîmés au cours d'un accident (traumatisme), spécialisé dans la chirurgie qui prend en charge les lésions de la main.</t>
+  </si>
+  <si>
     <t>468</t>
   </si>
   <si>
     <t>Chirurgie orthopédique et traumatologique spécialisée membres inférieurs</t>
   </si>
   <si>
+    <t>Partie de la chirurgie qui traite les déformations des os, des articulations, des muscles et des tendons et répare ceux qui sont abîmés au cours d'un accident (traumatisme) qui prends en charge les lésions du membre inférieurs</t>
+  </si>
+  <si>
     <t>469</t>
   </si>
   <si>
     <t>Chirurgie orthopédique et traumatologique spéc. membres supérieurs (sauf main)</t>
   </si>
   <si>
+    <t>Partie de la chirurgie qui traite les déformations des os, des articulations, des muscles et des tendons et répare ceux qui sont abîmés au cours d'un accident (traumatisme) qui prends en charge les lésions du membre supérieur en excluant la main.</t>
+  </si>
+  <si>
     <t>470</t>
   </si>
   <si>
     <t>Chirurgie orthopédique et traumatologique spécialisée tumeur</t>
   </si>
   <si>
+    <t>Partie de la chirurgie qui traite les déformations des os, des articulations, des muscles et des tendons et répare ceux qui sont abîmés au cours d'un accident (traumatisme) qui prends en charge les tumeurs malignes ou bénignes des os et des tissus mous du membre supérieur et de l'appareil locomoteur</t>
+  </si>
+  <si>
     <t>471</t>
   </si>
   <si>
     <t>Orientation vers un médecin traitant acceptant de nouveaux patients</t>
   </si>
   <si>
+    <t>Activité de coordination visant à orienter un patient, en fonction de ses besoins, vers un médecin traitant prenant de nouveaux patients, vers des soins « non programmés » (urgence non vitale) ou encore vers un professionnel de santé disponible (infirmier, dentiste etc.)</t>
+  </si>
+  <si>
     <t>472</t>
   </si>
   <si>
     <t>Veille et prévention de la récidive suicidaire</t>
   </si>
   <si>
+    <t>Ce dispositif consiste en un système de recontact et d'alerte en organisant autour de la personne ayant fait une tentative de suicide un réseau de professionnels de santé qui garderont le contact avec elle.</t>
+  </si>
+  <si>
     <t>473</t>
   </si>
   <si>
     <t>Chirurgie onco de la sphère ORL, cervico-faciale et maxillo-faciale</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses de la sphère oto-rhino-laryngée, cervico-faciale et maxillo-faciale.</t>
+  </si>
+  <si>
     <t>474</t>
   </si>
   <si>
     <t>Chirurgie oncologique viscérale et digestive</t>
   </si>
   <si>
+    <t>Branche de la chirurgie dont le périmètre d'intervention est l'ensemble des pathologies néoplasiques des organes digestifs et endocriniens, de l'oesophage jusqu'à l'anus.</t>
+  </si>
+  <si>
     <t>475</t>
   </si>
   <si>
     <t>Coordination de soins non-programmés</t>
   </si>
   <si>
+    <t xml:space="preserve">Organisation de la collaboration des professionnels de santé afin d'améliorer la prise en charge des patients d'une urgence ressentie par le patient, mais ne relevant pas nécessairement d'une urgence médicale à proprement dit. </t>
+  </si>
+  <si>
     <t>476</t>
   </si>
   <si>
     <t>Exploration fonctionnelle de l'audition</t>
   </si>
   <si>
+    <t>Examen(s) destiné(s) à explorer et mesurer le fonctionnement de l'audition.</t>
+  </si>
+  <si>
     <t>477</t>
   </si>
   <si>
     <t>Exploration fonctionnelle de la voix et de la déglutition</t>
   </si>
   <si>
+    <t>Examen(s) destiné(s) à apprécier la manière dont un organe assure sa fonction de phonation et de déglutition.</t>
+  </si>
+  <si>
     <t>478</t>
   </si>
   <si>
     <t>Exploration fonctionnelle des vertiges (audio vestibulaire)</t>
   </si>
   <si>
+    <t>Examen(s) destiné(s) à explorer et mesurer la fonction vestibulaire (otoneurologie).</t>
+  </si>
+  <si>
     <t>479</t>
   </si>
   <si>
@@ -3016,66 +3316,99 @@
     <t>Médecine du sommeil</t>
   </si>
   <si>
+    <t>(= hypnologie ou somnologie) est la branche de la médecine spécialisée dans le diagnostic et le traitement des troubles de la vigilance (somnolence excessive) et du sommeil (insomnies, parasomnies).</t>
+  </si>
+  <si>
     <t>481</t>
   </si>
   <si>
     <t>Médecine générale à orientation Allergologie</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Allergologie.</t>
+  </si>
+  <si>
     <t>482</t>
   </si>
   <si>
     <t>Médecine générale à orientation Andrologie</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Andrologie.</t>
+  </si>
+  <si>
     <t>483</t>
   </si>
   <si>
     <t>Médecine générale à orientation Diabétologie</t>
   </si>
   <si>
+    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Diabétologie. </t>
+  </si>
+  <si>
     <t>484</t>
   </si>
   <si>
     <t>Médecine générale à orientation Gériatrie, Gérontologie</t>
   </si>
   <si>
+    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gériatrie, Gérontologie. </t>
+  </si>
+  <si>
     <t>485</t>
   </si>
   <si>
     <t>Médecine générale à orientation Gynécologie médicale</t>
   </si>
   <si>
+    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gynécologie médicale. </t>
+  </si>
+  <si>
     <t>486</t>
   </si>
   <si>
     <t>Médecine générale orientation Maladies infectieuses, parasitaires et tropicales</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Maladies infectieuses, parasitaires et tropicales.</t>
+  </si>
+  <si>
     <t>487</t>
   </si>
   <si>
     <t>Médecine générale à orientation Médecine pédiatrique</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Médecine pédiatrique.</t>
+  </si>
+  <si>
     <t>488</t>
   </si>
   <si>
     <t>Médecine générale à orientation Médecine vasculaire (Angiologie, Phlébologie)</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Médecine vasculaire (Angiologie, Phlébologie).</t>
+  </si>
+  <si>
     <t>489</t>
   </si>
   <si>
     <t>Médecine générale à orientation Oncogériatrie (cancérologie)</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Oncogériatrie.</t>
+  </si>
+  <si>
     <t>490</t>
   </si>
   <si>
     <t>Médecine générale à orientation Pathologies osseuses médicales</t>
   </si>
   <si>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Pathologies osseuses médicales.</t>
+  </si>
+  <si>
     <t>491</t>
   </si>
   <si>
@@ -3088,42 +3421,63 @@
     <t>Neuroradiologie interventionnelle</t>
   </si>
   <si>
+    <t>Réalisation d'actes invasifs thérapeutiques et/ou diagnostics guidés par l'imagerie radiologique au niveau de la sphère cérébrale.</t>
+  </si>
+  <si>
     <t>493</t>
   </si>
   <si>
     <t>Psychomotricité</t>
   </si>
   <si>
+    <t>Aide fournie, sur prescription médicale, à des personnes souffrant de différents troubles psychomoteurs - c'est-à-dire confrontées à des difficultés psychologiques exprimées par le corps - en agissant sur leurs fonctions psychomotrices : difficultés d'attention, problèmes pour se repérer dans l'espace ou dans le temps.</t>
+  </si>
+  <si>
     <t>494</t>
   </si>
   <si>
     <t>Radiologie abdominale et digestive</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau de la sphère digestive.</t>
+  </si>
+  <si>
     <t>495</t>
   </si>
   <si>
     <t>Radiologie cardio-vasculaire</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau du coeur et des vaisseaux.</t>
+  </si>
+  <si>
     <t>496</t>
   </si>
   <si>
     <t>Radiologie gynécologique</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau de la sphère gynécologique.</t>
+  </si>
+  <si>
     <t>497</t>
   </si>
   <si>
     <t>Radiologie interventionnelle musculosquelettique</t>
   </si>
   <si>
+    <t>Réalisation d'actes invasifs thérapeutiques et/ou diagnostics guidés par l'imagerie radiologique au niveau musculosquelettique.</t>
+  </si>
+  <si>
     <t>498</t>
   </si>
   <si>
     <t>Radiologie interventionnelle oncologique</t>
   </si>
   <si>
+    <t>Réalisation d'actes invasifs thérapeutiques et/ou diagnostics guidés par l'imagerie radiologique de pathologies oncologiques.</t>
+  </si>
+  <si>
     <t>499</t>
   </si>
   <si>
@@ -3136,78 +3490,117 @@
     <t>Radiologie interventionnelle vasculaire</t>
   </si>
   <si>
+    <t>Réalisation d'actes invasifs thérapeutiques et/ou diagnostics guidés par l'imagerie radiologique au niveau des vaisseaux sanguins.</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
     <t>Radiologie musculo-squelettique</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau musculo-squelettique.</t>
+  </si>
+  <si>
     <t>502</t>
   </si>
   <si>
     <t>Radiologie ORL et maxillo-faciale</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau de la sphère ORL et maxillo-faciale.</t>
+  </si>
+  <si>
     <t>503</t>
   </si>
   <si>
     <t>Radiologie prénatale et pédiatrique</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics chez les enfants et en phase prénatale.</t>
+  </si>
+  <si>
     <t>504</t>
   </si>
   <si>
     <t>Radiologie sénologique (dont mammographie)</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau des seins.</t>
+  </si>
+  <si>
     <t>505</t>
   </si>
   <si>
     <t>Radiologie thoracique</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau thoracique.</t>
+  </si>
+  <si>
     <t>506</t>
   </si>
   <si>
     <t>Transplantation d'organe</t>
   </si>
   <si>
+    <t xml:space="preserve">Procédure thérapeutique qui vise à suppléer le fonctionnement défaillant d'un organe par un organe sain, appelé « greffon » ou « transplant » et provenant d'un donneur. </t>
+  </si>
+  <si>
     <t>507</t>
   </si>
   <si>
     <t>Uro-Radiologie</t>
   </si>
   <si>
+    <t>Réalisation d'actes radiologiques diagnostics au niveau de la sphère urogénitale.</t>
+  </si>
+  <si>
     <t>508</t>
   </si>
   <si>
     <t>Exploration fonctionnelle de l'exercice et du sport</t>
   </si>
   <si>
+    <t>Ensemble de tests permettant d'évaluer la capacité musculaire à l'effort à des fins de diagnostic, de suivi et de surveillance.</t>
+  </si>
+  <si>
     <t>509</t>
   </si>
   <si>
     <t>Traumatologie de l'activité physique et du sport</t>
   </si>
   <si>
+    <t>Prise en charge de l'ensemble des lésions macrotraumatiques et microtraumatiques de l'appareil locomoteur en lien avec la pratique de toute activité physique du niveau loisir au niveau compétition, qu'il s'agisse d'une lésion tendineuse, ligamentaire, osseuse ou cartilagineuse,</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
     <t>Échographie gynécologique et obstétricale (dont échographie de grossesse)</t>
   </si>
   <si>
+    <t xml:space="preserve">Echographie qui s'applique aux organes pelviens de la femme, en particulier l'utérus, les ovaires, les trompes de Fallope, ainsi que la vessie, le cul-de-sac de Douglas. L'échographie de la grossesse permettent de suivre l'évolution et le bon développement du futur bébé tout au long de ces neuf mois. </t>
+  </si>
+  <si>
     <t>511</t>
   </si>
   <si>
     <t>Accueil et hébergement spécialisé</t>
   </si>
   <si>
+    <t xml:space="preserve">Service qui vise à offrir à un enfant ou un adolescent handicapé un hébergement dans un environnement psychologique, éducatif et affectif complémentaire à celui qu'il peut trouver dans sa propre famille. </t>
+  </si>
+  <si>
     <t>512</t>
   </si>
   <si>
     <t>Accueil et orientation des victimes de violences sexuelles</t>
   </si>
   <si>
+    <t>Accueil, aide, soutien et soins aux victimes d'agressions sexuelles</t>
+  </si>
+  <si>
     <t>513</t>
   </si>
   <si>
@@ -3250,12 +3643,18 @@
     <t>Réadaptation des affections médullaires</t>
   </si>
   <si>
+    <t>Prise en charge des affections médullaires permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections médullaires sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
     <t>Réadaptation de l'obésité complexe</t>
   </si>
   <si>
+    <t>Branche des soins médicaux et de réadaptation qui vise à prévenir ou à réduire les conséquences fonctionnelles, les déficiences et les limitations d'activité liées à l'obésité complexe. L'obésité est considérée comme complexe lorsqu'elle présente l'un ou plusieurs des critères suivants : - Excès de poids majeur : indice de masse corporelle (IMC) - Evolution inquiétante de la courbe de corpulence : ascension extrême et continue - Comorbidités sévères associées au surpoids ou à l'obésité : i.e. respiratoires, articulaires, métaboliques, psychologiques ou sociales (harcèlement en milieu scolaire) ; - Antécédents d'échecs thérapeutiques ; - Situation de fragilité : difficultés psychosociales, famille non-aidante, handicap physique et/ou psychique dû à la sévérité de l'obésité, handicap physique non dû à l'obésité mais aggravé par celle-ci, pathologie psychiatrique (utilisation de psychotropes), pathologie chronique (rénale, cardiaque, osseuses, ou autres) aggravée par l'obésité, déficit cognitif, troubles du comportement, pathologie psychiatrique ; - Obésité syndromique identifiée (exemple du syndrome de Prader-Willi) ou non.</t>
+  </si>
+  <si>
     <t>521</t>
   </si>
   <si>
@@ -3268,6 +3667,9 @@
     <t>Réadaptation polyhandicap</t>
   </si>
   <si>
+    <t>Prise en charge du polyhandicap permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections liées au polyhandicap sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>523</t>
   </si>
   <si>
@@ -3298,36 +3700,54 @@
     <t>Suivi gynécologique de prévention</t>
   </si>
   <si>
+    <t>Consultation gynécologique qui permet les frottis, le dépistage, la prescription d'examens, la prescription de tous les moyens de contraception, de poser et retirer un stérilet ou un implant contraceptif, de pratiquer les IVG médicamenteuses, et de vacciner l'entourage de la femme et du nouveau-né.</t>
+  </si>
+  <si>
     <t>528</t>
   </si>
   <si>
     <t>Suivi neuropsychologique</t>
   </si>
   <si>
+    <t>Ensemble des examens, tests et épreuves psychométriques qui permettent de déterminer le retentissement cognitivo-comportemental d'une pathologie connue, de contribuer au diagnostic, ou de contribuer à une expertise médico-légale.</t>
+  </si>
+  <si>
     <t>529</t>
   </si>
   <si>
     <t>Suivi post-natal</t>
   </si>
   <si>
+    <t>Actions de prévention et de suivi éducatif en cas de besoin particulier décelé pendant la grossesse ou après l'accouchement chez les parents ou chez l'enfant réalisé par les sages-femmes.</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
     <t>Suivi prénatal (suivi de grossesse)</t>
   </si>
   <si>
+    <t>Consultations et examens complémentaires qui permettent le suivi de la grossesse normale et l'amélioration de l'identification des situations à risques de complications maternelles, obstétricales et foetales pouvant potentiellement compliquer la grossesse (hors accouchement) afin d'en adapter si besoin le suivi.</t>
+  </si>
+  <si>
     <t>531</t>
   </si>
   <si>
     <t>Réadaptation viroses chroniques</t>
   </si>
   <si>
+    <t>Prise en charge des affections chroniques secondaires à une virose permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>532</t>
   </si>
   <si>
     <t>Réadaptation lymphologie</t>
   </si>
   <si>
+    <t>Prise en charge des affections dues au lymphoedème permettant de prévenir ou de réduire au minimum les conséquences des traumatismes ou des affections sur l'état physique, fonctionnel, mental et social du patient.</t>
+  </si>
+  <si>
     <t>533</t>
   </si>
   <si>
@@ -3346,58 +3766,88 @@
     <t>Sexologie clinique</t>
   </si>
   <si>
+    <t>Etude de la sexualité et de la fonction érotique qui prend en charge les problématiques sexuelles psychologiques, éducationnelles, relationnelles et comportementales</t>
+  </si>
+  <si>
     <t>536</t>
   </si>
   <si>
     <t>Chirurgie oncologique thoracique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses thoraciques. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>537</t>
   </si>
   <si>
     <t>Chirurgie oncologique urologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses urologiques. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>538</t>
   </si>
   <si>
     <t>Chirurgie oncologique gynécologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses gynécologiques. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>539</t>
   </si>
   <si>
     <t>Chirurgie oncologique mammaire</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses mammaires. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>540</t>
   </si>
   <si>
     <t>Chirurgie oncologique neurologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses neurologiques (intra-crannienne et/ou intra-rachidienne). Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>541</t>
   </si>
   <si>
     <t>Chirurgie oncologique ophtalmologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses ophtalmologiques. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>542</t>
   </si>
   <si>
     <t>Chirurgie oncologique dermatologique</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses dermatologiques. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>543</t>
   </si>
   <si>
     <t>Chirurgie oncologique des os et des tissus mous</t>
   </si>
   <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses des os et des tissus mous. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
+  </si>
+  <si>
     <t>544</t>
   </si>
   <si>
     <t>Chirurgie oncologique de la thyroïde</t>
+  </si>
+  <si>
+    <t>Branche de la chirurgie qui s'intéresse aux tumeurs cancéreuses de la thyroïde. Elle comprend la chirurgie conservatrice, le curage ganglionnaire, la chirurgie radicale, la chirurgie de résection tumorale macroscopiquement complète en cas de carcinose péritonéale, la chirurgie des métastases, les techniques de destruction tumorale non percutanée, la chirurgie de reconstruction immédiate dans le même temps opératoire que l'exérèse, ainsi que la chirurgie de la récidive.</t>
   </si>
   <si>
     <t>545</t>
@@ -3801,17 +4251,19 @@
       <c r="C2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3820,22 +4272,24 @@
         <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -3844,10 +4298,10 @@
         <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3856,10 +4310,10 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -3868,10 +4322,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -3880,10 +4334,10 @@
         <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -3892,10 +4346,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -3904,10 +4358,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -3916,10 +4370,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -3928,10 +4382,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -3940,10 +4394,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -3952,10 +4406,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -3964,10 +4418,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -3976,10 +4430,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -3988,10 +4442,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -4000,10 +4454,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -4012,10 +4466,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -4024,10 +4478,10 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -4036,10 +4490,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -4048,10 +4502,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -4060,10 +4514,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -4072,10 +4526,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -4084,10 +4538,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -4096,10 +4550,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -4108,10 +4562,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -4120,10 +4574,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -4132,10 +4586,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -4144,10 +4598,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -4156,10 +4610,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -4168,34 +4622,38 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -4204,10 +4662,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -4216,10 +4674,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -4228,10 +4686,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -4240,10 +4698,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -4252,10 +4710,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4264,22 +4722,24 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -4288,10 +4748,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -4300,10 +4760,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -4312,22 +4772,24 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -4336,10 +4798,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -4348,10 +4810,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -4360,10 +4822,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -4372,10 +4834,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -4384,10 +4846,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -4396,10 +4858,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -4408,10 +4870,10 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -4420,10 +4882,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -4432,10 +4894,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -4444,10 +4906,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -4456,10 +4918,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -4468,10 +4930,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -4480,10 +4942,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -4492,10 +4954,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -4504,10 +4966,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -4516,10 +4978,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -4528,10 +4990,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -4540,10 +5002,10 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -4552,10 +5014,10 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -4564,10 +5026,10 @@
         <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -4576,10 +5038,10 @@
         <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -4588,10 +5050,10 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -4600,10 +5062,10 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -4612,10 +5074,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -4624,10 +5086,10 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -4636,10 +5098,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -4648,10 +5110,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -4660,10 +5122,10 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -4672,10 +5134,10 @@
         <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -4684,10 +5146,10 @@
         <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -4696,10 +5158,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -4708,22 +5170,24 @@
         <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>207</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -4732,10 +5196,10 @@
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -4744,10 +5208,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -4756,10 +5220,10 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -4768,10 +5232,10 @@
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -4780,10 +5244,10 @@
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -4792,34 +5256,38 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>225</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -4828,10 +5296,10 @@
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -4840,10 +5308,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -4852,10 +5320,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -4864,10 +5332,10 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -4876,10 +5344,10 @@
         <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -4888,10 +5356,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -4900,10 +5368,10 @@
         <v>46</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -4912,10 +5380,10 @@
         <v>46</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -4924,10 +5392,10 @@
         <v>46</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -4936,10 +5404,10 @@
         <v>46</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -4948,10 +5416,10 @@
         <v>46</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -4960,10 +5428,10 @@
         <v>46</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -4972,22 +5440,24 @@
         <v>46</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="D100" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>254</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -4996,34 +5466,38 @@
         <v>46</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>259</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="D103" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>262</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -5032,46 +5506,52 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="D105" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>267</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="D106" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>273</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -5080,10 +5560,10 @@
         <v>46</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -5092,10 +5572,10 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -5104,10 +5584,10 @@
         <v>46</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -5116,10 +5596,10 @@
         <v>46</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -5128,10 +5608,10 @@
         <v>46</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -5140,10 +5620,10 @@
         <v>46</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -5152,10 +5632,10 @@
         <v>46</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -5164,10 +5644,10 @@
         <v>46</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -5176,10 +5656,10 @@
         <v>46</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -5188,22 +5668,24 @@
         <v>46</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>296</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -5212,10 +5694,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -5224,10 +5706,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -5236,10 +5718,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -5248,10 +5730,10 @@
         <v>46</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -5260,10 +5742,10 @@
         <v>46</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -5272,10 +5754,10 @@
         <v>46</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -5284,10 +5766,10 @@
         <v>46</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -5296,10 +5778,10 @@
         <v>46</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -5308,10 +5790,10 @@
         <v>46</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -5320,10 +5802,10 @@
         <v>46</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -5332,10 +5814,10 @@
         <v>46</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -5344,10 +5826,10 @@
         <v>46</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -5356,10 +5838,10 @@
         <v>46</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -5368,22 +5850,24 @@
         <v>46</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>327</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -5392,10 +5876,10 @@
         <v>46</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -5404,22 +5888,24 @@
         <v>46</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="D136" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>334</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -5428,10 +5914,10 @@
         <v>46</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -5440,10 +5926,10 @@
         <v>46</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -5452,10 +5938,10 @@
         <v>46</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -5464,10 +5950,10 @@
         <v>46</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -5476,10 +5962,10 @@
         <v>46</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -5488,10 +5974,10 @@
         <v>46</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -5500,10 +5986,10 @@
         <v>46</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -5512,10 +5998,10 @@
         <v>46</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -5524,10 +6010,10 @@
         <v>46</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -5536,10 +6022,10 @@
         <v>46</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -5548,10 +6034,10 @@
         <v>46</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -5560,10 +6046,10 @@
         <v>46</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D149" s="2"/>
     </row>
@@ -5572,10 +6058,10 @@
         <v>46</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -5584,10 +6070,10 @@
         <v>46</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -5596,10 +6082,10 @@
         <v>46</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -5608,10 +6094,10 @@
         <v>46</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -5620,10 +6106,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -5632,10 +6118,10 @@
         <v>46</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -5644,10 +6130,10 @@
         <v>46</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -5656,10 +6142,10 @@
         <v>46</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -5668,10 +6154,10 @@
         <v>46</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -5680,10 +6166,10 @@
         <v>46</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -5692,10 +6178,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -5704,10 +6190,10 @@
         <v>46</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -5716,10 +6202,10 @@
         <v>46</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -5728,10 +6214,10 @@
         <v>46</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -5740,10 +6226,10 @@
         <v>46</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -5752,22 +6238,24 @@
         <v>46</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>393</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -5776,10 +6264,10 @@
         <v>46</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -5788,10 +6276,10 @@
         <v>46</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -5800,22 +6288,24 @@
         <v>46</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="D169" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>402</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -5824,22 +6314,24 @@
         <v>46</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="D171" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>407</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -5848,22 +6340,24 @@
         <v>46</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="D173" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>412</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -5872,10 +6366,10 @@
         <v>46</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -5884,10 +6378,10 @@
         <v>46</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -5896,10 +6390,10 @@
         <v>46</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -5908,10 +6402,10 @@
         <v>46</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -5920,34 +6414,38 @@
         <v>46</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="D179" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>424</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="D180" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>427</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -5956,10 +6454,10 @@
         <v>46</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -5968,10 +6466,10 @@
         <v>46</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -5980,10 +6478,10 @@
         <v>46</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -5992,10 +6490,10 @@
         <v>46</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -6004,10 +6502,10 @@
         <v>46</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -6016,106 +6514,122 @@
         <v>46</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="D187" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>442</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="D188" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>445</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>448</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D190" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>451</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>454</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="D192" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>457</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>460</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>463</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -6124,34 +6638,38 @@
         <v>46</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="D196" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>468</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="D197" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>471</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -6160,58 +6678,66 @@
         <v>46</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D199" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>476</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="D200" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>479</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="D201" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>482</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="D202" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>485</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="D203" s="2"/>
     </row>
@@ -6220,10 +6746,10 @@
         <v>46</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="D204" s="2"/>
     </row>
@@ -6232,10 +6758,10 @@
         <v>46</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -6244,10 +6770,10 @@
         <v>46</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -6256,10 +6782,10 @@
         <v>46</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -6268,10 +6794,10 @@
         <v>46</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -6280,10 +6806,10 @@
         <v>46</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>460</v>
+        <v>498</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -6292,10 +6818,10 @@
         <v>46</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -6304,10 +6830,10 @@
         <v>46</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -6316,10 +6842,10 @@
         <v>46</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -6328,10 +6854,10 @@
         <v>46</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -6340,10 +6866,10 @@
         <v>46</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -6352,10 +6878,10 @@
         <v>46</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -6364,10 +6890,10 @@
         <v>46</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -6376,10 +6902,10 @@
         <v>46</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -6388,10 +6914,10 @@
         <v>46</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -6400,10 +6926,10 @@
         <v>46</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -6412,10 +6938,10 @@
         <v>46</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -6424,10 +6950,10 @@
         <v>46</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="D221" s="2"/>
     </row>
@@ -6436,10 +6962,10 @@
         <v>46</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="D222" s="2"/>
     </row>
@@ -6448,10 +6974,10 @@
         <v>46</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="D223" s="2"/>
     </row>
@@ -6460,10 +6986,10 @@
         <v>46</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="D224" s="2"/>
     </row>
@@ -6472,10 +6998,10 @@
         <v>46</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -6484,10 +7010,10 @@
         <v>46</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="D226" s="2"/>
     </row>
@@ -6496,22 +7022,24 @@
         <v>46</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="D227" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>536</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="D228" s="2"/>
     </row>
@@ -6520,10 +7048,10 @@
         <v>46</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="D229" s="2"/>
     </row>
@@ -6532,10 +7060,10 @@
         <v>46</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="D230" s="2"/>
     </row>
@@ -6544,10 +7072,10 @@
         <v>46</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="D231" s="2"/>
     </row>
@@ -6556,22 +7084,24 @@
         <v>46</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="D232" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D232" t="s" s="2">
+        <v>547</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="D233" s="2"/>
     </row>
@@ -6580,70 +7110,80 @@
         <v>46</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>552</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="D235" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>514</v>
+        <v>556</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="D236" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="D236" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>516</v>
+        <v>558</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="D237" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="D237" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>518</v>
+        <v>560</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="D239" s="2"/>
     </row>
@@ -6652,22 +7192,24 @@
         <v>46</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>522</v>
+        <v>564</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="D240" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>566</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -6676,22 +7218,24 @@
         <v>46</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D242" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>571</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="D243" s="2"/>
     </row>
@@ -6700,22 +7244,24 @@
         <v>46</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="D244" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>576</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="D245" s="2"/>
     </row>
@@ -6724,22 +7270,24 @@
         <v>46</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="D246" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="D246" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="D247" s="2"/>
     </row>
@@ -6748,10 +7296,10 @@
         <v>46</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>538</v>
+        <v>583</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="D248" s="2"/>
     </row>
@@ -6760,10 +7308,10 @@
         <v>46</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="D249" s="2"/>
     </row>
@@ -6772,10 +7320,10 @@
         <v>46</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="D250" s="2"/>
     </row>
@@ -6784,10 +7332,10 @@
         <v>46</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>544</v>
+        <v>589</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="D251" s="2"/>
     </row>
@@ -6796,10 +7344,10 @@
         <v>46</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="D252" s="2"/>
     </row>
@@ -6808,10 +7356,10 @@
         <v>46</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>548</v>
+        <v>593</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="D253" s="2"/>
     </row>
@@ -6820,10 +7368,10 @@
         <v>46</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="D254" s="2"/>
     </row>
@@ -6832,10 +7380,10 @@
         <v>46</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -6844,10 +7392,10 @@
         <v>46</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>554</v>
+        <v>599</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="D256" s="2"/>
     </row>
@@ -6856,10 +7404,10 @@
         <v>46</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="D257" s="2"/>
     </row>
@@ -6868,10 +7416,10 @@
         <v>46</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="D258" s="2"/>
     </row>
@@ -6880,10 +7428,10 @@
         <v>46</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="D259" s="2"/>
     </row>
@@ -6892,10 +7440,10 @@
         <v>46</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="D260" s="2"/>
     </row>
@@ -6904,10 +7452,10 @@
         <v>46</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="D261" s="2"/>
     </row>
@@ -6916,10 +7464,10 @@
         <v>46</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -6928,10 +7476,10 @@
         <v>46</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="D263" s="2"/>
     </row>
@@ -6940,10 +7488,10 @@
         <v>46</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>571</v>
+        <v>616</v>
       </c>
       <c r="D264" s="2"/>
     </row>
@@ -6952,10 +7500,10 @@
         <v>46</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -6964,10 +7512,10 @@
         <v>46</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -6976,10 +7524,10 @@
         <v>46</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="D267" s="2"/>
     </row>
@@ -6988,10 +7536,10 @@
         <v>46</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="D268" s="2"/>
     </row>
@@ -7000,10 +7548,10 @@
         <v>46</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="D269" s="2"/>
     </row>
@@ -7012,10 +7560,10 @@
         <v>46</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="D270" s="2"/>
     </row>
@@ -7024,10 +7572,10 @@
         <v>46</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="D271" s="2"/>
     </row>
@@ -7036,10 +7584,10 @@
         <v>46</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="D272" s="2"/>
     </row>
@@ -7048,10 +7596,10 @@
         <v>46</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="D273" s="2"/>
     </row>
@@ -7060,10 +7608,10 @@
         <v>46</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="D274" s="2"/>
     </row>
@@ -7072,10 +7620,10 @@
         <v>46</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="D275" s="2"/>
     </row>
@@ -7084,10 +7632,10 @@
         <v>46</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="D276" s="2"/>
     </row>
@@ -7096,10 +7644,10 @@
         <v>46</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="D277" s="2"/>
     </row>
@@ -7108,10 +7656,10 @@
         <v>46</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="D278" s="2"/>
     </row>
@@ -7120,10 +7668,10 @@
         <v>46</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c r="D279" s="2"/>
     </row>
@@ -7132,22 +7680,24 @@
         <v>46</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>602</v>
+        <v>647</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="D280" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>649</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="D281" s="2"/>
     </row>
@@ -7156,34 +7706,38 @@
         <v>46</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="D282" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>654</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="D283" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>657</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -7192,10 +7746,10 @@
         <v>46</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="D285" s="2"/>
     </row>
@@ -7204,10 +7758,10 @@
         <v>46</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="D286" s="2"/>
     </row>
@@ -7216,10 +7770,10 @@
         <v>46</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -7228,22 +7782,24 @@
         <v>46</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="D288" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="D288" t="s" s="2">
+        <v>667</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="D289" s="2"/>
     </row>
@@ -7252,10 +7808,10 @@
         <v>46</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="D290" s="2"/>
     </row>
@@ -7264,46 +7820,52 @@
         <v>46</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="D291" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="D291" t="s" s="2">
+        <v>674</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="D292" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="D292" t="s" s="2">
+        <v>677</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="D293" s="2"/>
+        <v>679</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>680</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -7312,10 +7874,10 @@
         <v>46</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>631</v>
+        <v>683</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>632</v>
+        <v>684</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -7324,10 +7886,10 @@
         <v>46</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>633</v>
+        <v>685</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -7336,10 +7898,10 @@
         <v>46</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>636</v>
+        <v>688</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -7348,10 +7910,10 @@
         <v>46</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>638</v>
+        <v>690</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -7360,10 +7922,10 @@
         <v>46</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>639</v>
+        <v>691</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="D299" s="2"/>
     </row>
@@ -7372,10 +7934,10 @@
         <v>46</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>641</v>
+        <v>693</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -7384,10 +7946,10 @@
         <v>46</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="D301" s="2"/>
     </row>
@@ -7396,10 +7958,10 @@
         <v>46</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>645</v>
+        <v>697</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>646</v>
+        <v>698</v>
       </c>
       <c r="D302" s="2"/>
     </row>
@@ -7408,22 +7970,24 @@
         <v>46</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>647</v>
+        <v>699</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="D303" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="D303" t="s" s="2">
+        <v>701</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -7432,10 +7996,10 @@
         <v>46</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -7444,10 +8008,10 @@
         <v>46</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -7456,10 +8020,10 @@
         <v>46</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="D307" s="2"/>
     </row>
@@ -7468,10 +8032,10 @@
         <v>46</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="D308" s="2"/>
     </row>
@@ -7480,10 +8044,10 @@
         <v>46</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>660</v>
+        <v>713</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -7492,10 +8056,10 @@
         <v>46</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -7504,10 +8068,10 @@
         <v>46</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>663</v>
+        <v>716</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>664</v>
+        <v>717</v>
       </c>
       <c r="D311" s="2"/>
     </row>
@@ -7516,10 +8080,10 @@
         <v>46</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>665</v>
+        <v>718</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>666</v>
+        <v>719</v>
       </c>
       <c r="D312" s="2"/>
     </row>
@@ -7528,34 +8092,38 @@
         <v>46</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>667</v>
+        <v>720</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="D313" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="D313" t="s" s="2">
+        <v>722</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>669</v>
+        <v>723</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="D314" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="D314" t="s" s="2">
+        <v>725</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="D315" s="2"/>
     </row>
@@ -7564,10 +8132,10 @@
         <v>46</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="D316" s="2"/>
     </row>
@@ -7576,10 +8144,10 @@
         <v>46</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="D317" s="2"/>
     </row>
@@ -7588,10 +8156,10 @@
         <v>46</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -7600,10 +8168,10 @@
         <v>46</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -7612,10 +8180,10 @@
         <v>46</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -7624,10 +8192,10 @@
         <v>46</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="D321" s="2"/>
     </row>
@@ -7636,10 +8204,10 @@
         <v>46</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="D322" s="2"/>
     </row>
@@ -7648,10 +8216,10 @@
         <v>46</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="D323" s="2"/>
     </row>
@@ -7660,10 +8228,10 @@
         <v>46</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="D324" s="2"/>
     </row>
@@ -7672,10 +8240,10 @@
         <v>46</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="D325" s="2"/>
     </row>
@@ -7684,22 +8252,24 @@
         <v>46</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="D326" s="2"/>
+        <v>749</v>
+      </c>
+      <c r="D326" t="s" s="2">
+        <v>750</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>695</v>
+        <v>751</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>696</v>
+        <v>752</v>
       </c>
       <c r="D327" s="2"/>
     </row>
@@ -7708,10 +8278,10 @@
         <v>46</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>697</v>
+        <v>753</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>698</v>
+        <v>754</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -7720,10 +8290,10 @@
         <v>46</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>699</v>
+        <v>755</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="D329" s="2"/>
     </row>
@@ -7732,10 +8302,10 @@
         <v>46</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>701</v>
+        <v>757</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>702</v>
+        <v>758</v>
       </c>
       <c r="D330" s="2"/>
     </row>
@@ -7744,10 +8314,10 @@
         <v>46</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>703</v>
+        <v>759</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -7756,10 +8326,10 @@
         <v>46</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>705</v>
+        <v>761</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>706</v>
+        <v>762</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -7768,10 +8338,10 @@
         <v>46</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="D333" s="2"/>
     </row>
@@ -7780,10 +8350,10 @@
         <v>46</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="D334" s="2"/>
     </row>
@@ -7792,34 +8362,38 @@
         <v>46</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="D335" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="D335" t="s" s="2">
+        <v>769</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="D336" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="D336" t="s" s="2">
+        <v>772</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>715</v>
+        <v>773</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>716</v>
+        <v>774</v>
       </c>
       <c r="D337" s="2"/>
     </row>
@@ -7828,10 +8402,10 @@
         <v>46</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="D338" s="2"/>
     </row>
@@ -7840,46 +8414,52 @@
         <v>46</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>719</v>
+        <v>777</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="D339" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="D339" t="s" s="2">
+        <v>779</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="D340" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="D340" t="s" s="2">
+        <v>782</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>723</v>
+        <v>783</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="D341" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="D341" t="s" s="2">
+        <v>785</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>725</v>
+        <v>786</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>726</v>
+        <v>787</v>
       </c>
       <c r="D342" s="2"/>
     </row>
@@ -7888,10 +8468,10 @@
         <v>46</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>727</v>
+        <v>788</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="D343" s="2"/>
     </row>
@@ -7900,10 +8480,10 @@
         <v>46</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>729</v>
+        <v>790</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="D344" s="2"/>
     </row>
@@ -7912,10 +8492,10 @@
         <v>46</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>732</v>
+        <v>793</v>
       </c>
       <c r="D345" s="2"/>
     </row>
@@ -7924,10 +8504,10 @@
         <v>46</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>734</v>
+        <v>795</v>
       </c>
       <c r="D346" s="2"/>
     </row>
@@ -7936,10 +8516,10 @@
         <v>46</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>735</v>
+        <v>796</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>736</v>
+        <v>797</v>
       </c>
       <c r="D347" s="2"/>
     </row>
@@ -7948,22 +8528,24 @@
         <v>46</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>737</v>
+        <v>798</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="D348" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="D348" t="s" s="2">
+        <v>800</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>739</v>
+        <v>801</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>740</v>
+        <v>802</v>
       </c>
       <c r="D349" s="2"/>
     </row>
@@ -7972,22 +8554,24 @@
         <v>46</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>741</v>
+        <v>803</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="D350" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="D350" t="s" s="2">
+        <v>800</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>743</v>
+        <v>805</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>744</v>
+        <v>806</v>
       </c>
       <c r="D351" s="2"/>
     </row>
@@ -7996,10 +8580,10 @@
         <v>46</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>745</v>
+        <v>807</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>746</v>
+        <v>808</v>
       </c>
       <c r="D352" s="2"/>
     </row>
@@ -8008,10 +8592,10 @@
         <v>46</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>747</v>
+        <v>809</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -8020,10 +8604,10 @@
         <v>46</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -8032,10 +8616,10 @@
         <v>46</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>751</v>
+        <v>813</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>752</v>
+        <v>814</v>
       </c>
       <c r="D355" s="2"/>
     </row>
@@ -8044,10 +8628,10 @@
         <v>46</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>753</v>
+        <v>815</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>754</v>
+        <v>816</v>
       </c>
       <c r="D356" s="2"/>
     </row>
@@ -8056,10 +8640,10 @@
         <v>46</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>755</v>
+        <v>817</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>756</v>
+        <v>818</v>
       </c>
       <c r="D357" s="2"/>
     </row>
@@ -8068,10 +8652,10 @@
         <v>46</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>757</v>
+        <v>819</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>758</v>
+        <v>820</v>
       </c>
       <c r="D358" s="2"/>
     </row>
@@ -8080,10 +8664,10 @@
         <v>46</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>759</v>
+        <v>821</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>760</v>
+        <v>822</v>
       </c>
       <c r="D359" s="2"/>
     </row>
@@ -8092,10 +8676,10 @@
         <v>46</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>762</v>
+        <v>824</v>
       </c>
       <c r="D360" s="2"/>
     </row>
@@ -8104,10 +8688,10 @@
         <v>46</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>763</v>
+        <v>825</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>764</v>
+        <v>826</v>
       </c>
       <c r="D361" s="2"/>
     </row>
@@ -8116,10 +8700,10 @@
         <v>46</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>765</v>
+        <v>827</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>766</v>
+        <v>828</v>
       </c>
       <c r="D362" s="2"/>
     </row>
@@ -8128,10 +8712,10 @@
         <v>46</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>767</v>
+        <v>829</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>768</v>
+        <v>830</v>
       </c>
       <c r="D363" s="2"/>
     </row>
@@ -8140,10 +8724,10 @@
         <v>46</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>769</v>
+        <v>831</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>770</v>
+        <v>832</v>
       </c>
       <c r="D364" s="2"/>
     </row>
@@ -8152,10 +8736,10 @@
         <v>46</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>771</v>
+        <v>833</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>772</v>
+        <v>834</v>
       </c>
       <c r="D365" s="2"/>
     </row>
@@ -8164,10 +8748,10 @@
         <v>46</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>773</v>
+        <v>835</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>774</v>
+        <v>836</v>
       </c>
       <c r="D366" s="2"/>
     </row>
@@ -8176,10 +8760,10 @@
         <v>46</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>775</v>
+        <v>837</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>776</v>
+        <v>838</v>
       </c>
       <c r="D367" s="2"/>
     </row>
@@ -8188,22 +8772,24 @@
         <v>46</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>777</v>
+        <v>839</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="D368" s="2"/>
+        <v>840</v>
+      </c>
+      <c r="D368" t="s" s="2">
+        <v>841</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>779</v>
+        <v>842</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>780</v>
+        <v>843</v>
       </c>
       <c r="D369" s="2"/>
     </row>
@@ -8212,10 +8798,10 @@
         <v>46</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>781</v>
+        <v>844</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>782</v>
+        <v>845</v>
       </c>
       <c r="D370" s="2"/>
     </row>
@@ -8224,10 +8810,10 @@
         <v>46</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>783</v>
+        <v>846</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>784</v>
+        <v>847</v>
       </c>
       <c r="D371" s="2"/>
     </row>
@@ -8236,10 +8822,10 @@
         <v>46</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>785</v>
+        <v>848</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>786</v>
+        <v>849</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -8248,10 +8834,10 @@
         <v>46</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>787</v>
+        <v>850</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>788</v>
+        <v>851</v>
       </c>
       <c r="D373" s="2"/>
     </row>
@@ -8260,10 +8846,10 @@
         <v>46</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>789</v>
+        <v>852</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="D374" s="2"/>
     </row>
@@ -8272,10 +8858,10 @@
         <v>46</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>791</v>
+        <v>854</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>792</v>
+        <v>855</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -8284,10 +8870,10 @@
         <v>46</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>793</v>
+        <v>856</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>794</v>
+        <v>857</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -8296,10 +8882,10 @@
         <v>46</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>795</v>
+        <v>858</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="D377" s="2"/>
     </row>
@@ -8308,10 +8894,10 @@
         <v>46</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>797</v>
+        <v>860</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="D378" s="2"/>
     </row>
@@ -8320,10 +8906,10 @@
         <v>46</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>799</v>
+        <v>862</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="D379" s="2"/>
     </row>
@@ -8332,10 +8918,10 @@
         <v>46</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>801</v>
+        <v>864</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>802</v>
+        <v>865</v>
       </c>
       <c r="D380" s="2"/>
     </row>
@@ -8344,10 +8930,10 @@
         <v>46</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>803</v>
+        <v>866</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>804</v>
+        <v>867</v>
       </c>
       <c r="D381" s="2"/>
     </row>
@@ -8356,10 +8942,10 @@
         <v>46</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>805</v>
+        <v>868</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>806</v>
+        <v>869</v>
       </c>
       <c r="D382" s="2"/>
     </row>
@@ -8368,10 +8954,10 @@
         <v>46</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>807</v>
+        <v>870</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>808</v>
+        <v>871</v>
       </c>
       <c r="D383" s="2"/>
     </row>
@@ -8380,10 +8966,10 @@
         <v>46</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>809</v>
+        <v>872</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>810</v>
+        <v>873</v>
       </c>
       <c r="D384" s="2"/>
     </row>
@@ -8392,10 +8978,10 @@
         <v>46</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>811</v>
+        <v>874</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="D385" s="2"/>
     </row>
@@ -8404,10 +8990,10 @@
         <v>46</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>813</v>
+        <v>876</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>814</v>
+        <v>877</v>
       </c>
       <c r="D386" s="2"/>
     </row>
@@ -8416,10 +9002,10 @@
         <v>46</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>815</v>
+        <v>878</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>816</v>
+        <v>879</v>
       </c>
       <c r="D387" s="2"/>
     </row>
@@ -8428,10 +9014,10 @@
         <v>46</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>817</v>
+        <v>880</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>818</v>
+        <v>881</v>
       </c>
       <c r="D388" s="2"/>
     </row>
@@ -8440,10 +9026,10 @@
         <v>46</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>819</v>
+        <v>882</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>820</v>
+        <v>883</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -8452,10 +9038,10 @@
         <v>46</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>821</v>
+        <v>884</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>822</v>
+        <v>885</v>
       </c>
       <c r="D390" s="2"/>
     </row>
@@ -8464,10 +9050,10 @@
         <v>46</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>823</v>
+        <v>886</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>824</v>
+        <v>887</v>
       </c>
       <c r="D391" s="2"/>
     </row>
@@ -8476,10 +9062,10 @@
         <v>46</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>825</v>
+        <v>888</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>826</v>
+        <v>889</v>
       </c>
       <c r="D392" s="2"/>
     </row>
@@ -8488,10 +9074,10 @@
         <v>46</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>827</v>
+        <v>890</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>828</v>
+        <v>891</v>
       </c>
       <c r="D393" s="2"/>
     </row>
@@ -8500,10 +9086,10 @@
         <v>46</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>829</v>
+        <v>892</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>830</v>
+        <v>893</v>
       </c>
       <c r="D394" s="2"/>
     </row>
@@ -8512,10 +9098,10 @@
         <v>46</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>831</v>
+        <v>894</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="D395" s="2"/>
     </row>
@@ -8524,10 +9110,10 @@
         <v>46</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>833</v>
+        <v>896</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>834</v>
+        <v>897</v>
       </c>
       <c r="D396" s="2"/>
     </row>
@@ -8536,10 +9122,10 @@
         <v>46</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>835</v>
+        <v>898</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>836</v>
+        <v>899</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -8548,22 +9134,24 @@
         <v>46</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>837</v>
+        <v>900</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D398" s="2"/>
+        <v>901</v>
+      </c>
+      <c r="D398" t="s" s="2">
+        <v>902</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>839</v>
+        <v>903</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -8572,10 +9160,10 @@
         <v>46</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>841</v>
+        <v>905</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -8584,10 +9172,10 @@
         <v>46</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>844</v>
+        <v>908</v>
       </c>
       <c r="D401" s="2"/>
     </row>
@@ -8596,10 +9184,10 @@
         <v>46</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>845</v>
+        <v>909</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>846</v>
+        <v>910</v>
       </c>
       <c r="D402" s="2"/>
     </row>
@@ -8608,10 +9196,10 @@
         <v>46</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>847</v>
+        <v>911</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>848</v>
+        <v>912</v>
       </c>
       <c r="D403" s="2"/>
     </row>
@@ -8620,10 +9208,10 @@
         <v>46</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>849</v>
+        <v>913</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="D404" s="2"/>
     </row>
@@ -8632,22 +9220,24 @@
         <v>46</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>851</v>
+        <v>915</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="D405" s="2"/>
+        <v>916</v>
+      </c>
+      <c r="D405" t="s" s="2">
+        <v>917</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>853</v>
+        <v>918</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>854</v>
+        <v>919</v>
       </c>
       <c r="D406" s="2"/>
     </row>
@@ -8656,10 +9246,10 @@
         <v>46</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>855</v>
+        <v>920</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>856</v>
+        <v>921</v>
       </c>
       <c r="D407" s="2"/>
     </row>
@@ -8668,10 +9258,10 @@
         <v>46</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>858</v>
+        <v>923</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -8680,10 +9270,10 @@
         <v>46</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>859</v>
+        <v>924</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>860</v>
+        <v>925</v>
       </c>
       <c r="D409" s="2"/>
     </row>
@@ -8692,34 +9282,38 @@
         <v>46</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>861</v>
+        <v>926</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="D410" s="2"/>
+        <v>927</v>
+      </c>
+      <c r="D410" t="s" s="2">
+        <v>928</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>863</v>
+        <v>929</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="D411" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="D411" t="s" s="2">
+        <v>931</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>866</v>
+        <v>933</v>
       </c>
       <c r="D412" s="2"/>
     </row>
@@ -8728,10 +9322,10 @@
         <v>46</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>867</v>
+        <v>934</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="D413" s="2"/>
     </row>
@@ -8740,10 +9334,10 @@
         <v>46</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>869</v>
+        <v>936</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>870</v>
+        <v>937</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -8752,10 +9346,10 @@
         <v>46</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>871</v>
+        <v>938</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>872</v>
+        <v>939</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -8764,10 +9358,10 @@
         <v>46</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>873</v>
+        <v>940</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>874</v>
+        <v>941</v>
       </c>
       <c r="D416" s="2"/>
     </row>
@@ -8776,10 +9370,10 @@
         <v>46</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>875</v>
+        <v>942</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>876</v>
+        <v>943</v>
       </c>
       <c r="D417" s="2"/>
     </row>
@@ -8788,10 +9382,10 @@
         <v>46</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>877</v>
+        <v>944</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>878</v>
+        <v>945</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -8800,10 +9394,10 @@
         <v>46</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>879</v>
+        <v>946</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>880</v>
+        <v>947</v>
       </c>
       <c r="D419" s="2"/>
     </row>
@@ -8812,10 +9406,10 @@
         <v>46</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>881</v>
+        <v>948</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>882</v>
+        <v>949</v>
       </c>
       <c r="D420" s="2"/>
     </row>
@@ -8824,10 +9418,10 @@
         <v>46</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>883</v>
+        <v>950</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>884</v>
+        <v>951</v>
       </c>
       <c r="D421" s="2"/>
     </row>
@@ -8836,10 +9430,10 @@
         <v>46</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>885</v>
+        <v>952</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>886</v>
+        <v>953</v>
       </c>
       <c r="D422" s="2"/>
     </row>
@@ -8848,10 +9442,10 @@
         <v>46</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>887</v>
+        <v>954</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>888</v>
+        <v>955</v>
       </c>
       <c r="D423" s="2"/>
     </row>
@@ -8860,10 +9454,10 @@
         <v>46</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>889</v>
+        <v>956</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>890</v>
+        <v>957</v>
       </c>
       <c r="D424" s="2"/>
     </row>
@@ -8872,10 +9466,10 @@
         <v>46</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>891</v>
+        <v>958</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>892</v>
+        <v>959</v>
       </c>
       <c r="D425" s="2"/>
     </row>
@@ -8884,10 +9478,10 @@
         <v>46</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>893</v>
+        <v>960</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>894</v>
+        <v>961</v>
       </c>
       <c r="D426" s="2"/>
     </row>
@@ -8896,10 +9490,10 @@
         <v>46</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>895</v>
+        <v>962</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>896</v>
+        <v>963</v>
       </c>
       <c r="D427" s="2"/>
     </row>
@@ -8908,10 +9502,10 @@
         <v>46</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>897</v>
+        <v>964</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>898</v>
+        <v>965</v>
       </c>
       <c r="D428" s="2"/>
     </row>
@@ -8920,10 +9514,10 @@
         <v>46</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>899</v>
+        <v>966</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>900</v>
+        <v>967</v>
       </c>
       <c r="D429" s="2"/>
     </row>
@@ -8932,10 +9526,10 @@
         <v>46</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>901</v>
+        <v>968</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>902</v>
+        <v>969</v>
       </c>
       <c r="D430" s="2"/>
     </row>
@@ -8944,10 +9538,10 @@
         <v>46</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>903</v>
+        <v>970</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>904</v>
+        <v>971</v>
       </c>
       <c r="D431" s="2"/>
     </row>
@@ -8956,10 +9550,10 @@
         <v>46</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>905</v>
+        <v>972</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>906</v>
+        <v>973</v>
       </c>
       <c r="D432" s="2"/>
     </row>
@@ -8968,10 +9562,10 @@
         <v>46</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>907</v>
+        <v>974</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>908</v>
+        <v>975</v>
       </c>
       <c r="D433" s="2"/>
     </row>
@@ -8980,10 +9574,10 @@
         <v>46</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>909</v>
+        <v>976</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>910</v>
+        <v>977</v>
       </c>
       <c r="D434" s="2"/>
     </row>
@@ -8992,34 +9586,38 @@
         <v>46</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>911</v>
+        <v>978</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="D435" s="2"/>
+        <v>979</v>
+      </c>
+      <c r="D435" t="s" s="2">
+        <v>980</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>913</v>
+        <v>981</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="D436" s="2"/>
+        <v>982</v>
+      </c>
+      <c r="D436" t="s" s="2">
+        <v>983</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>915</v>
+        <v>984</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>916</v>
+        <v>985</v>
       </c>
       <c r="D437" s="2"/>
     </row>
@@ -9028,22 +9626,24 @@
         <v>46</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>917</v>
+        <v>986</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="D438" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="D438" t="s" s="2">
+        <v>988</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>919</v>
+        <v>989</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -9052,178 +9652,206 @@
         <v>46</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>921</v>
+        <v>991</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="D440" s="2"/>
+        <v>992</v>
+      </c>
+      <c r="D440" t="s" s="2">
+        <v>993</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>923</v>
+        <v>994</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="D441" s="2"/>
+        <v>995</v>
+      </c>
+      <c r="D441" t="s" s="2">
+        <v>996</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>925</v>
+        <v>997</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="D442" s="2"/>
+        <v>998</v>
+      </c>
+      <c r="D442" t="s" s="2">
+        <v>999</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>927</v>
+        <v>1000</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="D443" s="2"/>
+        <v>1001</v>
+      </c>
+      <c r="D443" t="s" s="2">
+        <v>1002</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>929</v>
+        <v>1003</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="D444" s="2"/>
+        <v>1004</v>
+      </c>
+      <c r="D444" t="s" s="2">
+        <v>1005</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>931</v>
+        <v>1006</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="D445" s="2"/>
+        <v>1007</v>
+      </c>
+      <c r="D445" t="s" s="2">
+        <v>1008</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>933</v>
+        <v>1009</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="D446" s="2"/>
+        <v>1010</v>
+      </c>
+      <c r="D446" t="s" s="2">
+        <v>1011</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>935</v>
+        <v>1012</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="D447" s="2"/>
+        <v>1013</v>
+      </c>
+      <c r="D447" t="s" s="2">
+        <v>1014</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>937</v>
+        <v>1015</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>938</v>
-      </c>
-      <c r="D448" s="2"/>
+        <v>1016</v>
+      </c>
+      <c r="D448" t="s" s="2">
+        <v>1017</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>939</v>
+        <v>1018</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="D449" s="2"/>
+        <v>1019</v>
+      </c>
+      <c r="D449" t="s" s="2">
+        <v>1020</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>941</v>
+        <v>1021</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="D450" s="2"/>
+        <v>1022</v>
+      </c>
+      <c r="D450" t="s" s="2">
+        <v>1023</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>943</v>
+        <v>1024</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="D451" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="D451" t="s" s="2">
+        <v>1026</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>945</v>
+        <v>1027</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="D452" s="2"/>
+        <v>1028</v>
+      </c>
+      <c r="D452" t="s" s="2">
+        <v>1029</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>947</v>
+        <v>1030</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="D453" s="2"/>
+        <v>1031</v>
+      </c>
+      <c r="D453" t="s" s="2">
+        <v>1032</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>949</v>
+        <v>1033</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>950</v>
+        <v>1034</v>
       </c>
       <c r="D454" s="2"/>
     </row>
@@ -9232,46 +9860,52 @@
         <v>46</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>951</v>
+        <v>1035</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="D455" s="2"/>
+        <v>1036</v>
+      </c>
+      <c r="D455" t="s" s="2">
+        <v>1037</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>953</v>
+        <v>1038</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="D456" s="2"/>
+        <v>1039</v>
+      </c>
+      <c r="D456" t="s" s="2">
+        <v>1040</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>955</v>
+        <v>1041</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="D457" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="D457" t="s" s="2">
+        <v>1042</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>956</v>
+        <v>1043</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>957</v>
+        <v>1044</v>
       </c>
       <c r="D458" s="2"/>
     </row>
@@ -9280,406 +9914,472 @@
         <v>46</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>958</v>
+        <v>1045</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="D459" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="D459" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>959</v>
+        <v>1046</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="D460" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="D460" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>960</v>
+        <v>1047</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="D461" s="2"/>
+        <v>1048</v>
+      </c>
+      <c r="D461" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>962</v>
+        <v>1049</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="D462" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="D462" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>963</v>
+        <v>1050</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="D463" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="D463" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>964</v>
+        <v>1051</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>965</v>
-      </c>
-      <c r="D464" s="2"/>
+        <v>1052</v>
+      </c>
+      <c r="D464" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>966</v>
+        <v>1053</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="D465" s="2"/>
+        <v>1054</v>
+      </c>
+      <c r="D465" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>968</v>
+        <v>1055</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="D466" s="2"/>
+        <v>1056</v>
+      </c>
+      <c r="D466" t="s" s="2">
+        <v>555</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>970</v>
+        <v>1057</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>971</v>
-      </c>
-      <c r="D467" s="2"/>
+        <v>1058</v>
+      </c>
+      <c r="D467" t="s" s="2">
+        <v>1059</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>972</v>
+        <v>1060</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="D468" s="2"/>
+        <v>1061</v>
+      </c>
+      <c r="D468" t="s" s="2">
+        <v>1062</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>974</v>
+        <v>1063</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="D469" s="2"/>
+        <v>1064</v>
+      </c>
+      <c r="D469" t="s" s="2">
+        <v>1065</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>976</v>
+        <v>1066</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>977</v>
-      </c>
-      <c r="D470" s="2"/>
+        <v>1067</v>
+      </c>
+      <c r="D470" t="s" s="2">
+        <v>1068</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>978</v>
+        <v>1069</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>979</v>
-      </c>
-      <c r="D471" s="2"/>
+        <v>1070</v>
+      </c>
+      <c r="D471" t="s" s="2">
+        <v>1071</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>980</v>
+        <v>1072</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>981</v>
-      </c>
-      <c r="D472" s="2"/>
+        <v>1073</v>
+      </c>
+      <c r="D472" t="s" s="2">
+        <v>1074</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>982</v>
+        <v>1075</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="D473" s="2"/>
+        <v>1076</v>
+      </c>
+      <c r="D473" t="s" s="2">
+        <v>1077</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>984</v>
+        <v>1078</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>985</v>
-      </c>
-      <c r="D474" s="2"/>
+        <v>1079</v>
+      </c>
+      <c r="D474" t="s" s="2">
+        <v>1080</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>986</v>
+        <v>1081</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>987</v>
-      </c>
-      <c r="D475" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="D475" t="s" s="2">
+        <v>1083</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>988</v>
+        <v>1084</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="D476" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="D476" t="s" s="2">
+        <v>1086</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>990</v>
+        <v>1087</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>991</v>
-      </c>
-      <c r="D477" s="2"/>
+        <v>1088</v>
+      </c>
+      <c r="D477" t="s" s="2">
+        <v>1089</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>992</v>
+        <v>1090</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="D478" s="2"/>
+        <v>1091</v>
+      </c>
+      <c r="D478" t="s" s="2">
+        <v>1092</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>994</v>
+        <v>1093</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>995</v>
-      </c>
-      <c r="D479" s="2"/>
+        <v>1094</v>
+      </c>
+      <c r="D479" t="s" s="2">
+        <v>1095</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>996</v>
+        <v>1096</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="D480" s="2"/>
+        <v>1097</v>
+      </c>
+      <c r="D480" t="s" s="2">
+        <v>800</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>998</v>
+        <v>1098</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>999</v>
-      </c>
-      <c r="D481" s="2"/>
+        <v>1099</v>
+      </c>
+      <c r="D481" t="s" s="2">
+        <v>1100</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1000</v>
+        <v>1101</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="D482" s="2"/>
+        <v>1102</v>
+      </c>
+      <c r="D482" t="s" s="2">
+        <v>1103</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1002</v>
+        <v>1104</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1003</v>
-      </c>
-      <c r="D483" s="2"/>
+        <v>1105</v>
+      </c>
+      <c r="D483" t="s" s="2">
+        <v>1106</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1004</v>
+        <v>1107</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1005</v>
-      </c>
-      <c r="D484" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="D484" t="s" s="2">
+        <v>1109</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1006</v>
+        <v>1110</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1007</v>
-      </c>
-      <c r="D485" s="2"/>
+        <v>1111</v>
+      </c>
+      <c r="D485" t="s" s="2">
+        <v>1112</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1008</v>
+        <v>1113</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1009</v>
-      </c>
-      <c r="D486" s="2"/>
+        <v>1114</v>
+      </c>
+      <c r="D486" t="s" s="2">
+        <v>1115</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1010</v>
+        <v>1116</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="D487" s="2"/>
+        <v>1117</v>
+      </c>
+      <c r="D487" t="s" s="2">
+        <v>1118</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1012</v>
+        <v>1119</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="D488" s="2"/>
+        <v>1120</v>
+      </c>
+      <c r="D488" t="s" s="2">
+        <v>1121</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1014</v>
+        <v>1122</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="D489" s="2"/>
+        <v>1123</v>
+      </c>
+      <c r="D489" t="s" s="2">
+        <v>1124</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1016</v>
+        <v>1125</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1017</v>
-      </c>
-      <c r="D490" s="2"/>
+        <v>1126</v>
+      </c>
+      <c r="D490" t="s" s="2">
+        <v>1127</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1018</v>
+        <v>1128</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="D491" s="2"/>
+        <v>1129</v>
+      </c>
+      <c r="D491" t="s" s="2">
+        <v>1130</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1020</v>
+        <v>1131</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1021</v>
+        <v>1132</v>
       </c>
       <c r="D492" s="2"/>
     </row>
@@ -9688,94 +10388,108 @@
         <v>46</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1022</v>
+        <v>1133</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="D493" s="2"/>
+        <v>1134</v>
+      </c>
+      <c r="D493" t="s" s="2">
+        <v>1135</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1024</v>
+        <v>1136</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="D494" s="2"/>
+        <v>1137</v>
+      </c>
+      <c r="D494" t="s" s="2">
+        <v>1138</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1026</v>
+        <v>1139</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="D495" s="2"/>
+        <v>1140</v>
+      </c>
+      <c r="D495" t="s" s="2">
+        <v>1141</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1028</v>
+        <v>1142</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="D496" s="2"/>
+        <v>1143</v>
+      </c>
+      <c r="D496" t="s" s="2">
+        <v>1144</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1030</v>
+        <v>1145</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="D497" s="2"/>
+        <v>1146</v>
+      </c>
+      <c r="D497" t="s" s="2">
+        <v>1147</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1032</v>
+        <v>1148</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="D498" s="2"/>
+        <v>1149</v>
+      </c>
+      <c r="D498" t="s" s="2">
+        <v>1150</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1034</v>
+        <v>1151</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="D499" s="2"/>
+        <v>1152</v>
+      </c>
+      <c r="D499" t="s" s="2">
+        <v>1153</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1036</v>
+        <v>1154</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1037</v>
+        <v>1155</v>
       </c>
       <c r="D500" s="2"/>
     </row>
@@ -9784,166 +10498,192 @@
         <v>46</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1038</v>
+        <v>1156</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="D501" s="2"/>
+        <v>1157</v>
+      </c>
+      <c r="D501" t="s" s="2">
+        <v>1158</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1040</v>
+        <v>1159</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="D502" s="2"/>
+        <v>1160</v>
+      </c>
+      <c r="D502" t="s" s="2">
+        <v>1161</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1042</v>
+        <v>1162</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="D503" s="2"/>
+        <v>1163</v>
+      </c>
+      <c r="D503" t="s" s="2">
+        <v>1164</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1044</v>
+        <v>1165</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="D504" s="2"/>
+        <v>1166</v>
+      </c>
+      <c r="D504" t="s" s="2">
+        <v>1167</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1046</v>
+        <v>1168</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="D505" s="2"/>
+        <v>1169</v>
+      </c>
+      <c r="D505" t="s" s="2">
+        <v>1170</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1048</v>
+        <v>1171</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1049</v>
-      </c>
-      <c r="D506" s="2"/>
+        <v>1172</v>
+      </c>
+      <c r="D506" t="s" s="2">
+        <v>1173</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1050</v>
+        <v>1174</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="D507" s="2"/>
+        <v>1175</v>
+      </c>
+      <c r="D507" t="s" s="2">
+        <v>1176</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1052</v>
+        <v>1177</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1053</v>
-      </c>
-      <c r="D508" s="2"/>
+        <v>1178</v>
+      </c>
+      <c r="D508" t="s" s="2">
+        <v>1179</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1054</v>
+        <v>1180</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="D509" s="2"/>
+        <v>1181</v>
+      </c>
+      <c r="D509" t="s" s="2">
+        <v>1182</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1056</v>
+        <v>1183</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="D510" s="2"/>
+        <v>1184</v>
+      </c>
+      <c r="D510" t="s" s="2">
+        <v>1185</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="D511" s="2"/>
+        <v>1187</v>
+      </c>
+      <c r="D511" t="s" s="2">
+        <v>1188</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1060</v>
+        <v>1189</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="D512" s="2"/>
+        <v>1190</v>
+      </c>
+      <c r="D512" t="s" s="2">
+        <v>1191</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1062</v>
+        <v>1192</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="D513" s="2"/>
+        <v>1193</v>
+      </c>
+      <c r="D513" t="s" s="2">
+        <v>1194</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1064</v>
+        <v>1195</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1065</v>
+        <v>1196</v>
       </c>
       <c r="D514" s="2"/>
     </row>
@@ -9952,10 +10692,10 @@
         <v>46</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1066</v>
+        <v>1197</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1067</v>
+        <v>1198</v>
       </c>
       <c r="D515" s="2"/>
     </row>
@@ -9964,10 +10704,10 @@
         <v>46</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1068</v>
+        <v>1199</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1069</v>
+        <v>1200</v>
       </c>
       <c r="D516" s="2"/>
     </row>
@@ -9976,10 +10716,10 @@
         <v>46</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1070</v>
+        <v>1201</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1071</v>
+        <v>1202</v>
       </c>
       <c r="D517" s="2"/>
     </row>
@@ -9988,10 +10728,10 @@
         <v>46</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1072</v>
+        <v>1203</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1073</v>
+        <v>1204</v>
       </c>
       <c r="D518" s="2"/>
     </row>
@@ -10000,10 +10740,10 @@
         <v>46</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1074</v>
+        <v>1205</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1075</v>
+        <v>1206</v>
       </c>
       <c r="D519" s="2"/>
     </row>
@@ -10012,34 +10752,38 @@
         <v>46</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1076</v>
+        <v>1207</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="D520" s="2"/>
+        <v>1208</v>
+      </c>
+      <c r="D520" t="s" s="2">
+        <v>1209</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1078</v>
+        <v>1210</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="D521" s="2"/>
+        <v>1211</v>
+      </c>
+      <c r="D521" t="s" s="2">
+        <v>1212</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1080</v>
+        <v>1213</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1081</v>
+        <v>1214</v>
       </c>
       <c r="D522" s="2"/>
     </row>
@@ -10048,22 +10792,24 @@
         <v>46</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1082</v>
+        <v>1215</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="D523" s="2"/>
+        <v>1216</v>
+      </c>
+      <c r="D523" t="s" s="2">
+        <v>1217</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1084</v>
+        <v>1218</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1085</v>
+        <v>1219</v>
       </c>
       <c r="D524" s="2"/>
     </row>
@@ -10072,10 +10818,10 @@
         <v>46</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1086</v>
+        <v>1220</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1087</v>
+        <v>1221</v>
       </c>
       <c r="D525" s="2"/>
     </row>
@@ -10084,10 +10830,10 @@
         <v>46</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1088</v>
+        <v>1222</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1089</v>
+        <v>1223</v>
       </c>
       <c r="D526" s="2"/>
     </row>
@@ -10096,10 +10842,10 @@
         <v>46</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1090</v>
+        <v>1224</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1091</v>
+        <v>1225</v>
       </c>
       <c r="D527" s="2"/>
     </row>
@@ -10108,82 +10854,94 @@
         <v>46</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1092</v>
+        <v>1226</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="D528" s="2"/>
+        <v>1227</v>
+      </c>
+      <c r="D528" t="s" s="2">
+        <v>1228</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1094</v>
+        <v>1229</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="D529" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="D529" t="s" s="2">
+        <v>1231</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1096</v>
+        <v>1232</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="D530" s="2"/>
+        <v>1233</v>
+      </c>
+      <c r="D530" t="s" s="2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1098</v>
+        <v>1235</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1099</v>
-      </c>
-      <c r="D531" s="2"/>
+        <v>1236</v>
+      </c>
+      <c r="D531" t="s" s="2">
+        <v>1237</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1100</v>
+        <v>1238</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1101</v>
-      </c>
-      <c r="D532" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="D532" t="s" s="2">
+        <v>1240</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1102</v>
+        <v>1241</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1103</v>
-      </c>
-      <c r="D533" s="2"/>
+        <v>1242</v>
+      </c>
+      <c r="D533" t="s" s="2">
+        <v>1243</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1104</v>
+        <v>1244</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1105</v>
+        <v>1245</v>
       </c>
       <c r="D534" s="2"/>
     </row>
@@ -10192,10 +10950,10 @@
         <v>46</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1106</v>
+        <v>1246</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1107</v>
+        <v>1247</v>
       </c>
       <c r="D535" s="2"/>
     </row>
@@ -10204,130 +10962,150 @@
         <v>46</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1108</v>
+        <v>1248</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1109</v>
-      </c>
-      <c r="D536" s="2"/>
+        <v>1249</v>
+      </c>
+      <c r="D536" t="s" s="2">
+        <v>1250</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1110</v>
+        <v>1251</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="D537" s="2"/>
+        <v>1252</v>
+      </c>
+      <c r="D537" t="s" s="2">
+        <v>1253</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1112</v>
+        <v>1254</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1113</v>
-      </c>
-      <c r="D538" s="2"/>
+        <v>1255</v>
+      </c>
+      <c r="D538" t="s" s="2">
+        <v>1256</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1114</v>
+        <v>1257</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="D539" s="2"/>
+        <v>1258</v>
+      </c>
+      <c r="D539" t="s" s="2">
+        <v>1259</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1116</v>
+        <v>1260</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="D540" s="2"/>
+        <v>1261</v>
+      </c>
+      <c r="D540" t="s" s="2">
+        <v>1262</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1118</v>
+        <v>1263</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="D541" s="2"/>
+        <v>1264</v>
+      </c>
+      <c r="D541" t="s" s="2">
+        <v>1265</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1120</v>
+        <v>1266</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="D542" s="2"/>
+        <v>1267</v>
+      </c>
+      <c r="D542" t="s" s="2">
+        <v>1268</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1122</v>
+        <v>1269</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="D543" s="2"/>
+        <v>1270</v>
+      </c>
+      <c r="D543" t="s" s="2">
+        <v>1271</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1124</v>
+        <v>1272</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1125</v>
-      </c>
-      <c r="D544" s="2"/>
+        <v>1273</v>
+      </c>
+      <c r="D544" t="s" s="2">
+        <v>1274</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1126</v>
+        <v>1275</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1127</v>
-      </c>
-      <c r="D545" s="2"/>
+        <v>1276</v>
+      </c>
+      <c r="D545" t="s" s="2">
+        <v>1277</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1128</v>
+        <v>1278</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1129</v>
+        <v>1279</v>
       </c>
       <c r="D546" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,7 +637,7 @@
     <t>Maladies infectieuses et tropicales</t>
   </si>
   <si>
-    <t xml:space="preserve">Spécialité médicale clinique qui s'intéresse à la prise en charge des maladies infectieuses et tropicales (c'est-à-dire transmis par les bactéries, virus, parasites ou champignons) dans leurs dimensions individuelles et collectives. </t>
+    <t>Spécialité médicale clinique qui s'intéresse à la prise en charge des maladies infectieuses et tropicales (c'est-à-dire transmis par les bactéries, virus, parasites ou champignons) dans leurs dimensions individuelles et collectives.</t>
   </si>
   <si>
     <t>078</t>
@@ -793,7 +793,7 @@
     <t>Odontologie (dentaire)</t>
   </si>
   <si>
-    <t xml:space="preserve">Spécialité médico-chirurgicale qui traite de la prévention, du diagnostic et du traitement des maladies congénitales ou acquises, réelles ou supposées, de la bouche, des dents, des maxillaires et des tissus connexes. </t>
+    <t>Spécialité médico-chirurgicale qui traite de la prévention, du diagnostic et du traitement des maladies congénitales ou acquises, réelles ou supposées, de la bouche, des dents, des maxillaires et des tissus connexes.</t>
   </si>
   <si>
     <t>102</t>
@@ -835,7 +835,7 @@
     <t>Orthoptie</t>
   </si>
   <si>
-    <t xml:space="preserve">Discipline paramédicale spécialisée dans le dépistage, la rééducation et l'exploration de la fonction visuelle. </t>
+    <t>Discipline paramédicale spécialisée dans le dépistage, la rééducation et l'exploration de la fonction visuelle.</t>
   </si>
   <si>
     <t>107</t>
@@ -1252,7 +1252,7 @@
     <t>Réadaptation polyvalente</t>
   </si>
   <si>
-    <t xml:space="preserve">Branche des soins médicaux et de réadaptation qui vise à prévenir ou à réduire les conséquences fonctionnelles, les déficiences et les limitations d'activité, soit dans le cadre de la prise en charge de patients atteints de pathologies chroniques, soit en amont ou en aval des épisodes de soins aigus, que ces conséquences soient physiques, cognitives, psychologiques ou sociales. </t>
+    <t>Branche des soins médicaux et de réadaptation qui vise à prévenir ou à réduire les conséquences fonctionnelles, les déficiences et les limitations d'activité, soit dans le cadre de la prise en charge de patients atteints de pathologies chroniques, soit en amont ou en aval des épisodes de soins aigus, que ces conséquences soient physiques, cognitives, psychologiques ou sociales.</t>
   </si>
   <si>
     <t>173</t>
@@ -2362,7 +2362,7 @@
     <t>Kinésithérapie</t>
   </si>
   <si>
-    <t xml:space="preserve">Discipline paramédicale dont la pratique comprend la promotion de la santé, la prévention, la kinésithérapie le diagnostic et le traitement : du mouvement ou des troubles moteurs de la personne et des déficiences ou altérations des capacités fonctionnelles. </t>
+    <t>Discipline paramédicale dont la pratique comprend la promotion de la santé, la prévention, la kinésithérapie le diagnostic et le traitement : du mouvement ou des troubles moteurs de la personne et des déficiences ou altérations des capacités fonctionnelles.</t>
   </si>
   <si>
     <t>340</t>
@@ -2965,7 +2965,7 @@
     <t>Expertise médicale (évaluation de préjudice)</t>
   </si>
   <si>
-    <t xml:space="preserve">L'expertise médicale est un moyen d'investigation qui éclaire une juridiction ou des parties, sur des questions strictement techniques, et dont la connaissance ou l'explication est nécessaire pour rapporter la vérité ou solutionner un litige. L'expertise médicale a pour but, dans le cadre du dommage corporel ou dans celui des accidents du travail, d'évaluer les séquelles fonctionnelles des victimes d'accidents.  </t>
+    <t>L'expertise médicale est un moyen d'investigation qui éclaire une juridiction ou des parties, sur des questions strictement techniques, et dont la connaissance ou l'explication est nécessaire pour rapporter la vérité ou solutionner un litige. L'expertise médicale a pour but, dans le cadre du dommage corporel ou dans celui des accidents du travail, d'évaluer les séquelles fonctionnelles des victimes d'accidents.</t>
   </si>
   <si>
     <t>436</t>
@@ -3274,7 +3274,7 @@
     <t>Coordination de soins non-programmés</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisation de la collaboration des professionnels de santé afin d'améliorer la prise en charge des patients d'une urgence ressentie par le patient, mais ne relevant pas nécessairement d'une urgence médicale à proprement dit. </t>
+    <t>Organisation de la collaboration des professionnels de santé afin d'améliorer la prise en charge des patients d'une urgence ressentie par le patient, mais ne relevant pas nécessairement d'une urgence médicale à proprement dit.</t>
   </si>
   <si>
     <t>476</t>
@@ -3343,7 +3343,7 @@
     <t>Médecine générale à orientation Diabétologie</t>
   </si>
   <si>
-    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Diabétologie. </t>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Diabétologie.</t>
   </si>
   <si>
     <t>484</t>
@@ -3352,7 +3352,7 @@
     <t>Médecine générale à orientation Gériatrie, Gérontologie</t>
   </si>
   <si>
-    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gériatrie, Gérontologie. </t>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gériatrie, Gérontologie.</t>
   </si>
   <si>
     <t>485</t>
@@ -3361,7 +3361,7 @@
     <t>Médecine générale à orientation Gynécologie médicale</t>
   </si>
   <si>
-    <t xml:space="preserve">Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gynécologie médicale. </t>
+    <t>Activité d'un médecin généraliste ayant acquis un diplôme ou une mention autorisée en Gynécologie médicale.</t>
   </si>
   <si>
     <t>486</t>
@@ -3544,7 +3544,7 @@
     <t>Transplantation d'organe</t>
   </si>
   <si>
-    <t xml:space="preserve">Procédure thérapeutique qui vise à suppléer le fonctionnement défaillant d'un organe par un organe sain, appelé « greffon » ou « transplant » et provenant d'un donneur. </t>
+    <t>Procédure thérapeutique qui vise à suppléer le fonctionnement défaillant d'un organe par un organe sain, appelé « greffon » ou « transplant » et provenant d'un donneur.</t>
   </si>
   <si>
     <t>507</t>
@@ -3580,7 +3580,7 @@
     <t>Échographie gynécologique et obstétricale (dont échographie de grossesse)</t>
   </si>
   <si>
-    <t xml:space="preserve">Echographie qui s'applique aux organes pelviens de la femme, en particulier l'utérus, les ovaires, les trompes de Fallope, ainsi que la vessie, le cul-de-sac de Douglas. L'échographie de la grossesse permettent de suivre l'évolution et le bon développement du futur bébé tout au long de ces neuf mois. </t>
+    <t>Echographie qui s'applique aux organes pelviens de la femme, en particulier l'utérus, les ovaires, les trompes de Fallope, ainsi que la vessie, le cul-de-sac de Douglas. L'échographie de la grossesse permettent de suivre l'évolution et le bon développement du futur bébé tout au long de ces neuf mois.</t>
   </si>
   <si>
     <t>511</t>
@@ -3589,7 +3589,7 @@
     <t>Accueil et hébergement spécialisé</t>
   </si>
   <si>
-    <t xml:space="preserve">Service qui vise à offrir à un enfant ou un adolescent handicapé un hébergement dans un environnement psychologique, éducatif et affectif complémentaire à celui qu'il peut trouver dans sa propre famille. </t>
+    <t>Service qui vise à offrir à un enfant ou un adolescent handicapé un hébergement dans un environnement psychologique, éducatif et affectif complémentaire à celui qu'il peut trouver dans sa propre famille.</t>
   </si>
   <si>
     <t>512</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1291">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-05-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -202,7 +202,10 @@
     <t>007</t>
   </si>
   <si>
-    <t>Anesthésie</t>
+    <t>Anesthésie et Médecine périopératoire</t>
+  </si>
+  <si>
+    <t>Branche de la médecine qui permet de réaliser des interventions chirurgicales dans les meilleures conditions de confort et de sécurité pour le patient par la perte locale ou générale de la sensibilité à la douleur produite par un agent anesthésique et qui s'étend de la consultation pré-anesthésique (CPA) à la fin de la surveillance après l'intervention.</t>
   </si>
   <si>
     <t>008</t>
@@ -406,10 +409,10 @@
     <t>040</t>
   </si>
   <si>
-    <t>Diététique et Nutrition</t>
-  </si>
-  <si>
-    <t>La diététique désigne l'ensemble des règles à suivre pour une alimentation bien équilibrée. La nutrition est axée sur l'assimilation et la transformation par le corps des nutriments.</t>
+    <t>Nutrition</t>
+  </si>
+  <si>
+    <t>La nutrition est axée sur l'assimilation et la transformation par le corps des nutriments.</t>
   </si>
   <si>
     <t>041</t>
@@ -2023,7 +2026,7 @@
     <t>288</t>
   </si>
   <si>
-    <t>Soins d'hygiène médicalisés</t>
+    <t>Soins de nursing lourds</t>
   </si>
   <si>
     <t>289</t>
@@ -2245,7 +2248,7 @@
     <t>322</t>
   </si>
   <si>
-    <t>Prestation de restauration</t>
+    <t>Prestation de restauration (dont portage de repas)</t>
   </si>
   <si>
     <t>323</t>
@@ -2500,7 +2503,10 @@
     <t>361</t>
   </si>
   <si>
-    <t>Soins intensifs spécialisés hématologie</t>
+    <t>Soins intensifs spécialisés hématologie (USIH)</t>
+  </si>
+  <si>
+    <t>Unités d'un établissement de santé organisées pour prendre en charge des patients qui présentent ou sont susceptibles de présenter une défaillance aiguë hématologique mettant directement en jeu à court terme leur pronostic vital et impliquant le recours à une méthode de suppléance.</t>
   </si>
   <si>
     <t>362</t>
@@ -2536,10 +2542,7 @@
     <t>367</t>
   </si>
   <si>
-    <t>Soins intensifs spécialisés hépato-gastro-entérologie (USIG)</t>
-  </si>
-  <si>
-    <t>Unités d'un établissement de santé organisées pour prendre en charge des patients qui présentent ou sont susceptibles de présenter une défaillance aiguë de l'organe concerné par la spécialité médicale en hépato-gastro-entérologie mettant directement en jeu à court terme leur pronostic vital et impliquant le recours à une méthode de suppléance.</t>
+    <t>Soins intensifs spécialisés hépato-gastro-entérologie</t>
   </si>
   <si>
     <t>368</t>
@@ -2695,13 +2698,16 @@
     <t>393</t>
   </si>
   <si>
-    <t>Hébergement temporaire en sortie d'hospitalisation</t>
+    <t>Hébergement temporaire d'urgence en sortie d'hospitalisation</t>
+  </si>
+  <si>
+    <t>Les hébergements d'urgence médico-social sont des places, plus ou moins réservées, destinées à des sorties d'hospitalisation de la personne. Ce sont des hébergements très spécifiques et ponctuels dont le but est de mieux préparer le retour à domicile de la personne âgée tout en la maintenant dans un cadre sécurisé avec la présence de soignants ou d'organiser son orientation vers une nouvelle structure d'accueil si nécessaire. Le GT précise que c'est une modalité particulière de l'hébergement temporaire.</t>
   </si>
   <si>
     <t>394</t>
   </si>
   <si>
-    <t>Relayage (type baluchonnage)</t>
+    <t>Aide au répit (relayage)</t>
   </si>
   <si>
     <t>395</t>
@@ -3854,6 +3860,33 @@
   </si>
   <si>
     <t>Chimiothérapie intensive</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>Exploration et prise en charge de la dénutrition</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>Evaluation de situation sociale préoccupante</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>Coordination renforcée (dont Care Management)</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Diététique</t>
+  </si>
+  <si>
+    <t>Branche médicale, exercée par des médecins nutritionnistes qui analyse les rapports entre les aliments et la santé, elle est axée sur l'assimilation et la transformation par le corps des nutriments en vue de leur utilisation métabolique.</t>
   </si>
 </sst>
 </file>
@@ -4221,7 +4254,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D546"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4327,17 +4360,19 @@
       <c r="C8" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4346,10 +4381,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -4358,10 +4393,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -4370,10 +4405,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4382,10 +4417,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -4394,10 +4429,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -4406,10 +4441,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -4418,10 +4453,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -4430,10 +4465,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -4442,10 +4477,10 @@
         <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -4454,10 +4489,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -4466,10 +4501,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -4478,10 +4513,10 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -4490,10 +4525,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -4502,10 +4537,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -4514,10 +4549,10 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -4526,10 +4561,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -4538,10 +4573,10 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -4550,10 +4585,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -4562,10 +4597,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -4574,10 +4609,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -4586,10 +4621,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -4598,10 +4633,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -4610,10 +4645,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -4622,13 +4657,13 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -4636,13 +4671,13 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -4650,10 +4685,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -4662,10 +4697,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -4674,10 +4709,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -4686,10 +4721,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -4698,10 +4733,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -4710,10 +4745,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4722,13 +4757,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42">
@@ -4736,10 +4771,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -4748,10 +4783,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -4760,10 +4795,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -4772,13 +4807,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46">
@@ -4786,10 +4821,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -4798,10 +4833,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -4810,10 +4845,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -4822,10 +4857,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -4834,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -4846,10 +4881,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -4858,10 +4893,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -4870,10 +4905,10 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -4882,10 +4917,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -4894,10 +4929,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -4906,10 +4941,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -4918,10 +4953,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -4930,10 +4965,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -4942,10 +4977,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -4954,10 +4989,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -4966,10 +5001,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -4978,10 +5013,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -4990,10 +5025,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -5002,10 +5037,10 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -5014,10 +5049,10 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -5026,10 +5061,10 @@
         <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -5038,10 +5073,10 @@
         <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -5050,10 +5085,10 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -5062,10 +5097,10 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -5074,10 +5109,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -5086,10 +5121,10 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -5098,10 +5133,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -5110,10 +5145,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -5122,10 +5157,10 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -5134,10 +5169,10 @@
         <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -5146,10 +5181,10 @@
         <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -5158,10 +5193,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -5170,13 +5205,13 @@
         <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79">
@@ -5184,10 +5219,10 @@
         <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -5196,10 +5231,10 @@
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -5208,10 +5243,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -5220,10 +5255,10 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -5232,10 +5267,10 @@
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -5244,10 +5279,10 @@
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -5256,13 +5291,13 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86">
@@ -5270,13 +5305,13 @@
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87">
@@ -5284,10 +5319,10 @@
         <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -5296,10 +5331,10 @@
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -5308,10 +5343,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -5320,10 +5355,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -5332,10 +5367,10 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -5344,10 +5379,10 @@
         <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -5356,10 +5391,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -5368,10 +5403,10 @@
         <v>46</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -5380,10 +5415,10 @@
         <v>46</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -5392,10 +5427,10 @@
         <v>46</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -5404,10 +5439,10 @@
         <v>46</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -5416,10 +5451,10 @@
         <v>46</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -5428,10 +5463,10 @@
         <v>46</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -5440,13 +5475,13 @@
         <v>46</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101">
@@ -5454,10 +5489,10 @@
         <v>46</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -5466,13 +5501,13 @@
         <v>46</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103">
@@ -5480,13 +5515,13 @@
         <v>46</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
@@ -5494,10 +5529,10 @@
         <v>46</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -5506,13 +5541,13 @@
         <v>46</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106">
@@ -5520,13 +5555,13 @@
         <v>46</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107">
@@ -5534,13 +5569,13 @@
         <v>46</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108">
@@ -5548,10 +5583,10 @@
         <v>46</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -5560,10 +5595,10 @@
         <v>46</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -5572,10 +5607,10 @@
         <v>46</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -5584,10 +5619,10 @@
         <v>46</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -5596,10 +5631,10 @@
         <v>46</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -5608,10 +5643,10 @@
         <v>46</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -5620,10 +5655,10 @@
         <v>46</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -5632,10 +5667,10 @@
         <v>46</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -5644,10 +5679,10 @@
         <v>46</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -5656,10 +5691,10 @@
         <v>46</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -5668,13 +5703,13 @@
         <v>46</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119">
@@ -5682,10 +5717,10 @@
         <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -5694,10 +5729,10 @@
         <v>46</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -5706,10 +5741,10 @@
         <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -5718,10 +5753,10 @@
         <v>46</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -5730,10 +5765,10 @@
         <v>46</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -5742,10 +5777,10 @@
         <v>46</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -5754,10 +5789,10 @@
         <v>46</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -5766,10 +5801,10 @@
         <v>46</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -5778,10 +5813,10 @@
         <v>46</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -5790,10 +5825,10 @@
         <v>46</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -5802,10 +5837,10 @@
         <v>46</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -5814,10 +5849,10 @@
         <v>46</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -5826,10 +5861,10 @@
         <v>46</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -5838,10 +5873,10 @@
         <v>46</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -5850,13 +5885,13 @@
         <v>46</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134">
@@ -5864,10 +5899,10 @@
         <v>46</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -5876,10 +5911,10 @@
         <v>46</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -5888,13 +5923,13 @@
         <v>46</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="137">
@@ -5902,10 +5937,10 @@
         <v>46</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -5914,10 +5949,10 @@
         <v>46</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -5926,10 +5961,10 @@
         <v>46</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -5938,10 +5973,10 @@
         <v>46</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -5950,10 +5985,10 @@
         <v>46</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -5962,10 +5997,10 @@
         <v>46</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -5974,10 +6009,10 @@
         <v>46</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -5986,10 +6021,10 @@
         <v>46</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -5998,10 +6033,10 @@
         <v>46</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -6010,10 +6045,10 @@
         <v>46</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -6022,10 +6057,10 @@
         <v>46</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -6034,10 +6069,10 @@
         <v>46</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -6046,10 +6081,10 @@
         <v>46</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D149" s="2"/>
     </row>
@@ -6058,10 +6093,10 @@
         <v>46</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -6070,10 +6105,10 @@
         <v>46</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -6082,10 +6117,10 @@
         <v>46</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -6094,10 +6129,10 @@
         <v>46</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -6106,10 +6141,10 @@
         <v>46</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -6118,10 +6153,10 @@
         <v>46</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -6130,10 +6165,10 @@
         <v>46</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -6142,10 +6177,10 @@
         <v>46</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -6154,10 +6189,10 @@
         <v>46</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -6166,10 +6201,10 @@
         <v>46</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -6178,10 +6213,10 @@
         <v>46</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -6190,10 +6225,10 @@
         <v>46</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -6202,10 +6237,10 @@
         <v>46</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -6214,10 +6249,10 @@
         <v>46</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -6226,10 +6261,10 @@
         <v>46</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -6238,13 +6273,13 @@
         <v>46</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166">
@@ -6252,10 +6287,10 @@
         <v>46</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -6264,10 +6299,10 @@
         <v>46</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -6276,10 +6311,10 @@
         <v>46</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -6288,13 +6323,13 @@
         <v>46</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170">
@@ -6302,10 +6337,10 @@
         <v>46</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -6314,13 +6349,13 @@
         <v>46</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172">
@@ -6328,10 +6363,10 @@
         <v>46</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -6340,13 +6375,13 @@
         <v>46</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="174">
@@ -6354,10 +6389,10 @@
         <v>46</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -6366,10 +6401,10 @@
         <v>46</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -6378,10 +6413,10 @@
         <v>46</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -6390,10 +6425,10 @@
         <v>46</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -6402,10 +6437,10 @@
         <v>46</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -6414,13 +6449,13 @@
         <v>46</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180">
@@ -6428,13 +6463,13 @@
         <v>46</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181">
@@ -6442,10 +6477,10 @@
         <v>46</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -6454,10 +6489,10 @@
         <v>46</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -6466,10 +6501,10 @@
         <v>46</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -6478,10 +6513,10 @@
         <v>46</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -6490,10 +6525,10 @@
         <v>46</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -6502,10 +6537,10 @@
         <v>46</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -6514,13 +6549,13 @@
         <v>46</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188">
@@ -6528,13 +6563,13 @@
         <v>46</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189">
@@ -6542,13 +6577,13 @@
         <v>46</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190">
@@ -6556,13 +6591,13 @@
         <v>46</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191">
@@ -6570,13 +6605,13 @@
         <v>46</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="192">
@@ -6584,13 +6619,13 @@
         <v>46</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193">
@@ -6598,13 +6633,13 @@
         <v>46</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194">
@@ -6612,13 +6647,13 @@
         <v>46</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195">
@@ -6626,10 +6661,10 @@
         <v>46</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -6638,13 +6673,13 @@
         <v>46</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197">
@@ -6652,13 +6687,13 @@
         <v>46</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198">
@@ -6666,10 +6701,10 @@
         <v>46</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -6678,13 +6713,13 @@
         <v>46</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200">
@@ -6692,13 +6727,13 @@
         <v>46</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201">
@@ -6706,13 +6741,13 @@
         <v>46</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202">
@@ -6720,13 +6755,13 @@
         <v>46</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203">
@@ -6734,10 +6769,10 @@
         <v>46</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D203" s="2"/>
     </row>
@@ -6746,10 +6781,10 @@
         <v>46</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D204" s="2"/>
     </row>
@@ -6758,10 +6793,10 @@
         <v>46</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -6770,10 +6805,10 @@
         <v>46</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -6782,10 +6817,10 @@
         <v>46</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -6794,10 +6829,10 @@
         <v>46</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -6806,10 +6841,10 @@
         <v>46</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -6818,10 +6853,10 @@
         <v>46</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -6830,10 +6865,10 @@
         <v>46</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -6842,10 +6877,10 @@
         <v>46</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -6854,10 +6889,10 @@
         <v>46</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -6866,10 +6901,10 @@
         <v>46</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -6878,10 +6913,10 @@
         <v>46</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -6890,10 +6925,10 @@
         <v>46</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -6902,10 +6937,10 @@
         <v>46</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -6914,10 +6949,10 @@
         <v>46</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -6926,10 +6961,10 @@
         <v>46</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -6938,10 +6973,10 @@
         <v>46</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -6950,10 +6985,10 @@
         <v>46</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D221" s="2"/>
     </row>
@@ -6962,10 +6997,10 @@
         <v>46</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D222" s="2"/>
     </row>
@@ -6974,10 +7009,10 @@
         <v>46</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D223" s="2"/>
     </row>
@@ -6986,10 +7021,10 @@
         <v>46</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D224" s="2"/>
     </row>
@@ -6998,10 +7033,10 @@
         <v>46</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -7010,10 +7045,10 @@
         <v>46</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D226" s="2"/>
     </row>
@@ -7022,13 +7057,13 @@
         <v>46</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="228">
@@ -7036,10 +7071,10 @@
         <v>46</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D228" s="2"/>
     </row>
@@ -7048,10 +7083,10 @@
         <v>46</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D229" s="2"/>
     </row>
@@ -7060,10 +7095,10 @@
         <v>46</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D230" s="2"/>
     </row>
@@ -7072,10 +7107,10 @@
         <v>46</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D231" s="2"/>
     </row>
@@ -7084,13 +7119,13 @@
         <v>46</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D232" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233">
@@ -7098,10 +7133,10 @@
         <v>46</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D233" s="2"/>
     </row>
@@ -7110,13 +7145,13 @@
         <v>46</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235">
@@ -7124,13 +7159,13 @@
         <v>46</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="236">
@@ -7138,13 +7173,13 @@
         <v>46</v>
       </c>
       <c r="B236" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="D236" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="C236" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="D236" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="237">
@@ -7152,13 +7187,13 @@
         <v>46</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D237" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="238">
@@ -7166,13 +7201,13 @@
         <v>46</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D238" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="239">
@@ -7180,10 +7215,10 @@
         <v>46</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D239" s="2"/>
     </row>
@@ -7192,13 +7227,13 @@
         <v>46</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241">
@@ -7206,10 +7241,10 @@
         <v>46</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -7218,13 +7253,13 @@
         <v>46</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243">
@@ -7232,10 +7267,10 @@
         <v>46</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D243" s="2"/>
     </row>
@@ -7244,13 +7279,13 @@
         <v>46</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="245">
@@ -7258,10 +7293,10 @@
         <v>46</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D245" s="2"/>
     </row>
@@ -7270,13 +7305,13 @@
         <v>46</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="247">
@@ -7284,10 +7319,10 @@
         <v>46</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D247" s="2"/>
     </row>
@@ -7296,10 +7331,10 @@
         <v>46</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D248" s="2"/>
     </row>
@@ -7308,10 +7343,10 @@
         <v>46</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D249" s="2"/>
     </row>
@@ -7320,10 +7355,10 @@
         <v>46</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D250" s="2"/>
     </row>
@@ -7332,10 +7367,10 @@
         <v>46</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D251" s="2"/>
     </row>
@@ -7344,10 +7379,10 @@
         <v>46</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D252" s="2"/>
     </row>
@@ -7356,10 +7391,10 @@
         <v>46</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D253" s="2"/>
     </row>
@@ -7368,10 +7403,10 @@
         <v>46</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D254" s="2"/>
     </row>
@@ -7380,10 +7415,10 @@
         <v>46</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -7392,10 +7427,10 @@
         <v>46</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D256" s="2"/>
     </row>
@@ -7404,10 +7439,10 @@
         <v>46</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D257" s="2"/>
     </row>
@@ -7416,10 +7451,10 @@
         <v>46</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D258" s="2"/>
     </row>
@@ -7428,10 +7463,10 @@
         <v>46</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D259" s="2"/>
     </row>
@@ -7440,10 +7475,10 @@
         <v>46</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D260" s="2"/>
     </row>
@@ -7452,10 +7487,10 @@
         <v>46</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D261" s="2"/>
     </row>
@@ -7464,10 +7499,10 @@
         <v>46</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -7476,10 +7511,10 @@
         <v>46</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D263" s="2"/>
     </row>
@@ -7488,10 +7523,10 @@
         <v>46</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D264" s="2"/>
     </row>
@@ -7500,10 +7535,10 @@
         <v>46</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -7512,10 +7547,10 @@
         <v>46</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -7524,10 +7559,10 @@
         <v>46</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D267" s="2"/>
     </row>
@@ -7536,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D268" s="2"/>
     </row>
@@ -7548,10 +7583,10 @@
         <v>46</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D269" s="2"/>
     </row>
@@ -7560,10 +7595,10 @@
         <v>46</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D270" s="2"/>
     </row>
@@ -7572,10 +7607,10 @@
         <v>46</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D271" s="2"/>
     </row>
@@ -7584,10 +7619,10 @@
         <v>46</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D272" s="2"/>
     </row>
@@ -7596,10 +7631,10 @@
         <v>46</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D273" s="2"/>
     </row>
@@ -7608,10 +7643,10 @@
         <v>46</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D274" s="2"/>
     </row>
@@ -7620,10 +7655,10 @@
         <v>46</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D275" s="2"/>
     </row>
@@ -7632,10 +7667,10 @@
         <v>46</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D276" s="2"/>
     </row>
@@ -7644,10 +7679,10 @@
         <v>46</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D277" s="2"/>
     </row>
@@ -7656,10 +7691,10 @@
         <v>46</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D278" s="2"/>
     </row>
@@ -7668,10 +7703,10 @@
         <v>46</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D279" s="2"/>
     </row>
@@ -7680,13 +7715,13 @@
         <v>46</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="281">
@@ -7694,10 +7729,10 @@
         <v>46</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D281" s="2"/>
     </row>
@@ -7706,13 +7741,13 @@
         <v>46</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283">
@@ -7720,13 +7755,13 @@
         <v>46</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D283" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="284">
@@ -7734,10 +7769,10 @@
         <v>46</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -7746,10 +7781,10 @@
         <v>46</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D285" s="2"/>
     </row>
@@ -7758,10 +7793,10 @@
         <v>46</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D286" s="2"/>
     </row>
@@ -7770,10 +7805,10 @@
         <v>46</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -7782,13 +7817,13 @@
         <v>46</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289">
@@ -7796,10 +7831,10 @@
         <v>46</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D289" s="2"/>
     </row>
@@ -7808,10 +7843,10 @@
         <v>46</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D290" s="2"/>
     </row>
@@ -7820,13 +7855,13 @@
         <v>46</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292">
@@ -7834,13 +7869,13 @@
         <v>46</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="293">
@@ -7848,13 +7883,13 @@
         <v>46</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="294">
@@ -7862,10 +7897,10 @@
         <v>46</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -7874,10 +7909,10 @@
         <v>46</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -7886,10 +7921,10 @@
         <v>46</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -7898,10 +7933,10 @@
         <v>46</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -7910,10 +7945,10 @@
         <v>46</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -7922,10 +7957,10 @@
         <v>46</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D299" s="2"/>
     </row>
@@ -7934,10 +7969,10 @@
         <v>46</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -7946,10 +7981,10 @@
         <v>46</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D301" s="2"/>
     </row>
@@ -7958,10 +7993,10 @@
         <v>46</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D302" s="2"/>
     </row>
@@ -7970,13 +8005,13 @@
         <v>46</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="304">
@@ -7984,10 +8019,10 @@
         <v>46</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -7996,10 +8031,10 @@
         <v>46</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -8008,10 +8043,10 @@
         <v>46</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -8020,10 +8055,10 @@
         <v>46</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D307" s="2"/>
     </row>
@@ -8032,10 +8067,10 @@
         <v>46</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D308" s="2"/>
     </row>
@@ -8044,10 +8079,10 @@
         <v>46</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -8056,10 +8091,10 @@
         <v>46</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -8068,10 +8103,10 @@
         <v>46</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D311" s="2"/>
     </row>
@@ -8080,10 +8115,10 @@
         <v>46</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D312" s="2"/>
     </row>
@@ -8092,13 +8127,13 @@
         <v>46</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="314">
@@ -8106,13 +8141,13 @@
         <v>46</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="315">
@@ -8120,10 +8155,10 @@
         <v>46</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D315" s="2"/>
     </row>
@@ -8132,10 +8167,10 @@
         <v>46</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D316" s="2"/>
     </row>
@@ -8144,10 +8179,10 @@
         <v>46</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D317" s="2"/>
     </row>
@@ -8156,10 +8191,10 @@
         <v>46</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -8168,10 +8203,10 @@
         <v>46</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -8180,10 +8215,10 @@
         <v>46</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -8192,10 +8227,10 @@
         <v>46</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D321" s="2"/>
     </row>
@@ -8204,10 +8239,10 @@
         <v>46</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D322" s="2"/>
     </row>
@@ -8216,10 +8251,10 @@
         <v>46</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D323" s="2"/>
     </row>
@@ -8228,10 +8263,10 @@
         <v>46</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D324" s="2"/>
     </row>
@@ -8240,10 +8275,10 @@
         <v>46</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D325" s="2"/>
     </row>
@@ -8252,13 +8287,13 @@
         <v>46</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="327">
@@ -8266,10 +8301,10 @@
         <v>46</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D327" s="2"/>
     </row>
@@ -8278,10 +8313,10 @@
         <v>46</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -8290,10 +8325,10 @@
         <v>46</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D329" s="2"/>
     </row>
@@ -8302,10 +8337,10 @@
         <v>46</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D330" s="2"/>
     </row>
@@ -8314,10 +8349,10 @@
         <v>46</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -8326,10 +8361,10 @@
         <v>46</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -8338,10 +8373,10 @@
         <v>46</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D333" s="2"/>
     </row>
@@ -8350,10 +8385,10 @@
         <v>46</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D334" s="2"/>
     </row>
@@ -8362,13 +8397,13 @@
         <v>46</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="336">
@@ -8376,13 +8411,13 @@
         <v>46</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="337">
@@ -8390,10 +8425,10 @@
         <v>46</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D337" s="2"/>
     </row>
@@ -8402,10 +8437,10 @@
         <v>46</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D338" s="2"/>
     </row>
@@ -8414,13 +8449,13 @@
         <v>46</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="340">
@@ -8428,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="341">
@@ -8442,13 +8477,13 @@
         <v>46</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="342">
@@ -8456,10 +8491,10 @@
         <v>46</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D342" s="2"/>
     </row>
@@ -8468,10 +8503,10 @@
         <v>46</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D343" s="2"/>
     </row>
@@ -8480,10 +8515,10 @@
         <v>46</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D344" s="2"/>
     </row>
@@ -8492,10 +8527,10 @@
         <v>46</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D345" s="2"/>
     </row>
@@ -8504,10 +8539,10 @@
         <v>46</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D346" s="2"/>
     </row>
@@ -8516,10 +8551,10 @@
         <v>46</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D347" s="2"/>
     </row>
@@ -8528,13 +8563,13 @@
         <v>46</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="349">
@@ -8542,10 +8577,10 @@
         <v>46</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D349" s="2"/>
     </row>
@@ -8554,13 +8589,13 @@
         <v>46</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="351">
@@ -8568,10 +8603,10 @@
         <v>46</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D351" s="2"/>
     </row>
@@ -8580,10 +8615,10 @@
         <v>46</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D352" s="2"/>
     </row>
@@ -8592,10 +8627,10 @@
         <v>46</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -8604,10 +8639,10 @@
         <v>46</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -8616,10 +8651,10 @@
         <v>46</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D355" s="2"/>
     </row>
@@ -8628,10 +8663,10 @@
         <v>46</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D356" s="2"/>
     </row>
@@ -8640,10 +8675,10 @@
         <v>46</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D357" s="2"/>
     </row>
@@ -8652,10 +8687,10 @@
         <v>46</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D358" s="2"/>
     </row>
@@ -8664,10 +8699,10 @@
         <v>46</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D359" s="2"/>
     </row>
@@ -8676,10 +8711,10 @@
         <v>46</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D360" s="2"/>
     </row>
@@ -8688,10 +8723,10 @@
         <v>46</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D361" s="2"/>
     </row>
@@ -8700,22 +8735,24 @@
         <v>46</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="D362" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D362" t="s" s="2">
+        <v>830</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D363" s="2"/>
     </row>
@@ -8724,10 +8761,10 @@
         <v>46</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D364" s="2"/>
     </row>
@@ -8736,10 +8773,10 @@
         <v>46</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D365" s="2"/>
     </row>
@@ -8748,10 +8785,10 @@
         <v>46</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D366" s="2"/>
     </row>
@@ -8760,10 +8797,10 @@
         <v>46</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D367" s="2"/>
     </row>
@@ -8772,13 +8809,13 @@
         <v>46</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="369">
@@ -8786,10 +8823,10 @@
         <v>46</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D369" s="2"/>
     </row>
@@ -8798,10 +8835,10 @@
         <v>46</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D370" s="2"/>
     </row>
@@ -8810,10 +8847,10 @@
         <v>46</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D371" s="2"/>
     </row>
@@ -8822,10 +8859,10 @@
         <v>46</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -8834,10 +8871,10 @@
         <v>46</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D373" s="2"/>
     </row>
@@ -8846,10 +8883,10 @@
         <v>46</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D374" s="2"/>
     </row>
@@ -8858,10 +8895,10 @@
         <v>46</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -8870,10 +8907,10 @@
         <v>46</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -8882,10 +8919,10 @@
         <v>46</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D377" s="2"/>
     </row>
@@ -8894,10 +8931,10 @@
         <v>46</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D378" s="2"/>
     </row>
@@ -8906,10 +8943,10 @@
         <v>46</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D379" s="2"/>
     </row>
@@ -8918,10 +8955,10 @@
         <v>46</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D380" s="2"/>
     </row>
@@ -8930,10 +8967,10 @@
         <v>46</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D381" s="2"/>
     </row>
@@ -8942,10 +8979,10 @@
         <v>46</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D382" s="2"/>
     </row>
@@ -8954,10 +8991,10 @@
         <v>46</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D383" s="2"/>
     </row>
@@ -8966,10 +9003,10 @@
         <v>46</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D384" s="2"/>
     </row>
@@ -8978,10 +9015,10 @@
         <v>46</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D385" s="2"/>
     </row>
@@ -8990,10 +9027,10 @@
         <v>46</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D386" s="2"/>
     </row>
@@ -9002,10 +9039,10 @@
         <v>46</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D387" s="2"/>
     </row>
@@ -9014,10 +9051,10 @@
         <v>46</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D388" s="2"/>
     </row>
@@ -9026,10 +9063,10 @@
         <v>46</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -9038,10 +9075,10 @@
         <v>46</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D390" s="2"/>
     </row>
@@ -9050,10 +9087,10 @@
         <v>46</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D391" s="2"/>
     </row>
@@ -9062,10 +9099,10 @@
         <v>46</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D392" s="2"/>
     </row>
@@ -9074,10 +9111,10 @@
         <v>46</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D393" s="2"/>
     </row>
@@ -9086,22 +9123,24 @@
         <v>46</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="D394" s="2"/>
+        <v>894</v>
+      </c>
+      <c r="D394" t="s" s="2">
+        <v>895</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D395" s="2"/>
     </row>
@@ -9110,10 +9149,10 @@
         <v>46</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D396" s="2"/>
     </row>
@@ -9122,10 +9161,10 @@
         <v>46</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -9134,13 +9173,13 @@
         <v>46</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="399">
@@ -9148,10 +9187,10 @@
         <v>46</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -9160,10 +9199,10 @@
         <v>46</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -9172,10 +9211,10 @@
         <v>46</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D401" s="2"/>
     </row>
@@ -9184,10 +9223,10 @@
         <v>46</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D402" s="2"/>
     </row>
@@ -9196,10 +9235,10 @@
         <v>46</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D403" s="2"/>
     </row>
@@ -9208,10 +9247,10 @@
         <v>46</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D404" s="2"/>
     </row>
@@ -9220,13 +9259,13 @@
         <v>46</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="406">
@@ -9234,10 +9273,10 @@
         <v>46</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D406" s="2"/>
     </row>
@@ -9246,10 +9285,10 @@
         <v>46</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D407" s="2"/>
     </row>
@@ -9258,10 +9297,10 @@
         <v>46</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -9270,10 +9309,10 @@
         <v>46</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D409" s="2"/>
     </row>
@@ -9282,13 +9321,13 @@
         <v>46</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="411">
@@ -9296,13 +9335,13 @@
         <v>46</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="412">
@@ -9310,10 +9349,10 @@
         <v>46</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D412" s="2"/>
     </row>
@@ -9322,10 +9361,10 @@
         <v>46</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D413" s="2"/>
     </row>
@@ -9334,10 +9373,10 @@
         <v>46</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -9346,10 +9385,10 @@
         <v>46</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -9358,10 +9397,10 @@
         <v>46</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D416" s="2"/>
     </row>
@@ -9370,10 +9409,10 @@
         <v>46</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D417" s="2"/>
     </row>
@@ -9382,10 +9421,10 @@
         <v>46</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -9394,10 +9433,10 @@
         <v>46</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D419" s="2"/>
     </row>
@@ -9406,10 +9445,10 @@
         <v>46</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D420" s="2"/>
     </row>
@@ -9418,10 +9457,10 @@
         <v>46</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D421" s="2"/>
     </row>
@@ -9430,10 +9469,10 @@
         <v>46</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D422" s="2"/>
     </row>
@@ -9442,10 +9481,10 @@
         <v>46</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D423" s="2"/>
     </row>
@@ -9454,10 +9493,10 @@
         <v>46</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D424" s="2"/>
     </row>
@@ -9466,10 +9505,10 @@
         <v>46</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D425" s="2"/>
     </row>
@@ -9478,10 +9517,10 @@
         <v>46</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D426" s="2"/>
     </row>
@@ -9490,10 +9529,10 @@
         <v>46</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D427" s="2"/>
     </row>
@@ -9502,10 +9541,10 @@
         <v>46</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D428" s="2"/>
     </row>
@@ -9514,10 +9553,10 @@
         <v>46</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D429" s="2"/>
     </row>
@@ -9526,10 +9565,10 @@
         <v>46</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D430" s="2"/>
     </row>
@@ -9538,10 +9577,10 @@
         <v>46</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D431" s="2"/>
     </row>
@@ -9550,10 +9589,10 @@
         <v>46</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D432" s="2"/>
     </row>
@@ -9562,10 +9601,10 @@
         <v>46</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D433" s="2"/>
     </row>
@@ -9574,10 +9613,10 @@
         <v>46</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D434" s="2"/>
     </row>
@@ -9586,13 +9625,13 @@
         <v>46</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="436">
@@ -9600,13 +9639,13 @@
         <v>46</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="437">
@@ -9614,10 +9653,10 @@
         <v>46</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D437" s="2"/>
     </row>
@@ -9626,13 +9665,13 @@
         <v>46</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="439">
@@ -9640,10 +9679,10 @@
         <v>46</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -9652,13 +9691,13 @@
         <v>46</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="441">
@@ -9666,13 +9705,13 @@
         <v>46</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="442">
@@ -9680,13 +9719,13 @@
         <v>46</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="443">
@@ -9694,13 +9733,13 @@
         <v>46</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="444">
@@ -9708,13 +9747,13 @@
         <v>46</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="445">
@@ -9722,13 +9761,13 @@
         <v>46</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="446">
@@ -9736,13 +9775,13 @@
         <v>46</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="447">
@@ -9750,13 +9789,13 @@
         <v>46</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="448">
@@ -9764,13 +9803,13 @@
         <v>46</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="449">
@@ -9778,13 +9817,13 @@
         <v>46</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="450">
@@ -9792,13 +9831,13 @@
         <v>46</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="451">
@@ -9806,13 +9845,13 @@
         <v>46</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="452">
@@ -9820,13 +9859,13 @@
         <v>46</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="453">
@@ -9834,13 +9873,13 @@
         <v>46</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="454">
@@ -9848,10 +9887,10 @@
         <v>46</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D454" s="2"/>
     </row>
@@ -9860,13 +9899,13 @@
         <v>46</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="456">
@@ -9874,13 +9913,13 @@
         <v>46</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="457">
@@ -9888,13 +9927,13 @@
         <v>46</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="458">
@@ -9902,10 +9941,10 @@
         <v>46</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D458" s="2"/>
     </row>
@@ -9914,13 +9953,13 @@
         <v>46</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="460">
@@ -9928,13 +9967,13 @@
         <v>46</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="461">
@@ -9942,13 +9981,13 @@
         <v>46</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="462">
@@ -9956,13 +9995,13 @@
         <v>46</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="463">
@@ -9970,13 +10009,13 @@
         <v>46</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="464">
@@ -9984,13 +10023,13 @@
         <v>46</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="465">
@@ -9998,13 +10037,13 @@
         <v>46</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466">
@@ -10012,13 +10051,13 @@
         <v>46</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="467">
@@ -10026,13 +10065,13 @@
         <v>46</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="468">
@@ -10040,13 +10079,13 @@
         <v>46</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="469">
@@ -10054,13 +10093,13 @@
         <v>46</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="470">
@@ -10068,13 +10107,13 @@
         <v>46</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="471">
@@ -10082,13 +10121,13 @@
         <v>46</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="472">
@@ -10096,13 +10135,13 @@
         <v>46</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="473">
@@ -10110,13 +10149,13 @@
         <v>46</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="474">
@@ -10124,13 +10163,13 @@
         <v>46</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="475">
@@ -10138,13 +10177,13 @@
         <v>46</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="476">
@@ -10152,13 +10191,13 @@
         <v>46</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="477">
@@ -10166,13 +10205,13 @@
         <v>46</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="478">
@@ -10180,13 +10219,13 @@
         <v>46</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="479">
@@ -10194,13 +10233,13 @@
         <v>46</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="480">
@@ -10208,13 +10247,13 @@
         <v>46</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D480" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="481">
@@ -10222,13 +10261,13 @@
         <v>46</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D481" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="482">
@@ -10236,13 +10275,13 @@
         <v>46</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="483">
@@ -10250,13 +10289,13 @@
         <v>46</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D483" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="484">
@@ -10264,13 +10303,13 @@
         <v>46</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D484" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="485">
@@ -10278,13 +10317,13 @@
         <v>46</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="486">
@@ -10292,13 +10331,13 @@
         <v>46</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D486" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="487">
@@ -10306,13 +10345,13 @@
         <v>46</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D487" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="488">
@@ -10320,13 +10359,13 @@
         <v>46</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D488" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="489">
@@ -10334,13 +10373,13 @@
         <v>46</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D489" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="490">
@@ -10348,13 +10387,13 @@
         <v>46</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="491">
@@ -10362,13 +10401,13 @@
         <v>46</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D491" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="492">
@@ -10376,10 +10415,10 @@
         <v>46</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D492" s="2"/>
     </row>
@@ -10388,13 +10427,13 @@
         <v>46</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="494">
@@ -10402,13 +10441,13 @@
         <v>46</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="495">
@@ -10416,13 +10455,13 @@
         <v>46</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="496">
@@ -10430,13 +10469,13 @@
         <v>46</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D496" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="497">
@@ -10444,13 +10483,13 @@
         <v>46</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D497" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="498">
@@ -10458,13 +10497,13 @@
         <v>46</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="499">
@@ -10472,13 +10511,13 @@
         <v>46</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D499" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="500">
@@ -10486,10 +10525,10 @@
         <v>46</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D500" s="2"/>
     </row>
@@ -10498,13 +10537,13 @@
         <v>46</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D501" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="502">
@@ -10512,13 +10551,13 @@
         <v>46</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="503">
@@ -10526,13 +10565,13 @@
         <v>46</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D503" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="504">
@@ -10540,13 +10579,13 @@
         <v>46</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D504" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="505">
@@ -10554,13 +10593,13 @@
         <v>46</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="506">
@@ -10568,13 +10607,13 @@
         <v>46</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D506" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="507">
@@ -10582,13 +10621,13 @@
         <v>46</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D507" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="508">
@@ -10596,13 +10635,13 @@
         <v>46</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D508" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="509">
@@ -10610,13 +10649,13 @@
         <v>46</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="510">
@@ -10624,13 +10663,13 @@
         <v>46</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D510" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="511">
@@ -10638,13 +10677,13 @@
         <v>46</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D511" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="512">
@@ -10652,13 +10691,13 @@
         <v>46</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D512" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="513">
@@ -10666,13 +10705,13 @@
         <v>46</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D513" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="514">
@@ -10680,10 +10719,10 @@
         <v>46</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D514" s="2"/>
     </row>
@@ -10692,10 +10731,10 @@
         <v>46</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D515" s="2"/>
     </row>
@@ -10704,10 +10743,10 @@
         <v>46</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D516" s="2"/>
     </row>
@@ -10716,10 +10755,10 @@
         <v>46</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D517" s="2"/>
     </row>
@@ -10728,10 +10767,10 @@
         <v>46</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D518" s="2"/>
     </row>
@@ -10740,10 +10779,10 @@
         <v>46</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D519" s="2"/>
     </row>
@@ -10752,13 +10791,13 @@
         <v>46</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D520" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="521">
@@ -10766,13 +10805,13 @@
         <v>46</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D521" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="522">
@@ -10780,10 +10819,10 @@
         <v>46</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D522" s="2"/>
     </row>
@@ -10792,13 +10831,13 @@
         <v>46</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D523" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="524">
@@ -10806,10 +10845,10 @@
         <v>46</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D524" s="2"/>
     </row>
@@ -10818,10 +10857,10 @@
         <v>46</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D525" s="2"/>
     </row>
@@ -10830,10 +10869,10 @@
         <v>46</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D526" s="2"/>
     </row>
@@ -10842,10 +10881,10 @@
         <v>46</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D527" s="2"/>
     </row>
@@ -10854,13 +10893,13 @@
         <v>46</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D528" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="529">
@@ -10868,13 +10907,13 @@
         <v>46</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="530">
@@ -10882,13 +10921,13 @@
         <v>46</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D530" t="s" s="2">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="531">
@@ -10896,13 +10935,13 @@
         <v>46</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="532">
@@ -10910,13 +10949,13 @@
         <v>46</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="533">
@@ -10924,13 +10963,13 @@
         <v>46</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="534">
@@ -10938,10 +10977,10 @@
         <v>46</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D534" s="2"/>
     </row>
@@ -10950,10 +10989,10 @@
         <v>46</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D535" s="2"/>
     </row>
@@ -10962,13 +11001,13 @@
         <v>46</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D536" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="537">
@@ -10976,13 +11015,13 @@
         <v>46</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D537" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="538">
@@ -10990,13 +11029,13 @@
         <v>46</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="539">
@@ -11004,13 +11043,13 @@
         <v>46</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="540">
@@ -11018,13 +11057,13 @@
         <v>46</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="541">
@@ -11032,13 +11071,13 @@
         <v>46</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="542">
@@ -11046,13 +11085,13 @@
         <v>46</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="543">
@@ -11060,13 +11099,13 @@
         <v>46</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="544">
@@ -11074,13 +11113,13 @@
         <v>46</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="545">
@@ -11088,13 +11127,13 @@
         <v>46</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="546">
@@ -11102,12 +11141,62 @@
         <v>46</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D546" s="2"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B547" t="s" s="2">
+        <v>1282</v>
+      </c>
+      <c r="C547" t="s" s="2">
+        <v>1283</v>
+      </c>
+      <c r="D547" s="2"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B548" t="s" s="2">
+        <v>1284</v>
+      </c>
+      <c r="C548" t="s" s="2">
+        <v>1285</v>
+      </c>
+      <c r="D548" s="2"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B549" t="s" s="2">
+        <v>1286</v>
+      </c>
+      <c r="C549" t="s" s="2">
+        <v>1287</v>
+      </c>
+      <c r="D549" s="2"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B550" t="s" s="2">
+        <v>1288</v>
+      </c>
+      <c r="C550" t="s" s="2">
+        <v>1289</v>
+      </c>
+      <c r="D550" t="s" s="2">
+        <v>1290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1293">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -4020,7 +4026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4126,63 +4132,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4199,52 +4213,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4262,6940 +4276,6940 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D232" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C236" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="D236" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="D236" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D237" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D238" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D283" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C459" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="D459" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="D459" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D480" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D481" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D483" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D484" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D486" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D487" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D488" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D489" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D491" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D496" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D497" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D499" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D501" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D503" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D504" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D506" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D507" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D508" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D510" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D511" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D512" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D513" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D520" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D521" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D523" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D528" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="D530" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D536" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D537" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1314">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1477,7 +1477,7 @@
     <t>201</t>
   </si>
   <si>
-    <t>Podologie</t>
+    <t>Pédicure-Podologie</t>
   </si>
   <si>
     <t>Discipline paramédicale qualifiée pour traiter directement les affections épidermiques, limitées aux couches cornées et aux affections unguéales du pied, à l'exclusion de toute intervention chirurgicale, pour pratiquer les soins d'hygiène, pour confectionner et appliquer des semelles destinées à prévenir ou à soulager les affections épidermiques, pour analyser et évaluer les troubles morphostatiques et dynamiques du pied et élaborer un diagnostic de pédicurie-podologie en tenant compte de la statique et de la dynamique du pied, pour renouveler les prescriptions médicales initiales d'orthèses plantaires.</t>
@@ -2035,6 +2035,9 @@
     <t>Soins de nursing lourds</t>
   </si>
   <si>
+    <t>Ensemble des soins de nursing réalisés par un(e) infirmier(e) diplômée d'état (IDE) qui concernent l'hygiène de l'usager.</t>
+  </si>
+  <si>
     <t>289</t>
   </si>
   <si>
@@ -2716,6 +2719,9 @@
     <t>Aide au répit (relayage)</t>
   </si>
   <si>
+    <t>Ensemble des actes et accompagnements réalisés par des professionnels formés permettant la mise en oeuvre de prestations de suppléance à domicile du proche aidant avec une présence humaine 24h/24h sur une période donnée.</t>
+  </si>
+  <si>
     <t>395</t>
   </si>
   <si>
@@ -3130,7 +3136,7 @@
     <t>453</t>
   </si>
   <si>
-    <t>Médecine de l'adolescent</t>
+    <t>Médecine et santé de l'adolescent</t>
   </si>
   <si>
     <t>454</t>
@@ -3874,6 +3880,9 @@
     <t>Exploration et prise en charge de la dénutrition</t>
   </si>
   <si>
+    <t>Diagnostic et prise en charge d'un état d'un organisme en déséquilibre nutritionnel », le déséquilibre étant caractérisé par un bilan énergétique et/ou protéique négatif soit par un déficit d'apport isolé, une augmentation des dépenses ou des pertes, soit une association d'un déficit d'apport avec une augmentation des dépenses ou des pertes.</t>
+  </si>
+  <si>
     <t>547</t>
   </si>
   <si>
@@ -3883,7 +3892,7 @@
     <t>548</t>
   </si>
   <si>
-    <t>Coordination renforcée (dont Care Management)</t>
+    <t>Coordination de parcours (Care management)</t>
   </si>
   <si>
     <t>549</t>
@@ -3893,6 +3902,60 @@
   </si>
   <si>
     <t>Branche médicale, exercée par des médecins nutritionnistes qui analyse les rapports entre les aliments et la santé, elle est axée sur l'assimilation et la transformation par le corps des nutriments en vue de leur utilisation métabolique.</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Accompagnement puériculteur à la périnatalité</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>Génétique chromosomique</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Génétique moléculaire</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>Suivi socio-éducatif</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>Promotion de la santé de l'enfant</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Soins infirmiers en onco-hématologie</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Soins infirmiers en puériculture</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>Suivi du développement de l'enfant</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>Ergothérapie</t>
   </si>
 </sst>
 </file>
@@ -4268,7 +4331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D550"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7850,17 +7913,19 @@
       <c r="C289" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="D289" s="2"/>
+      <c r="D289" t="s" s="2">
+        <v>673</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D290" s="2"/>
     </row>
@@ -7869,13 +7934,13 @@
         <v>48</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="292">
@@ -7883,13 +7948,13 @@
         <v>48</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="293">
@@ -7897,13 +7962,13 @@
         <v>48</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="294">
@@ -7911,10 +7976,10 @@
         <v>48</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -7923,10 +7988,10 @@
         <v>48</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -7935,10 +8000,10 @@
         <v>48</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -7947,10 +8012,10 @@
         <v>48</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -7959,10 +8024,10 @@
         <v>48</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -7971,10 +8036,10 @@
         <v>48</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D299" s="2"/>
     </row>
@@ -7983,10 +8048,10 @@
         <v>48</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -7995,10 +8060,10 @@
         <v>48</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D301" s="2"/>
     </row>
@@ -8007,10 +8072,10 @@
         <v>48</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D302" s="2"/>
     </row>
@@ -8019,13 +8084,13 @@
         <v>48</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="304">
@@ -8033,10 +8098,10 @@
         <v>48</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -8045,10 +8110,10 @@
         <v>48</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -8057,10 +8122,10 @@
         <v>48</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -8069,10 +8134,10 @@
         <v>48</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D307" s="2"/>
     </row>
@@ -8081,10 +8146,10 @@
         <v>48</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D308" s="2"/>
     </row>
@@ -8093,10 +8158,10 @@
         <v>48</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -8105,10 +8170,10 @@
         <v>48</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -8117,10 +8182,10 @@
         <v>48</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D311" s="2"/>
     </row>
@@ -8129,10 +8194,10 @@
         <v>48</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D312" s="2"/>
     </row>
@@ -8141,13 +8206,13 @@
         <v>48</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="314">
@@ -8155,13 +8220,13 @@
         <v>48</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="315">
@@ -8169,10 +8234,10 @@
         <v>48</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D315" s="2"/>
     </row>
@@ -8181,10 +8246,10 @@
         <v>48</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D316" s="2"/>
     </row>
@@ -8193,10 +8258,10 @@
         <v>48</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D317" s="2"/>
     </row>
@@ -8205,10 +8270,10 @@
         <v>48</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -8217,10 +8282,10 @@
         <v>48</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -8229,10 +8294,10 @@
         <v>48</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -8241,10 +8306,10 @@
         <v>48</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D321" s="2"/>
     </row>
@@ -8253,10 +8318,10 @@
         <v>48</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D322" s="2"/>
     </row>
@@ -8265,10 +8330,10 @@
         <v>48</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D323" s="2"/>
     </row>
@@ -8277,10 +8342,10 @@
         <v>48</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D324" s="2"/>
     </row>
@@ -8289,10 +8354,10 @@
         <v>48</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D325" s="2"/>
     </row>
@@ -8301,13 +8366,13 @@
         <v>48</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="327">
@@ -8315,10 +8380,10 @@
         <v>48</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D327" s="2"/>
     </row>
@@ -8327,10 +8392,10 @@
         <v>48</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -8339,10 +8404,10 @@
         <v>48</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D329" s="2"/>
     </row>
@@ -8351,10 +8416,10 @@
         <v>48</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D330" s="2"/>
     </row>
@@ -8363,10 +8428,10 @@
         <v>48</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -8375,10 +8440,10 @@
         <v>48</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -8387,10 +8452,10 @@
         <v>48</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D333" s="2"/>
     </row>
@@ -8399,10 +8464,10 @@
         <v>48</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D334" s="2"/>
     </row>
@@ -8411,13 +8476,13 @@
         <v>48</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="336">
@@ -8425,13 +8490,13 @@
         <v>48</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="337">
@@ -8439,10 +8504,10 @@
         <v>48</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D337" s="2"/>
     </row>
@@ -8451,10 +8516,10 @@
         <v>48</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D338" s="2"/>
     </row>
@@ -8463,13 +8528,13 @@
         <v>48</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="340">
@@ -8477,13 +8542,13 @@
         <v>48</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="341">
@@ -8491,13 +8556,13 @@
         <v>48</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="342">
@@ -8505,10 +8570,10 @@
         <v>48</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D342" s="2"/>
     </row>
@@ -8517,10 +8582,10 @@
         <v>48</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D343" s="2"/>
     </row>
@@ -8529,10 +8594,10 @@
         <v>48</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D344" s="2"/>
     </row>
@@ -8541,10 +8606,10 @@
         <v>48</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D345" s="2"/>
     </row>
@@ -8553,10 +8618,10 @@
         <v>48</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D346" s="2"/>
     </row>
@@ -8565,10 +8630,10 @@
         <v>48</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D347" s="2"/>
     </row>
@@ -8577,13 +8642,13 @@
         <v>48</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="349">
@@ -8591,10 +8656,10 @@
         <v>48</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D349" s="2"/>
     </row>
@@ -8603,13 +8668,13 @@
         <v>48</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="351">
@@ -8617,10 +8682,10 @@
         <v>48</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D351" s="2"/>
     </row>
@@ -8629,10 +8694,10 @@
         <v>48</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D352" s="2"/>
     </row>
@@ -8641,10 +8706,10 @@
         <v>48</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -8653,10 +8718,10 @@
         <v>48</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -8665,10 +8730,10 @@
         <v>48</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D355" s="2"/>
     </row>
@@ -8677,10 +8742,10 @@
         <v>48</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D356" s="2"/>
     </row>
@@ -8689,10 +8754,10 @@
         <v>48</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D357" s="2"/>
     </row>
@@ -8701,10 +8766,10 @@
         <v>48</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D358" s="2"/>
     </row>
@@ -8713,10 +8778,10 @@
         <v>48</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D359" s="2"/>
     </row>
@@ -8725,10 +8790,10 @@
         <v>48</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D360" s="2"/>
     </row>
@@ -8737,10 +8802,10 @@
         <v>48</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D361" s="2"/>
     </row>
@@ -8749,13 +8814,13 @@
         <v>48</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="363">
@@ -8763,10 +8828,10 @@
         <v>48</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D363" s="2"/>
     </row>
@@ -8775,10 +8840,10 @@
         <v>48</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D364" s="2"/>
     </row>
@@ -8787,10 +8852,10 @@
         <v>48</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D365" s="2"/>
     </row>
@@ -8799,10 +8864,10 @@
         <v>48</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D366" s="2"/>
     </row>
@@ -8811,10 +8876,10 @@
         <v>48</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D367" s="2"/>
     </row>
@@ -8823,13 +8888,13 @@
         <v>48</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="369">
@@ -8837,10 +8902,10 @@
         <v>48</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D369" s="2"/>
     </row>
@@ -8849,10 +8914,10 @@
         <v>48</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D370" s="2"/>
     </row>
@@ -8861,10 +8926,10 @@
         <v>48</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D371" s="2"/>
     </row>
@@ -8873,10 +8938,10 @@
         <v>48</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -8885,10 +8950,10 @@
         <v>48</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D373" s="2"/>
     </row>
@@ -8897,10 +8962,10 @@
         <v>48</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D374" s="2"/>
     </row>
@@ -8909,10 +8974,10 @@
         <v>48</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -8921,10 +8986,10 @@
         <v>48</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -8933,10 +8998,10 @@
         <v>48</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D377" s="2"/>
     </row>
@@ -8945,10 +9010,10 @@
         <v>48</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D378" s="2"/>
     </row>
@@ -8957,10 +9022,10 @@
         <v>48</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D379" s="2"/>
     </row>
@@ -8969,10 +9034,10 @@
         <v>48</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D380" s="2"/>
     </row>
@@ -8981,10 +9046,10 @@
         <v>48</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D381" s="2"/>
     </row>
@@ -8993,10 +9058,10 @@
         <v>48</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D382" s="2"/>
     </row>
@@ -9005,10 +9070,10 @@
         <v>48</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D383" s="2"/>
     </row>
@@ -9017,10 +9082,10 @@
         <v>48</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D384" s="2"/>
     </row>
@@ -9029,10 +9094,10 @@
         <v>48</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D385" s="2"/>
     </row>
@@ -9041,10 +9106,10 @@
         <v>48</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D386" s="2"/>
     </row>
@@ -9053,10 +9118,10 @@
         <v>48</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D387" s="2"/>
     </row>
@@ -9065,10 +9130,10 @@
         <v>48</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D388" s="2"/>
     </row>
@@ -9077,10 +9142,10 @@
         <v>48</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -9089,10 +9154,10 @@
         <v>48</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D390" s="2"/>
     </row>
@@ -9101,10 +9166,10 @@
         <v>48</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D391" s="2"/>
     </row>
@@ -9113,10 +9178,10 @@
         <v>48</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D392" s="2"/>
     </row>
@@ -9125,10 +9190,10 @@
         <v>48</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D393" s="2"/>
     </row>
@@ -9137,13 +9202,13 @@
         <v>48</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="395">
@@ -9151,22 +9216,24 @@
         <v>48</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="D395" s="2"/>
+        <v>900</v>
+      </c>
+      <c r="D395" t="s" s="2">
+        <v>901</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D396" s="2"/>
     </row>
@@ -9175,10 +9242,10 @@
         <v>48</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -9187,13 +9254,13 @@
         <v>48</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="399">
@@ -9201,10 +9268,10 @@
         <v>48</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -9213,10 +9280,10 @@
         <v>48</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -9225,10 +9292,10 @@
         <v>48</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D401" s="2"/>
     </row>
@@ -9237,10 +9304,10 @@
         <v>48</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D402" s="2"/>
     </row>
@@ -9249,10 +9316,10 @@
         <v>48</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D403" s="2"/>
     </row>
@@ -9261,10 +9328,10 @@
         <v>48</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D404" s="2"/>
     </row>
@@ -9273,13 +9340,13 @@
         <v>48</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="406">
@@ -9287,10 +9354,10 @@
         <v>48</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D406" s="2"/>
     </row>
@@ -9299,10 +9366,10 @@
         <v>48</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D407" s="2"/>
     </row>
@@ -9311,10 +9378,10 @@
         <v>48</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -9323,10 +9390,10 @@
         <v>48</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D409" s="2"/>
     </row>
@@ -9335,13 +9402,13 @@
         <v>48</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="411">
@@ -9349,13 +9416,13 @@
         <v>48</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="412">
@@ -9363,10 +9430,10 @@
         <v>48</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D412" s="2"/>
     </row>
@@ -9375,10 +9442,10 @@
         <v>48</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D413" s="2"/>
     </row>
@@ -9387,10 +9454,10 @@
         <v>48</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -9399,10 +9466,10 @@
         <v>48</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -9411,10 +9478,10 @@
         <v>48</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D416" s="2"/>
     </row>
@@ -9423,10 +9490,10 @@
         <v>48</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D417" s="2"/>
     </row>
@@ -9435,10 +9502,10 @@
         <v>48</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -9447,10 +9514,10 @@
         <v>48</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D419" s="2"/>
     </row>
@@ -9459,10 +9526,10 @@
         <v>48</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D420" s="2"/>
     </row>
@@ -9471,10 +9538,10 @@
         <v>48</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D421" s="2"/>
     </row>
@@ -9483,10 +9550,10 @@
         <v>48</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D422" s="2"/>
     </row>
@@ -9495,10 +9562,10 @@
         <v>48</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D423" s="2"/>
     </row>
@@ -9507,10 +9574,10 @@
         <v>48</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D424" s="2"/>
     </row>
@@ -9519,10 +9586,10 @@
         <v>48</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D425" s="2"/>
     </row>
@@ -9531,10 +9598,10 @@
         <v>48</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D426" s="2"/>
     </row>
@@ -9543,10 +9610,10 @@
         <v>48</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D427" s="2"/>
     </row>
@@ -9555,10 +9622,10 @@
         <v>48</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D428" s="2"/>
     </row>
@@ -9567,10 +9634,10 @@
         <v>48</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D429" s="2"/>
     </row>
@@ -9579,10 +9646,10 @@
         <v>48</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D430" s="2"/>
     </row>
@@ -9591,10 +9658,10 @@
         <v>48</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D431" s="2"/>
     </row>
@@ -9603,10 +9670,10 @@
         <v>48</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D432" s="2"/>
     </row>
@@ -9615,10 +9682,10 @@
         <v>48</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D433" s="2"/>
     </row>
@@ -9627,10 +9694,10 @@
         <v>48</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D434" s="2"/>
     </row>
@@ -9639,13 +9706,13 @@
         <v>48</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="436">
@@ -9653,13 +9720,13 @@
         <v>48</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="437">
@@ -9667,10 +9734,10 @@
         <v>48</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D437" s="2"/>
     </row>
@@ -9679,13 +9746,13 @@
         <v>48</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="439">
@@ -9693,10 +9760,10 @@
         <v>48</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -9705,13 +9772,13 @@
         <v>48</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="441">
@@ -9719,13 +9786,13 @@
         <v>48</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="442">
@@ -9733,13 +9800,13 @@
         <v>48</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="443">
@@ -9747,13 +9814,13 @@
         <v>48</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="444">
@@ -9761,13 +9828,13 @@
         <v>48</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="445">
@@ -9775,13 +9842,13 @@
         <v>48</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="446">
@@ -9789,13 +9856,13 @@
         <v>48</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="447">
@@ -9803,13 +9870,13 @@
         <v>48</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="448">
@@ -9817,13 +9884,13 @@
         <v>48</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="449">
@@ -9831,13 +9898,13 @@
         <v>48</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="450">
@@ -9845,13 +9912,13 @@
         <v>48</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="451">
@@ -9859,13 +9926,13 @@
         <v>48</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="452">
@@ -9873,13 +9940,13 @@
         <v>48</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="453">
@@ -9887,13 +9954,13 @@
         <v>48</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="454">
@@ -9901,10 +9968,10 @@
         <v>48</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D454" s="2"/>
     </row>
@@ -9913,13 +9980,13 @@
         <v>48</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="456">
@@ -9927,13 +9994,13 @@
         <v>48</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="457">
@@ -9941,13 +10008,13 @@
         <v>48</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>554</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="458">
@@ -9955,10 +10022,10 @@
         <v>48</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D458" s="2"/>
     </row>
@@ -9967,7 +10034,7 @@
         <v>48</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>560</v>
@@ -9981,7 +10048,7 @@
         <v>48</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>557</v>
@@ -9995,10 +10062,10 @@
         <v>48</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D461" t="s" s="2">
         <v>558</v>
@@ -10009,7 +10076,7 @@
         <v>48</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>566</v>
@@ -10023,7 +10090,7 @@
         <v>48</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>562</v>
@@ -10037,10 +10104,10 @@
         <v>48</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D464" t="s" s="2">
         <v>558</v>
@@ -10051,10 +10118,10 @@
         <v>48</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>558</v>
@@ -10065,10 +10132,10 @@
         <v>48</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D466" t="s" s="2">
         <v>558</v>
@@ -10079,13 +10146,13 @@
         <v>48</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="468">
@@ -10093,13 +10160,13 @@
         <v>48</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="469">
@@ -10107,13 +10174,13 @@
         <v>48</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="470">
@@ -10121,13 +10188,13 @@
         <v>48</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="471">
@@ -10135,13 +10202,13 @@
         <v>48</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="472">
@@ -10149,13 +10216,13 @@
         <v>48</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="473">
@@ -10163,13 +10230,13 @@
         <v>48</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="474">
@@ -10177,13 +10244,13 @@
         <v>48</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="475">
@@ -10191,13 +10258,13 @@
         <v>48</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="476">
@@ -10205,13 +10272,13 @@
         <v>48</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="477">
@@ -10219,13 +10286,13 @@
         <v>48</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="478">
@@ -10233,13 +10300,13 @@
         <v>48</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="479">
@@ -10247,13 +10314,13 @@
         <v>48</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="480">
@@ -10261,13 +10328,13 @@
         <v>48</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D480" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="481">
@@ -10275,13 +10342,13 @@
         <v>48</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D481" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="482">
@@ -10289,13 +10356,13 @@
         <v>48</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="483">
@@ -10303,13 +10370,13 @@
         <v>48</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D483" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="484">
@@ -10317,13 +10384,13 @@
         <v>48</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D484" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="485">
@@ -10331,13 +10398,13 @@
         <v>48</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="486">
@@ -10345,13 +10412,13 @@
         <v>48</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D486" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="487">
@@ -10359,13 +10426,13 @@
         <v>48</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D487" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="488">
@@ -10373,13 +10440,13 @@
         <v>48</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D488" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="489">
@@ -10387,13 +10454,13 @@
         <v>48</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D489" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="490">
@@ -10401,13 +10468,13 @@
         <v>48</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="491">
@@ -10415,13 +10482,13 @@
         <v>48</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D491" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="492">
@@ -10429,10 +10496,10 @@
         <v>48</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D492" s="2"/>
     </row>
@@ -10441,13 +10508,13 @@
         <v>48</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="494">
@@ -10455,13 +10522,13 @@
         <v>48</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="495">
@@ -10469,13 +10536,13 @@
         <v>48</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="496">
@@ -10483,13 +10550,13 @@
         <v>48</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D496" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="497">
@@ -10497,13 +10564,13 @@
         <v>48</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D497" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="498">
@@ -10511,13 +10578,13 @@
         <v>48</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="499">
@@ -10525,13 +10592,13 @@
         <v>48</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D499" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="500">
@@ -10539,10 +10606,10 @@
         <v>48</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D500" s="2"/>
     </row>
@@ -10551,13 +10618,13 @@
         <v>48</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="D501" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="502">
@@ -10565,13 +10632,13 @@
         <v>48</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="503">
@@ -10579,13 +10646,13 @@
         <v>48</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D503" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="504">
@@ -10593,13 +10660,13 @@
         <v>48</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D504" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="505">
@@ -10607,13 +10674,13 @@
         <v>48</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="506">
@@ -10621,13 +10688,13 @@
         <v>48</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D506" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="507">
@@ -10635,13 +10702,13 @@
         <v>48</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D507" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="508">
@@ -10649,13 +10716,13 @@
         <v>48</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D508" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="509">
@@ -10663,13 +10730,13 @@
         <v>48</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="510">
@@ -10677,13 +10744,13 @@
         <v>48</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D510" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="511">
@@ -10691,13 +10758,13 @@
         <v>48</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D511" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="512">
@@ -10705,13 +10772,13 @@
         <v>48</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D512" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="513">
@@ -10719,13 +10786,13 @@
         <v>48</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D513" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="514">
@@ -10733,10 +10800,10 @@
         <v>48</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D514" s="2"/>
     </row>
@@ -10745,10 +10812,10 @@
         <v>48</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D515" s="2"/>
     </row>
@@ -10757,10 +10824,10 @@
         <v>48</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D516" s="2"/>
     </row>
@@ -10769,10 +10836,10 @@
         <v>48</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D517" s="2"/>
     </row>
@@ -10781,10 +10848,10 @@
         <v>48</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D518" s="2"/>
     </row>
@@ -10793,10 +10860,10 @@
         <v>48</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D519" s="2"/>
     </row>
@@ -10805,13 +10872,13 @@
         <v>48</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D520" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="521">
@@ -10819,13 +10886,13 @@
         <v>48</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D521" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="522">
@@ -10833,10 +10900,10 @@
         <v>48</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D522" s="2"/>
     </row>
@@ -10845,13 +10912,13 @@
         <v>48</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D523" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="524">
@@ -10859,10 +10926,10 @@
         <v>48</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D524" s="2"/>
     </row>
@@ -10871,10 +10938,10 @@
         <v>48</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D525" s="2"/>
     </row>
@@ -10883,10 +10950,10 @@
         <v>48</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D526" s="2"/>
     </row>
@@ -10895,10 +10962,10 @@
         <v>48</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D527" s="2"/>
     </row>
@@ -10907,13 +10974,13 @@
         <v>48</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="D528" t="s" s="2">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="529">
@@ -10921,13 +10988,13 @@
         <v>48</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="530">
@@ -10935,13 +11002,13 @@
         <v>48</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D530" t="s" s="2">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="531">
@@ -10949,13 +11016,13 @@
         <v>48</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="532">
@@ -10963,13 +11030,13 @@
         <v>48</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="533">
@@ -10977,13 +11044,13 @@
         <v>48</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="534">
@@ -10991,10 +11058,10 @@
         <v>48</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D534" s="2"/>
     </row>
@@ -11003,10 +11070,10 @@
         <v>48</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D535" s="2"/>
     </row>
@@ -11015,13 +11082,13 @@
         <v>48</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="D536" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="537">
@@ -11029,13 +11096,13 @@
         <v>48</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D537" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="538">
@@ -11043,13 +11110,13 @@
         <v>48</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="539">
@@ -11057,13 +11124,13 @@
         <v>48</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="540">
@@ -11071,13 +11138,13 @@
         <v>48</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="541">
@@ -11085,13 +11152,13 @@
         <v>48</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="542">
@@ -11099,13 +11166,13 @@
         <v>48</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="543">
@@ -11113,13 +11180,13 @@
         <v>48</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="544">
@@ -11127,13 +11194,13 @@
         <v>48</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="545">
@@ -11141,13 +11208,13 @@
         <v>48</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="546">
@@ -11155,10 +11222,10 @@
         <v>48</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D546" s="2"/>
     </row>
@@ -11167,22 +11234,24 @@
         <v>48</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1285</v>
-      </c>
-      <c r="D547" s="2"/>
+        <v>1287</v>
+      </c>
+      <c r="D547" t="s" s="2">
+        <v>1288</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="D548" s="2"/>
     </row>
@@ -11191,10 +11260,10 @@
         <v>48</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D549" s="2"/>
     </row>
@@ -11203,14 +11272,122 @@
         <v>48</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1292</v>
-      </c>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B551" t="s" s="2">
+        <v>1296</v>
+      </c>
+      <c r="C551" t="s" s="2">
+        <v>1297</v>
+      </c>
+      <c r="D551" s="2"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B552" t="s" s="2">
+        <v>1298</v>
+      </c>
+      <c r="C552" t="s" s="2">
+        <v>1299</v>
+      </c>
+      <c r="D552" s="2"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B553" t="s" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C553" t="s" s="2">
+        <v>1301</v>
+      </c>
+      <c r="D553" s="2"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B554" t="s" s="2">
+        <v>1302</v>
+      </c>
+      <c r="C554" t="s" s="2">
+        <v>1303</v>
+      </c>
+      <c r="D554" s="2"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B555" t="s" s="2">
+        <v>1304</v>
+      </c>
+      <c r="C555" t="s" s="2">
+        <v>1305</v>
+      </c>
+      <c r="D555" s="2"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B556" t="s" s="2">
+        <v>1306</v>
+      </c>
+      <c r="C556" t="s" s="2">
+        <v>1307</v>
+      </c>
+      <c r="D556" s="2"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B557" t="s" s="2">
+        <v>1308</v>
+      </c>
+      <c r="C557" t="s" s="2">
+        <v>1309</v>
+      </c>
+      <c r="D557" s="2"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B558" t="s" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C558" t="s" s="2">
+        <v>1311</v>
+      </c>
+      <c r="D558" s="2"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B559" t="s" s="2">
+        <v>1312</v>
+      </c>
+      <c r="C559" t="s" s="2">
+        <v>1313</v>
+      </c>
+      <c r="D559" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1344">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2869,7 +2869,7 @@
     <t>417</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Neurologie</t>
+    <t>Kinésithérapie orientation Neurologie</t>
   </si>
   <si>
     <t>418</t>
@@ -2881,61 +2881,61 @@
     <t>419</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Respiratoire</t>
+    <t>Kinésithérapie orientation Respiratoire</t>
   </si>
   <si>
     <t>420</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Cardiologie</t>
+    <t>Kinésithérapie orientation Cardiologie</t>
   </si>
   <si>
     <t>421</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Périnéologie</t>
+    <t>Kinésithérapie orientation Pelvi-périnéologie</t>
   </si>
   <si>
     <t>422</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Vasculaire</t>
+    <t>Kinésithérapie orientation Vasculaire / Lymphatique</t>
   </si>
   <si>
     <t>423</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée ORL</t>
+    <t>Kinésithérapie orientation Troubles de l'équilibre</t>
   </si>
   <si>
     <t>424</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Rhumatologie</t>
+    <t>Kinésithérapie orientation Rhumatologie</t>
   </si>
   <si>
     <t>425</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Traumatologie</t>
+    <t>Kinésithérapie orientation Système musculo-squelettique</t>
   </si>
   <si>
     <t>426</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Dermatologie</t>
+    <t>Kinésithérapie orientation Lésions cutanées et cicatrices (dermatologie)</t>
   </si>
   <si>
     <t>427</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée du sport</t>
+    <t>Kinésithérapie orientation Sport</t>
   </si>
   <si>
     <t>428</t>
   </si>
   <si>
-    <t>Kinésithérapie Spécialisée Gériatrie</t>
+    <t>Kinésithérapie orientation Gériatrie (troubles liés à l'âge)</t>
   </si>
   <si>
     <t>429</t>
@@ -3937,7 +3937,7 @@
     <t>555</t>
   </si>
   <si>
-    <t>Soins infirmiers en onco-hématologie</t>
+    <t>Soins infirmiers orientation Onco-hématologie</t>
   </si>
   <si>
     <t>556</t>
@@ -3956,6 +3956,96 @@
   </si>
   <si>
     <t>Ergothérapie</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Fonctions sexuelles et de la reproduction</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Obésité complexe</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Cancérologie</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Pédiatrie</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Soins palliatifs</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Santé mentale</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Maxillo-faciale</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>Kinésithérapie orientation Gestion de la douleur</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Gestion de la douleur</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Santé mentale</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Cardiologie</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Respiratoire</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Soins palliatifs</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Neurologie</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>Soins infirmiers orientation Diabète</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +4421,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D559"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11389,6 +11479,186 @@
       </c>
       <c r="D559" s="2"/>
     </row>
+    <row r="560">
+      <c r="A560" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B560" t="s" s="2">
+        <v>1314</v>
+      </c>
+      <c r="C560" t="s" s="2">
+        <v>1315</v>
+      </c>
+      <c r="D560" s="2"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B561" t="s" s="2">
+        <v>1316</v>
+      </c>
+      <c r="C561" t="s" s="2">
+        <v>1317</v>
+      </c>
+      <c r="D561" s="2"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B562" t="s" s="2">
+        <v>1318</v>
+      </c>
+      <c r="C562" t="s" s="2">
+        <v>1319</v>
+      </c>
+      <c r="D562" s="2"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B563" t="s" s="2">
+        <v>1320</v>
+      </c>
+      <c r="C563" t="s" s="2">
+        <v>1321</v>
+      </c>
+      <c r="D563" s="2"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B564" t="s" s="2">
+        <v>1322</v>
+      </c>
+      <c r="C564" t="s" s="2">
+        <v>1323</v>
+      </c>
+      <c r="D564" s="2"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B565" t="s" s="2">
+        <v>1324</v>
+      </c>
+      <c r="C565" t="s" s="2">
+        <v>1325</v>
+      </c>
+      <c r="D565" s="2"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B566" t="s" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C566" t="s" s="2">
+        <v>1327</v>
+      </c>
+      <c r="D566" s="2"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B567" t="s" s="2">
+        <v>1328</v>
+      </c>
+      <c r="C567" t="s" s="2">
+        <v>1329</v>
+      </c>
+      <c r="D567" s="2"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B568" t="s" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C568" t="s" s="2">
+        <v>1331</v>
+      </c>
+      <c r="D568" s="2"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B569" t="s" s="2">
+        <v>1332</v>
+      </c>
+      <c r="C569" t="s" s="2">
+        <v>1333</v>
+      </c>
+      <c r="D569" s="2"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B570" t="s" s="2">
+        <v>1334</v>
+      </c>
+      <c r="C570" t="s" s="2">
+        <v>1335</v>
+      </c>
+      <c r="D570" s="2"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B571" t="s" s="2">
+        <v>1336</v>
+      </c>
+      <c r="C571" t="s" s="2">
+        <v>1337</v>
+      </c>
+      <c r="D571" s="2"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B572" t="s" s="2">
+        <v>1338</v>
+      </c>
+      <c r="C572" t="s" s="2">
+        <v>1339</v>
+      </c>
+      <c r="D572" s="2"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B573" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="C573" t="s" s="2">
+        <v>1341</v>
+      </c>
+      <c r="D573" s="2"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B574" t="s" s="2">
+        <v>1342</v>
+      </c>
+      <c r="C574" t="s" s="2">
+        <v>1343</v>
+      </c>
+      <c r="D574" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1350">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>Coordination hospitalière de prélèvement d'organes et de tissus</t>
   </si>
   <si>
+    <t>Equipe pluriprofessionnelle de professionnels de santé, ayant pour mission d'organiser et de coordonner les dons d'organes et de tissus, d'assurer le lien entre les différents acteurs de la chaîne de don, de garantir le respect des procédures et des bonnes pratiques légales éthiques et techniques, d'organiser la prise en charge du donneur et d'accompagner les proches tout au long du processus de don.</t>
+  </si>
+  <si>
     <t>036</t>
   </si>
   <si>
@@ -2107,6 +2110,9 @@
     <t>Accompagnements pour vivre dans un logement</t>
   </si>
   <si>
+    <t>Vise à l'appropriation et à la maîtrise du logement par la personne accompagnée pour qu'elle se constituer son « chez-soi ». Les publics visés sont les suivants : handicap, personnes âgées, protection de l'enfance et grande précarité.</t>
+  </si>
+  <si>
     <t>299</t>
   </si>
   <si>
@@ -2119,6 +2125,9 @@
     <t>Accompagnements à la scolarisation</t>
   </si>
   <si>
+    <t>L'accompagnement consiste à aider l'enfant à être acteur de sa scolarité et à l'accompagner en milieu ordinaire, encourager l'implication des parents dans la scolarité de l'enfant, identifier et développer les ressources de l'ESSMS pour accompagner collectivement les parcours scolaires, s'inscrire dans la communauté éducative par des missions d'appui-ressource.</t>
+  </si>
+  <si>
     <t>301</t>
   </si>
   <si>
@@ -2149,7 +2158,7 @@
     <t>305</t>
   </si>
   <si>
-    <t>Accompagnements dans l'activité professionnelle</t>
+    <t>Accompagnements pour mener sa vie professionnelle</t>
   </si>
   <si>
     <t>306</t>
@@ -2176,6 +2185,9 @@
     <t>Accompagnements à la vie affective et sexuelle</t>
   </si>
   <si>
+    <t>Information et accompagnements à la vie affective et sexuelle (inclut l'entretien contraception / pré-IVG etc.)</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
@@ -2257,7 +2269,10 @@
     <t>322</t>
   </si>
   <si>
-    <t>Prestation de restauration (dont portage de repas)</t>
+    <t>Prestation de restauration (dont portage de repas à domicile)</t>
+  </si>
+  <si>
+    <t>Service de préparation à domicile ou de livraison à domicile de repas, sur un territoire.</t>
   </si>
   <si>
     <t>323</t>
@@ -2390,6 +2405,9 @@
   </si>
   <si>
     <t>Coordination plan d'aide</t>
+  </si>
+  <si>
+    <t>Gestion et coordination de l'ensemble des services de soutien et de soins nécessaires pour aider une personne à vivre de manière autonome et à répondre à ses besoins quotidiens. Cela inclut la planification, la coordination des différents services et prestataires, et l'ajustement continu du plan en fonction des besoins changeants de la personne.</t>
   </si>
   <si>
     <t>342</t>
@@ -4869,17 +4887,19 @@
       <c r="C36" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -4888,10 +4908,10 @@
         <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -4900,10 +4920,10 @@
         <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -4912,10 +4932,10 @@
         <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -4924,13 +4944,13 @@
         <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
@@ -4938,10 +4958,10 @@
         <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -4950,10 +4970,10 @@
         <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -4962,10 +4982,10 @@
         <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -4974,13 +4994,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
@@ -4988,10 +5008,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -5000,10 +5020,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -5012,10 +5032,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -5024,10 +5044,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -5036,10 +5056,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -5048,10 +5068,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -5060,10 +5080,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -5072,10 +5092,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -5084,10 +5104,10 @@
         <v>48</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -5096,10 +5116,10 @@
         <v>48</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -5108,10 +5128,10 @@
         <v>48</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -5120,10 +5140,10 @@
         <v>48</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -5132,10 +5152,10 @@
         <v>48</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -5144,10 +5164,10 @@
         <v>48</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -5156,10 +5176,10 @@
         <v>48</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -5168,10 +5188,10 @@
         <v>48</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -5180,10 +5200,10 @@
         <v>48</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -5192,10 +5212,10 @@
         <v>48</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -5204,10 +5224,10 @@
         <v>48</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -5216,10 +5236,10 @@
         <v>48</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -5228,10 +5248,10 @@
         <v>48</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -5240,10 +5260,10 @@
         <v>48</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -5252,10 +5272,10 @@
         <v>48</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -5264,10 +5284,10 @@
         <v>48</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -5276,10 +5296,10 @@
         <v>48</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -5288,10 +5308,10 @@
         <v>48</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -5300,10 +5320,10 @@
         <v>48</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -5312,10 +5332,10 @@
         <v>48</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -5324,10 +5344,10 @@
         <v>48</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -5336,10 +5356,10 @@
         <v>48</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -5348,10 +5368,10 @@
         <v>48</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -5360,10 +5380,10 @@
         <v>48</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -5372,13 +5392,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79">
@@ -5386,10 +5406,10 @@
         <v>48</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -5398,10 +5418,10 @@
         <v>48</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -5410,10 +5430,10 @@
         <v>48</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -5422,10 +5442,10 @@
         <v>48</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -5434,10 +5454,10 @@
         <v>48</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -5446,10 +5466,10 @@
         <v>48</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -5458,13 +5478,13 @@
         <v>48</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
@@ -5472,13 +5492,13 @@
         <v>48</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
@@ -5486,10 +5506,10 @@
         <v>48</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -5498,10 +5518,10 @@
         <v>48</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -5510,10 +5530,10 @@
         <v>48</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -5522,10 +5542,10 @@
         <v>48</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -5534,10 +5554,10 @@
         <v>48</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -5546,10 +5566,10 @@
         <v>48</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -5558,10 +5578,10 @@
         <v>48</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -5570,10 +5590,10 @@
         <v>48</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -5582,10 +5602,10 @@
         <v>48</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -5594,10 +5614,10 @@
         <v>48</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -5606,10 +5626,10 @@
         <v>48</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -5618,10 +5638,10 @@
         <v>48</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -5630,10 +5650,10 @@
         <v>48</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -5642,13 +5662,13 @@
         <v>48</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101">
@@ -5656,10 +5676,10 @@
         <v>48</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -5668,13 +5688,13 @@
         <v>48</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103">
@@ -5682,13 +5702,13 @@
         <v>48</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104">
@@ -5696,10 +5716,10 @@
         <v>48</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -5708,13 +5728,13 @@
         <v>48</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
@@ -5722,13 +5742,13 @@
         <v>48</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107">
@@ -5736,13 +5756,13 @@
         <v>48</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108">
@@ -5750,10 +5770,10 @@
         <v>48</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -5762,10 +5782,10 @@
         <v>48</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -5774,10 +5794,10 @@
         <v>48</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D110" s="2"/>
     </row>
@@ -5786,10 +5806,10 @@
         <v>48</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -5798,10 +5818,10 @@
         <v>48</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -5810,10 +5830,10 @@
         <v>48</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -5822,10 +5842,10 @@
         <v>48</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -5834,10 +5854,10 @@
         <v>48</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -5846,10 +5866,10 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -5858,10 +5878,10 @@
         <v>48</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -5870,13 +5890,13 @@
         <v>48</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119">
@@ -5884,10 +5904,10 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -5896,10 +5916,10 @@
         <v>48</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -5908,10 +5928,10 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D121" s="2"/>
     </row>
@@ -5920,10 +5940,10 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D122" s="2"/>
     </row>
@@ -5932,10 +5952,10 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -5944,10 +5964,10 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -5956,10 +5976,10 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D125" s="2"/>
     </row>
@@ -5968,10 +5988,10 @@
         <v>48</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D126" s="2"/>
     </row>
@@ -5980,10 +6000,10 @@
         <v>48</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D127" s="2"/>
     </row>
@@ -5992,10 +6012,10 @@
         <v>48</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D128" s="2"/>
     </row>
@@ -6004,10 +6024,10 @@
         <v>48</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D129" s="2"/>
     </row>
@@ -6016,10 +6036,10 @@
         <v>48</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D130" s="2"/>
     </row>
@@ -6028,10 +6048,10 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D131" s="2"/>
     </row>
@@ -6040,10 +6060,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -6052,13 +6072,13 @@
         <v>48</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134">
@@ -6066,10 +6086,10 @@
         <v>48</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D134" s="2"/>
     </row>
@@ -6078,10 +6098,10 @@
         <v>48</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -6090,13 +6110,13 @@
         <v>48</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137">
@@ -6104,10 +6124,10 @@
         <v>48</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D137" s="2"/>
     </row>
@@ -6116,10 +6136,10 @@
         <v>48</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D138" s="2"/>
     </row>
@@ -6128,10 +6148,10 @@
         <v>48</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D139" s="2"/>
     </row>
@@ -6140,10 +6160,10 @@
         <v>48</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D140" s="2"/>
     </row>
@@ -6152,10 +6172,10 @@
         <v>48</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D141" s="2"/>
     </row>
@@ -6164,10 +6184,10 @@
         <v>48</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D142" s="2"/>
     </row>
@@ -6176,10 +6196,10 @@
         <v>48</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D143" s="2"/>
     </row>
@@ -6188,10 +6208,10 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D144" s="2"/>
     </row>
@@ -6200,10 +6220,10 @@
         <v>48</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D145" s="2"/>
     </row>
@@ -6212,10 +6232,10 @@
         <v>48</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D146" s="2"/>
     </row>
@@ -6224,10 +6244,10 @@
         <v>48</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D147" s="2"/>
     </row>
@@ -6236,10 +6256,10 @@
         <v>48</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D148" s="2"/>
     </row>
@@ -6248,10 +6268,10 @@
         <v>48</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D149" s="2"/>
     </row>
@@ -6260,10 +6280,10 @@
         <v>48</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D150" s="2"/>
     </row>
@@ -6272,10 +6292,10 @@
         <v>48</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D151" s="2"/>
     </row>
@@ -6284,10 +6304,10 @@
         <v>48</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -6296,10 +6316,10 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D153" s="2"/>
     </row>
@@ -6308,10 +6328,10 @@
         <v>48</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D154" s="2"/>
     </row>
@@ -6320,10 +6340,10 @@
         <v>48</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -6332,10 +6352,10 @@
         <v>48</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -6344,10 +6364,10 @@
         <v>48</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D157" s="2"/>
     </row>
@@ -6356,10 +6376,10 @@
         <v>48</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D158" s="2"/>
     </row>
@@ -6368,10 +6388,10 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D159" s="2"/>
     </row>
@@ -6380,10 +6400,10 @@
         <v>48</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D160" s="2"/>
     </row>
@@ -6392,10 +6412,10 @@
         <v>48</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D161" s="2"/>
     </row>
@@ -6404,10 +6424,10 @@
         <v>48</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D162" s="2"/>
     </row>
@@ -6416,10 +6436,10 @@
         <v>48</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D163" s="2"/>
     </row>
@@ -6428,10 +6448,10 @@
         <v>48</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D164" s="2"/>
     </row>
@@ -6440,13 +6460,13 @@
         <v>48</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166">
@@ -6454,10 +6474,10 @@
         <v>48</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D166" s="2"/>
     </row>
@@ -6466,10 +6486,10 @@
         <v>48</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D167" s="2"/>
     </row>
@@ -6478,10 +6498,10 @@
         <v>48</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D168" s="2"/>
     </row>
@@ -6490,13 +6510,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170">
@@ -6504,10 +6524,10 @@
         <v>48</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D170" s="2"/>
     </row>
@@ -6516,13 +6536,13 @@
         <v>48</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172">
@@ -6530,10 +6550,10 @@
         <v>48</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D172" s="2"/>
     </row>
@@ -6542,13 +6562,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174">
@@ -6556,10 +6576,10 @@
         <v>48</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -6568,10 +6588,10 @@
         <v>48</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D175" s="2"/>
     </row>
@@ -6580,10 +6600,10 @@
         <v>48</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -6592,10 +6612,10 @@
         <v>48</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -6604,7 +6624,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>107</v>
@@ -6616,13 +6636,13 @@
         <v>48</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="180">
@@ -6630,13 +6650,13 @@
         <v>48</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181">
@@ -6644,10 +6664,10 @@
         <v>48</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -6656,10 +6676,10 @@
         <v>48</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -6668,10 +6688,10 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -6680,10 +6700,10 @@
         <v>48</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -6692,10 +6712,10 @@
         <v>48</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -6704,10 +6724,10 @@
         <v>48</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -6716,13 +6736,13 @@
         <v>48</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="188">
@@ -6730,13 +6750,13 @@
         <v>48</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189">
@@ -6744,13 +6764,13 @@
         <v>48</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190">
@@ -6758,13 +6778,13 @@
         <v>48</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191">
@@ -6772,13 +6792,13 @@
         <v>48</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="192">
@@ -6786,13 +6806,13 @@
         <v>48</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193">
@@ -6800,13 +6820,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194">
@@ -6814,13 +6834,13 @@
         <v>48</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195">
@@ -6828,10 +6848,10 @@
         <v>48</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -6840,13 +6860,13 @@
         <v>48</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197">
@@ -6854,13 +6874,13 @@
         <v>48</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198">
@@ -6868,10 +6888,10 @@
         <v>48</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -6880,13 +6900,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200">
@@ -6894,13 +6914,13 @@
         <v>48</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201">
@@ -6908,13 +6928,13 @@
         <v>48</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202">
@@ -6922,13 +6942,13 @@
         <v>48</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="203">
@@ -6936,10 +6956,10 @@
         <v>48</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D203" s="2"/>
     </row>
@@ -6948,10 +6968,10 @@
         <v>48</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D204" s="2"/>
     </row>
@@ -6960,10 +6980,10 @@
         <v>48</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -6972,10 +6992,10 @@
         <v>48</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -6984,10 +7004,10 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -6996,10 +7016,10 @@
         <v>48</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -7008,10 +7028,10 @@
         <v>48</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -7020,10 +7040,10 @@
         <v>48</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -7032,10 +7052,10 @@
         <v>48</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -7044,10 +7064,10 @@
         <v>48</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -7056,10 +7076,10 @@
         <v>48</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -7068,10 +7088,10 @@
         <v>48</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -7080,10 +7100,10 @@
         <v>48</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -7092,10 +7112,10 @@
         <v>48</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -7104,10 +7124,10 @@
         <v>48</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -7116,10 +7136,10 @@
         <v>48</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -7128,10 +7148,10 @@
         <v>48</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -7140,10 +7160,10 @@
         <v>48</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -7152,10 +7172,10 @@
         <v>48</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D221" s="2"/>
     </row>
@@ -7164,10 +7184,10 @@
         <v>48</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D222" s="2"/>
     </row>
@@ -7176,10 +7196,10 @@
         <v>48</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D223" s="2"/>
     </row>
@@ -7188,10 +7208,10 @@
         <v>48</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D224" s="2"/>
     </row>
@@ -7200,10 +7220,10 @@
         <v>48</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -7212,10 +7232,10 @@
         <v>48</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D226" s="2"/>
     </row>
@@ -7224,13 +7244,13 @@
         <v>48</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="228">
@@ -7238,10 +7258,10 @@
         <v>48</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D228" s="2"/>
     </row>
@@ -7250,10 +7270,10 @@
         <v>48</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D229" s="2"/>
     </row>
@@ -7262,10 +7282,10 @@
         <v>48</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D230" s="2"/>
     </row>
@@ -7274,10 +7294,10 @@
         <v>48</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D231" s="2"/>
     </row>
@@ -7286,13 +7306,13 @@
         <v>48</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D232" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="233">
@@ -7300,10 +7320,10 @@
         <v>48</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D233" s="2"/>
     </row>
@@ -7312,13 +7332,13 @@
         <v>48</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="235">
@@ -7326,13 +7346,13 @@
         <v>48</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236">
@@ -7340,13 +7360,13 @@
         <v>48</v>
       </c>
       <c r="B236" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="D236" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="C236" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="D236" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="237">
@@ -7354,13 +7374,13 @@
         <v>48</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D237" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="238">
@@ -7368,13 +7388,13 @@
         <v>48</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D238" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239">
@@ -7382,10 +7402,10 @@
         <v>48</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D239" s="2"/>
     </row>
@@ -7394,13 +7414,13 @@
         <v>48</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="241">
@@ -7408,10 +7428,10 @@
         <v>48</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -7420,13 +7440,13 @@
         <v>48</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="243">
@@ -7434,10 +7454,10 @@
         <v>48</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D243" s="2"/>
     </row>
@@ -7446,13 +7466,13 @@
         <v>48</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245">
@@ -7460,10 +7480,10 @@
         <v>48</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D245" s="2"/>
     </row>
@@ -7472,13 +7492,13 @@
         <v>48</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="247">
@@ -7486,10 +7506,10 @@
         <v>48</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D247" s="2"/>
     </row>
@@ -7498,10 +7518,10 @@
         <v>48</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D248" s="2"/>
     </row>
@@ -7510,10 +7530,10 @@
         <v>48</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D249" s="2"/>
     </row>
@@ -7522,10 +7542,10 @@
         <v>48</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D250" s="2"/>
     </row>
@@ -7534,10 +7554,10 @@
         <v>48</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D251" s="2"/>
     </row>
@@ -7546,10 +7566,10 @@
         <v>48</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D252" s="2"/>
     </row>
@@ -7558,10 +7578,10 @@
         <v>48</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D253" s="2"/>
     </row>
@@ -7570,10 +7590,10 @@
         <v>48</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D254" s="2"/>
     </row>
@@ -7582,10 +7602,10 @@
         <v>48</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D255" s="2"/>
     </row>
@@ -7594,10 +7614,10 @@
         <v>48</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D256" s="2"/>
     </row>
@@ -7606,10 +7626,10 @@
         <v>48</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D257" s="2"/>
     </row>
@@ -7618,10 +7638,10 @@
         <v>48</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D258" s="2"/>
     </row>
@@ -7630,10 +7650,10 @@
         <v>48</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D259" s="2"/>
     </row>
@@ -7642,10 +7662,10 @@
         <v>48</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D260" s="2"/>
     </row>
@@ -7654,10 +7674,10 @@
         <v>48</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D261" s="2"/>
     </row>
@@ -7666,10 +7686,10 @@
         <v>48</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -7678,10 +7698,10 @@
         <v>48</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D263" s="2"/>
     </row>
@@ -7690,10 +7710,10 @@
         <v>48</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D264" s="2"/>
     </row>
@@ -7702,10 +7722,10 @@
         <v>48</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -7714,10 +7734,10 @@
         <v>48</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -7726,10 +7746,10 @@
         <v>48</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D267" s="2"/>
     </row>
@@ -7738,10 +7758,10 @@
         <v>48</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D268" s="2"/>
     </row>
@@ -7750,10 +7770,10 @@
         <v>48</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D269" s="2"/>
     </row>
@@ -7762,10 +7782,10 @@
         <v>48</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D270" s="2"/>
     </row>
@@ -7774,10 +7794,10 @@
         <v>48</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D271" s="2"/>
     </row>
@@ -7786,10 +7806,10 @@
         <v>48</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D272" s="2"/>
     </row>
@@ -7798,10 +7818,10 @@
         <v>48</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D273" s="2"/>
     </row>
@@ -7810,10 +7830,10 @@
         <v>48</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D274" s="2"/>
     </row>
@@ -7822,10 +7842,10 @@
         <v>48</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D275" s="2"/>
     </row>
@@ -7834,10 +7854,10 @@
         <v>48</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D276" s="2"/>
     </row>
@@ -7846,10 +7866,10 @@
         <v>48</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D277" s="2"/>
     </row>
@@ -7858,10 +7878,10 @@
         <v>48</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D278" s="2"/>
     </row>
@@ -7870,10 +7890,10 @@
         <v>48</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D279" s="2"/>
     </row>
@@ -7882,13 +7902,13 @@
         <v>48</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281">
@@ -7896,10 +7916,10 @@
         <v>48</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D281" s="2"/>
     </row>
@@ -7908,13 +7928,13 @@
         <v>48</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="283">
@@ -7922,13 +7942,13 @@
         <v>48</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D283" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="284">
@@ -7936,10 +7956,10 @@
         <v>48</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -7948,10 +7968,10 @@
         <v>48</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D285" s="2"/>
     </row>
@@ -7960,10 +7980,10 @@
         <v>48</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D286" s="2"/>
     </row>
@@ -7972,10 +7992,10 @@
         <v>48</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -7984,13 +8004,13 @@
         <v>48</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289">
@@ -7998,13 +8018,13 @@
         <v>48</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="290">
@@ -8012,10 +8032,10 @@
         <v>48</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D290" s="2"/>
     </row>
@@ -8024,13 +8044,13 @@
         <v>48</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="292">
@@ -8038,13 +8058,13 @@
         <v>48</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="293">
@@ -8052,13 +8072,13 @@
         <v>48</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="294">
@@ -8066,10 +8086,10 @@
         <v>48</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D294" s="2"/>
     </row>
@@ -8078,10 +8098,10 @@
         <v>48</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -8090,10 +8110,10 @@
         <v>48</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -8102,10 +8122,10 @@
         <v>48</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -8114,10 +8134,10 @@
         <v>48</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -8126,22 +8146,24 @@
         <v>48</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="D299" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="D299" t="s" s="2">
+        <v>698</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -8150,22 +8172,24 @@
         <v>48</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="D301" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>703</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D302" s="2"/>
     </row>
@@ -8174,13 +8198,13 @@
         <v>48</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="304">
@@ -8188,10 +8212,10 @@
         <v>48</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D304" s="2"/>
     </row>
@@ -8200,10 +8224,10 @@
         <v>48</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D305" s="2"/>
     </row>
@@ -8212,10 +8236,10 @@
         <v>48</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -8224,10 +8248,10 @@
         <v>48</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="D307" s="2"/>
     </row>
@@ -8236,10 +8260,10 @@
         <v>48</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D308" s="2"/>
     </row>
@@ -8248,10 +8272,10 @@
         <v>48</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -8260,22 +8284,24 @@
         <v>48</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="D310" s="2"/>
+        <v>722</v>
+      </c>
+      <c r="D310" t="s" s="2">
+        <v>723</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D311" s="2"/>
     </row>
@@ -8284,10 +8310,10 @@
         <v>48</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D312" s="2"/>
     </row>
@@ -8296,13 +8322,13 @@
         <v>48</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="314">
@@ -8310,13 +8336,13 @@
         <v>48</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="315">
@@ -8324,10 +8350,10 @@
         <v>48</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D315" s="2"/>
     </row>
@@ -8336,10 +8362,10 @@
         <v>48</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D316" s="2"/>
     </row>
@@ -8348,10 +8374,10 @@
         <v>48</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D317" s="2"/>
     </row>
@@ -8360,10 +8386,10 @@
         <v>48</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D318" s="2"/>
     </row>
@@ -8372,10 +8398,10 @@
         <v>48</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D319" s="2"/>
     </row>
@@ -8384,10 +8410,10 @@
         <v>48</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D320" s="2"/>
     </row>
@@ -8396,10 +8422,10 @@
         <v>48</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D321" s="2"/>
     </row>
@@ -8408,10 +8434,10 @@
         <v>48</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D322" s="2"/>
     </row>
@@ -8420,22 +8446,24 @@
         <v>48</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="D323" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D323" t="s" s="2">
+        <v>752</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D324" s="2"/>
     </row>
@@ -8444,10 +8472,10 @@
         <v>48</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D325" s="2"/>
     </row>
@@ -8456,13 +8484,13 @@
         <v>48</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="327">
@@ -8470,10 +8498,10 @@
         <v>48</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D327" s="2"/>
     </row>
@@ -8482,10 +8510,10 @@
         <v>48</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -8494,10 +8522,10 @@
         <v>48</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D329" s="2"/>
     </row>
@@ -8506,10 +8534,10 @@
         <v>48</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D330" s="2"/>
     </row>
@@ -8518,10 +8546,10 @@
         <v>48</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -8530,10 +8558,10 @@
         <v>48</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -8542,10 +8570,10 @@
         <v>48</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D333" s="2"/>
     </row>
@@ -8554,10 +8582,10 @@
         <v>48</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D334" s="2"/>
     </row>
@@ -8566,13 +8594,13 @@
         <v>48</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="336">
@@ -8580,13 +8608,13 @@
         <v>48</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="337">
@@ -8594,10 +8622,10 @@
         <v>48</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D337" s="2"/>
     </row>
@@ -8606,10 +8634,10 @@
         <v>48</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="D338" s="2"/>
     </row>
@@ -8618,13 +8646,13 @@
         <v>48</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="340">
@@ -8632,13 +8660,13 @@
         <v>48</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="341">
@@ -8646,13 +8674,13 @@
         <v>48</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="342">
@@ -8660,22 +8688,24 @@
         <v>48</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="D342" s="2"/>
+        <v>796</v>
+      </c>
+      <c r="D342" t="s" s="2">
+        <v>797</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D343" s="2"/>
     </row>
@@ -8684,10 +8714,10 @@
         <v>48</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D344" s="2"/>
     </row>
@@ -8696,10 +8726,10 @@
         <v>48</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D345" s="2"/>
     </row>
@@ -8708,10 +8738,10 @@
         <v>48</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D346" s="2"/>
     </row>
@@ -8720,10 +8750,10 @@
         <v>48</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D347" s="2"/>
     </row>
@@ -8732,13 +8762,13 @@
         <v>48</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="349">
@@ -8746,10 +8776,10 @@
         <v>48</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D349" s="2"/>
     </row>
@@ -8758,13 +8788,13 @@
         <v>48</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="351">
@@ -8772,10 +8802,10 @@
         <v>48</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D351" s="2"/>
     </row>
@@ -8784,10 +8814,10 @@
         <v>48</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D352" s="2"/>
     </row>
@@ -8796,10 +8826,10 @@
         <v>48</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -8808,10 +8838,10 @@
         <v>48</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -8820,10 +8850,10 @@
         <v>48</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D355" s="2"/>
     </row>
@@ -8832,10 +8862,10 @@
         <v>48</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="D356" s="2"/>
     </row>
@@ -8844,10 +8874,10 @@
         <v>48</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="D357" s="2"/>
     </row>
@@ -8856,10 +8886,10 @@
         <v>48</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D358" s="2"/>
     </row>
@@ -8868,10 +8898,10 @@
         <v>48</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D359" s="2"/>
     </row>
@@ -8880,10 +8910,10 @@
         <v>48</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D360" s="2"/>
     </row>
@@ -8892,10 +8922,10 @@
         <v>48</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D361" s="2"/>
     </row>
@@ -8904,13 +8934,13 @@
         <v>48</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="363">
@@ -8918,10 +8948,10 @@
         <v>48</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="D363" s="2"/>
     </row>
@@ -8930,10 +8960,10 @@
         <v>48</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D364" s="2"/>
     </row>
@@ -8942,10 +8972,10 @@
         <v>48</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D365" s="2"/>
     </row>
@@ -8954,10 +8984,10 @@
         <v>48</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D366" s="2"/>
     </row>
@@ -8966,10 +8996,10 @@
         <v>48</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D367" s="2"/>
     </row>
@@ -8978,13 +9008,13 @@
         <v>48</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="369">
@@ -8992,10 +9022,10 @@
         <v>48</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D369" s="2"/>
     </row>
@@ -9004,10 +9034,10 @@
         <v>48</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D370" s="2"/>
     </row>
@@ -9016,10 +9046,10 @@
         <v>48</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D371" s="2"/>
     </row>
@@ -9028,10 +9058,10 @@
         <v>48</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -9040,10 +9070,10 @@
         <v>48</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D373" s="2"/>
     </row>
@@ -9052,10 +9082,10 @@
         <v>48</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="D374" s="2"/>
     </row>
@@ -9064,10 +9094,10 @@
         <v>48</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -9076,10 +9106,10 @@
         <v>48</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -9088,10 +9118,10 @@
         <v>48</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D377" s="2"/>
     </row>
@@ -9100,10 +9130,10 @@
         <v>48</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D378" s="2"/>
     </row>
@@ -9112,10 +9142,10 @@
         <v>48</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="D379" s="2"/>
     </row>
@@ -9124,10 +9154,10 @@
         <v>48</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D380" s="2"/>
     </row>
@@ -9136,10 +9166,10 @@
         <v>48</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D381" s="2"/>
     </row>
@@ -9148,10 +9178,10 @@
         <v>48</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D382" s="2"/>
     </row>
@@ -9160,10 +9190,10 @@
         <v>48</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="D383" s="2"/>
     </row>
@@ -9172,10 +9202,10 @@
         <v>48</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D384" s="2"/>
     </row>
@@ -9184,10 +9214,10 @@
         <v>48</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D385" s="2"/>
     </row>
@@ -9196,10 +9226,10 @@
         <v>48</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D386" s="2"/>
     </row>
@@ -9208,10 +9238,10 @@
         <v>48</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D387" s="2"/>
     </row>
@@ -9220,10 +9250,10 @@
         <v>48</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="D388" s="2"/>
     </row>
@@ -9232,10 +9262,10 @@
         <v>48</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -9244,10 +9274,10 @@
         <v>48</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D390" s="2"/>
     </row>
@@ -9256,10 +9286,10 @@
         <v>48</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D391" s="2"/>
     </row>
@@ -9268,10 +9298,10 @@
         <v>48</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="D392" s="2"/>
     </row>
@@ -9280,10 +9310,10 @@
         <v>48</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="D393" s="2"/>
     </row>
@@ -9292,13 +9322,13 @@
         <v>48</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="395">
@@ -9306,13 +9336,13 @@
         <v>48</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="396">
@@ -9320,10 +9350,10 @@
         <v>48</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D396" s="2"/>
     </row>
@@ -9332,10 +9362,10 @@
         <v>48</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -9344,13 +9374,13 @@
         <v>48</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="399">
@@ -9358,10 +9388,10 @@
         <v>48</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -9370,10 +9400,10 @@
         <v>48</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -9382,10 +9412,10 @@
         <v>48</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="D401" s="2"/>
     </row>
@@ -9394,10 +9424,10 @@
         <v>48</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D402" s="2"/>
     </row>
@@ -9406,10 +9436,10 @@
         <v>48</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D403" s="2"/>
     </row>
@@ -9418,10 +9448,10 @@
         <v>48</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D404" s="2"/>
     </row>
@@ -9430,13 +9460,13 @@
         <v>48</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="406">
@@ -9444,10 +9474,10 @@
         <v>48</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="D406" s="2"/>
     </row>
@@ -9456,10 +9486,10 @@
         <v>48</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D407" s="2"/>
     </row>
@@ -9468,10 +9498,10 @@
         <v>48</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="D408" s="2"/>
     </row>
@@ -9480,10 +9510,10 @@
         <v>48</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D409" s="2"/>
     </row>
@@ -9492,13 +9522,13 @@
         <v>48</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="411">
@@ -9506,13 +9536,13 @@
         <v>48</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="412">
@@ -9520,10 +9550,10 @@
         <v>48</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D412" s="2"/>
     </row>
@@ -9532,10 +9562,10 @@
         <v>48</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="D413" s="2"/>
     </row>
@@ -9544,10 +9574,10 @@
         <v>48</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D414" s="2"/>
     </row>
@@ -9556,10 +9586,10 @@
         <v>48</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="D415" s="2"/>
     </row>
@@ -9568,10 +9598,10 @@
         <v>48</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D416" s="2"/>
     </row>
@@ -9580,10 +9610,10 @@
         <v>48</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D417" s="2"/>
     </row>
@@ -9592,10 +9622,10 @@
         <v>48</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="D418" s="2"/>
     </row>
@@ -9604,10 +9634,10 @@
         <v>48</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="D419" s="2"/>
     </row>
@@ -9616,10 +9646,10 @@
         <v>48</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D420" s="2"/>
     </row>
@@ -9628,10 +9658,10 @@
         <v>48</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D421" s="2"/>
     </row>
@@ -9640,10 +9670,10 @@
         <v>48</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D422" s="2"/>
     </row>
@@ -9652,10 +9682,10 @@
         <v>48</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="D423" s="2"/>
     </row>
@@ -9664,10 +9694,10 @@
         <v>48</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="D424" s="2"/>
     </row>
@@ -9676,10 +9706,10 @@
         <v>48</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D425" s="2"/>
     </row>
@@ -9688,10 +9718,10 @@
         <v>48</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="D426" s="2"/>
     </row>
@@ -9700,10 +9730,10 @@
         <v>48</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D427" s="2"/>
     </row>
@@ -9712,10 +9742,10 @@
         <v>48</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D428" s="2"/>
     </row>
@@ -9724,10 +9754,10 @@
         <v>48</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="D429" s="2"/>
     </row>
@@ -9736,10 +9766,10 @@
         <v>48</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D430" s="2"/>
     </row>
@@ -9748,10 +9778,10 @@
         <v>48</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="D431" s="2"/>
     </row>
@@ -9760,10 +9790,10 @@
         <v>48</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D432" s="2"/>
     </row>
@@ -9772,10 +9802,10 @@
         <v>48</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D433" s="2"/>
     </row>
@@ -9784,10 +9814,10 @@
         <v>48</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D434" s="2"/>
     </row>
@@ -9796,13 +9826,13 @@
         <v>48</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="436">
@@ -9810,13 +9840,13 @@
         <v>48</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="437">
@@ -9824,10 +9854,10 @@
         <v>48</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="D437" s="2"/>
     </row>
@@ -9836,13 +9866,13 @@
         <v>48</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="439">
@@ -9850,10 +9880,10 @@
         <v>48</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D439" s="2"/>
     </row>
@@ -9862,13 +9892,13 @@
         <v>48</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="441">
@@ -9876,13 +9906,13 @@
         <v>48</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="442">
@@ -9890,13 +9920,13 @@
         <v>48</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="443">
@@ -9904,13 +9934,13 @@
         <v>48</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>1008</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="444">
@@ -9918,13 +9948,13 @@
         <v>48</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>1011</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="445">
@@ -9932,13 +9962,13 @@
         <v>48</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1014</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="446">
@@ -9946,13 +9976,13 @@
         <v>48</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1017</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="447">
@@ -9960,13 +9990,13 @@
         <v>48</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1020</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="448">
@@ -9974,13 +10004,13 @@
         <v>48</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="449">
@@ -9988,13 +10018,13 @@
         <v>48</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1026</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="450">
@@ -10002,13 +10032,13 @@
         <v>48</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="451">
@@ -10016,13 +10046,13 @@
         <v>48</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="452">
@@ -10030,13 +10060,13 @@
         <v>48</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="453">
@@ -10044,13 +10074,13 @@
         <v>48</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="454">
@@ -10058,10 +10088,10 @@
         <v>48</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D454" s="2"/>
     </row>
@@ -10070,13 +10100,13 @@
         <v>48</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="456">
@@ -10084,13 +10114,13 @@
         <v>48</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="457">
@@ -10098,13 +10128,13 @@
         <v>48</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1048</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="458">
@@ -10112,10 +10142,10 @@
         <v>48</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D458" s="2"/>
     </row>
@@ -10124,13 +10154,13 @@
         <v>48</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="460">
@@ -10138,13 +10168,13 @@
         <v>48</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="461">
@@ -10152,13 +10182,13 @@
         <v>48</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="462">
@@ -10166,13 +10196,13 @@
         <v>48</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="463">
@@ -10180,13 +10210,13 @@
         <v>48</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="464">
@@ -10194,13 +10224,13 @@
         <v>48</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="465">
@@ -10208,13 +10238,13 @@
         <v>48</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="466">
@@ -10222,13 +10252,13 @@
         <v>48</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="467">
@@ -10236,13 +10266,13 @@
         <v>48</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="468">
@@ -10250,13 +10280,13 @@
         <v>48</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="469">
@@ -10264,13 +10294,13 @@
         <v>48</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="470">
@@ -10278,13 +10308,13 @@
         <v>48</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1074</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="471">
@@ -10292,13 +10322,13 @@
         <v>48</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1077</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="472">
@@ -10306,13 +10336,13 @@
         <v>48</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="473">
@@ -10320,13 +10350,13 @@
         <v>48</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="474">
@@ -10334,13 +10364,13 @@
         <v>48</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="475">
@@ -10348,13 +10378,13 @@
         <v>48</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1089</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="476">
@@ -10362,13 +10392,13 @@
         <v>48</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="477">
@@ -10376,13 +10406,13 @@
         <v>48</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1095</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="478">
@@ -10390,13 +10420,13 @@
         <v>48</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1098</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="479">
@@ -10404,13 +10434,13 @@
         <v>48</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="480">
@@ -10418,13 +10448,13 @@
         <v>48</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="D480" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="481">
@@ -10432,13 +10462,13 @@
         <v>48</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="D481" t="s" s="2">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="482">
@@ -10446,13 +10476,13 @@
         <v>48</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1109</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="483">
@@ -10460,13 +10490,13 @@
         <v>48</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="D483" t="s" s="2">
-        <v>1112</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="484">
@@ -10474,13 +10504,13 @@
         <v>48</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="D484" t="s" s="2">
-        <v>1115</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="485">
@@ -10488,13 +10518,13 @@
         <v>48</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1118</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="486">
@@ -10502,13 +10532,13 @@
         <v>48</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="D486" t="s" s="2">
-        <v>1121</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="487">
@@ -10516,13 +10546,13 @@
         <v>48</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="D487" t="s" s="2">
-        <v>1124</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="488">
@@ -10530,13 +10560,13 @@
         <v>48</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="D488" t="s" s="2">
-        <v>1127</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="489">
@@ -10544,13 +10574,13 @@
         <v>48</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="D489" t="s" s="2">
-        <v>1130</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="490">
@@ -10558,13 +10588,13 @@
         <v>48</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1133</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="491">
@@ -10572,13 +10602,13 @@
         <v>48</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="D491" t="s" s="2">
-        <v>1136</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="492">
@@ -10586,10 +10616,10 @@
         <v>48</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="D492" s="2"/>
     </row>
@@ -10598,13 +10628,13 @@
         <v>48</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>1141</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="494">
@@ -10612,13 +10642,13 @@
         <v>48</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>1144</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="495">
@@ -10626,13 +10656,13 @@
         <v>48</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1147</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="496">
@@ -10640,13 +10670,13 @@
         <v>48</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="D496" t="s" s="2">
-        <v>1150</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="497">
@@ -10654,13 +10684,13 @@
         <v>48</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="D497" t="s" s="2">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="498">
@@ -10668,13 +10698,13 @@
         <v>48</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>1156</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="499">
@@ -10682,13 +10712,13 @@
         <v>48</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="D499" t="s" s="2">
-        <v>1159</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="500">
@@ -10696,10 +10726,10 @@
         <v>48</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="D500" s="2"/>
     </row>
@@ -10708,13 +10738,13 @@
         <v>48</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D501" t="s" s="2">
-        <v>1164</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="502">
@@ -10722,13 +10752,13 @@
         <v>48</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>1167</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="503">
@@ -10736,13 +10766,13 @@
         <v>48</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="D503" t="s" s="2">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="504">
@@ -10750,13 +10780,13 @@
         <v>48</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="D504" t="s" s="2">
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="505">
@@ -10764,13 +10794,13 @@
         <v>48</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="506">
@@ -10778,13 +10808,13 @@
         <v>48</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="D506" t="s" s="2">
-        <v>1179</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="507">
@@ -10792,13 +10822,13 @@
         <v>48</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="D507" t="s" s="2">
-        <v>1182</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="508">
@@ -10806,13 +10836,13 @@
         <v>48</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="D508" t="s" s="2">
-        <v>1185</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="509">
@@ -10820,13 +10850,13 @@
         <v>48</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1188</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="510">
@@ -10834,13 +10864,13 @@
         <v>48</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="D510" t="s" s="2">
-        <v>1191</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="511">
@@ -10848,13 +10878,13 @@
         <v>48</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="D511" t="s" s="2">
-        <v>1194</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="512">
@@ -10862,13 +10892,13 @@
         <v>48</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="D512" t="s" s="2">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="513">
@@ -10876,13 +10906,13 @@
         <v>48</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="D513" t="s" s="2">
-        <v>1200</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="514">
@@ -10890,10 +10920,10 @@
         <v>48</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="D514" s="2"/>
     </row>
@@ -10902,10 +10932,10 @@
         <v>48</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="D515" s="2"/>
     </row>
@@ -10914,10 +10944,10 @@
         <v>48</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="D516" s="2"/>
     </row>
@@ -10926,10 +10956,10 @@
         <v>48</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="D517" s="2"/>
     </row>
@@ -10938,10 +10968,10 @@
         <v>48</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="D518" s="2"/>
     </row>
@@ -10950,10 +10980,10 @@
         <v>48</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="D519" s="2"/>
     </row>
@@ -10962,13 +10992,13 @@
         <v>48</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="D520" t="s" s="2">
-        <v>1215</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="521">
@@ -10976,13 +11006,13 @@
         <v>48</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="D521" t="s" s="2">
-        <v>1218</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="522">
@@ -10990,10 +11020,10 @@
         <v>48</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="D522" s="2"/>
     </row>
@@ -11002,13 +11032,13 @@
         <v>48</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="D523" t="s" s="2">
-        <v>1223</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="524">
@@ -11016,10 +11046,10 @@
         <v>48</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="D524" s="2"/>
     </row>
@@ -11028,10 +11058,10 @@
         <v>48</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D525" s="2"/>
     </row>
@@ -11040,10 +11070,10 @@
         <v>48</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="D526" s="2"/>
     </row>
@@ -11052,10 +11082,10 @@
         <v>48</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="D527" s="2"/>
     </row>
@@ -11064,13 +11094,13 @@
         <v>48</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="D528" t="s" s="2">
-        <v>1234</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="529">
@@ -11078,13 +11108,13 @@
         <v>48</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>1237</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="530">
@@ -11092,13 +11122,13 @@
         <v>48</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="D530" t="s" s="2">
-        <v>1240</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="531">
@@ -11106,13 +11136,13 @@
         <v>48</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1243</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="532">
@@ -11120,13 +11150,13 @@
         <v>48</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1246</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="533">
@@ -11134,13 +11164,13 @@
         <v>48</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1249</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="534">
@@ -11148,10 +11178,10 @@
         <v>48</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="D534" s="2"/>
     </row>
@@ -11160,10 +11190,10 @@
         <v>48</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="D535" s="2"/>
     </row>
@@ -11172,13 +11202,13 @@
         <v>48</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D536" t="s" s="2">
-        <v>1256</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="537">
@@ -11186,13 +11216,13 @@
         <v>48</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="D537" t="s" s="2">
-        <v>1259</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="538">
@@ -11200,13 +11230,13 @@
         <v>48</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>1262</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="539">
@@ -11214,13 +11244,13 @@
         <v>48</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1265</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="540">
@@ -11228,13 +11258,13 @@
         <v>48</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1268</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="541">
@@ -11242,13 +11272,13 @@
         <v>48</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1271</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="542">
@@ -11256,13 +11286,13 @@
         <v>48</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1274</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="543">
@@ -11270,13 +11300,13 @@
         <v>48</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1277</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="544">
@@ -11284,13 +11314,13 @@
         <v>48</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1280</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="545">
@@ -11298,13 +11328,13 @@
         <v>48</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1283</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="546">
@@ -11312,10 +11342,10 @@
         <v>48</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="D546" s="2"/>
     </row>
@@ -11324,13 +11354,13 @@
         <v>48</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="D547" t="s" s="2">
-        <v>1288</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="548">
@@ -11338,10 +11368,10 @@
         <v>48</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="D548" s="2"/>
     </row>
@@ -11350,10 +11380,10 @@
         <v>48</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="D549" s="2"/>
     </row>
@@ -11362,13 +11392,13 @@
         <v>48</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1295</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="551">
@@ -11376,10 +11406,10 @@
         <v>48</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="D551" s="2"/>
     </row>
@@ -11388,10 +11418,10 @@
         <v>48</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="D552" s="2"/>
     </row>
@@ -11400,10 +11430,10 @@
         <v>48</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="D553" s="2"/>
     </row>
@@ -11412,10 +11442,10 @@
         <v>48</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="D554" s="2"/>
     </row>
@@ -11424,10 +11454,10 @@
         <v>48</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="D555" s="2"/>
     </row>
@@ -11436,10 +11466,10 @@
         <v>48</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="D556" s="2"/>
     </row>
@@ -11448,10 +11478,10 @@
         <v>48</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="D557" s="2"/>
     </row>
@@ -11460,10 +11490,10 @@
         <v>48</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="D558" s="2"/>
     </row>
@@ -11472,10 +11502,10 @@
         <v>48</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="D559" s="2"/>
     </row>
@@ -11484,10 +11514,10 @@
         <v>48</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="D560" s="2"/>
     </row>
@@ -11496,10 +11526,10 @@
         <v>48</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="D561" s="2"/>
     </row>
@@ -11508,10 +11538,10 @@
         <v>48</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="D562" s="2"/>
     </row>
@@ -11520,10 +11550,10 @@
         <v>48</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D563" s="2"/>
     </row>
@@ -11532,10 +11562,10 @@
         <v>48</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="D564" s="2"/>
     </row>
@@ -11544,10 +11574,10 @@
         <v>48</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="D565" s="2"/>
     </row>
@@ -11556,10 +11586,10 @@
         <v>48</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="D566" s="2"/>
     </row>
@@ -11568,10 +11598,10 @@
         <v>48</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="D567" s="2"/>
     </row>
@@ -11580,10 +11610,10 @@
         <v>48</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="D568" s="2"/>
     </row>
@@ -11592,10 +11622,10 @@
         <v>48</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="D569" s="2"/>
     </row>
@@ -11604,10 +11634,10 @@
         <v>48</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="D570" s="2"/>
     </row>
@@ -11616,10 +11646,10 @@
         <v>48</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="D571" s="2"/>
     </row>
@@ -11628,10 +11658,10 @@
         <v>48</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="D572" s="2"/>
     </row>
@@ -11640,10 +11670,10 @@
         <v>48</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="D573" s="2"/>
     </row>
@@ -11652,10 +11682,10 @@
         <v>48</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="D574" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1352">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -976,7 +976,7 @@
     <t>127</t>
   </si>
   <si>
-    <t>Réanimation médico-chirurgicale (polyvalente)</t>
+    <t>Réanimation polyvalente</t>
   </si>
   <si>
     <t>128</t>
@@ -2470,7 +2470,7 @@
     <t>351</t>
   </si>
   <si>
-    <t>Soins intensifs médico-chirurgicaux (polyvalent)</t>
+    <t>Soins intensifs polyvalents</t>
   </si>
   <si>
     <t>352</t>
@@ -2605,7 +2605,7 @@
     <t>373</t>
   </si>
   <si>
-    <t>Surveillance continue médico-chirurgicale (polyvalente)</t>
+    <t>Surveillance continue polyvalente</t>
   </si>
   <si>
     <t>374</t>
@@ -2941,7 +2941,7 @@
     <t>426</t>
   </si>
   <si>
-    <t>Kinésithérapie orientation Lésions cutanées et cicatrices (dermatologie)</t>
+    <t>Kinésithérapie orientation Lésions cutanées et cicatrices (dermatologie, brûlés)</t>
   </si>
   <si>
     <t>427</t>
@@ -3964,10 +3964,16 @@
     <t>Soins infirmiers en puériculture</t>
   </si>
   <si>
+    <t>Ensemble des interventions réalisées par des infirmiers spécialisés diplômés pour promouvoir, maintenir et restaurer la santé des nourrissons, des jeunes enfants et des mères. Ces interventions englobent la prévention, le suivi du développement de l'enfant, l'accompagnement des familles, et les soins spécifiques liés aux pathologies pédiatriques.</t>
+  </si>
+  <si>
     <t>557</t>
   </si>
   <si>
     <t>Suivi du développement de l'enfant</t>
+  </si>
+  <si>
+    <t>Evaluation continue par un professionnel de santé visant à surveiller la croissance physique, cognitive, émotionnelle et sociale de l'enfant, afin de s'assurer qu'il atteint les étapes clés de son développement en fonction de son âge. Ce suivi permet de dépister précocement d'éventuels retards ou troubles, d'intervenir rapidement si nécessaire et d'accompagner les parents dans leur rôle éducatif et de soutien.</t>
   </si>
   <si>
     <t>558</t>
@@ -11483,29 +11489,33 @@
       <c r="C557" t="s" s="2">
         <v>1315</v>
       </c>
-      <c r="D557" s="2"/>
+      <c r="D557" t="s" s="2">
+        <v>1316</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1317</v>
-      </c>
-      <c r="D558" s="2"/>
+        <v>1318</v>
+      </c>
+      <c r="D558" t="s" s="2">
+        <v>1319</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
         <v>48</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D559" s="2"/>
     </row>
@@ -11514,10 +11524,10 @@
         <v>48</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D560" s="2"/>
     </row>
@@ -11526,10 +11536,10 @@
         <v>48</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D561" s="2"/>
     </row>
@@ -11538,10 +11548,10 @@
         <v>48</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D562" s="2"/>
     </row>
@@ -11550,10 +11560,10 @@
         <v>48</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D563" s="2"/>
     </row>
@@ -11562,10 +11572,10 @@
         <v>48</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D564" s="2"/>
     </row>
@@ -11574,10 +11584,10 @@
         <v>48</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D565" s="2"/>
     </row>
@@ -11586,10 +11596,10 @@
         <v>48</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D566" s="2"/>
     </row>
@@ -11598,10 +11608,10 @@
         <v>48</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D567" s="2"/>
     </row>
@@ -11610,10 +11620,10 @@
         <v>48</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D568" s="2"/>
     </row>
@@ -11622,10 +11632,10 @@
         <v>48</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D569" s="2"/>
     </row>
@@ -11634,10 +11644,10 @@
         <v>48</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="D570" s="2"/>
     </row>
@@ -11646,10 +11656,10 @@
         <v>48</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D571" s="2"/>
     </row>
@@ -11658,10 +11668,10 @@
         <v>48</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D572" s="2"/>
     </row>
@@ -11670,10 +11680,10 @@
         <v>48</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D573" s="2"/>
     </row>
@@ -11682,10 +11692,10 @@
         <v>48</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D574" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
+++ b/ig/main/CodeSystem-TRE-R211-ActiviteOperationnelle.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
